--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,39 +11,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Gross</t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
-    <t>Handicap</t>
-  </si>
-  <si>
-    <t>Round</t>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>F9/B9</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Points</t>
   </si>
   <si>
     <t>Competition</t>
   </si>
   <si>
-    <t>Dave</t>
-  </si>
-  <si>
-    <t>Robert Brown</t>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>Single Stableford</t>
+    <t>Dave McMinn</t>
+  </si>
+  <si>
+    <t>Paul Mellor</t>
+  </si>
+  <si>
+    <t>Brain Combe</t>
+  </si>
+  <si>
+    <t>Paul Owens</t>
+  </si>
+  <si>
+    <t>Jim Hall</t>
+  </si>
+  <si>
+    <t>Jay Dempsey</t>
+  </si>
+  <si>
+    <t>Neil Bearne</t>
+  </si>
+  <si>
+    <t>Jay Francis</t>
+  </si>
+  <si>
+    <t>Andy Mee</t>
+  </si>
+  <si>
+    <t>Simon Peers</t>
+  </si>
+  <si>
+    <t>Tony Doyle</t>
+  </si>
+  <si>
+    <t>Chris Mausdsley</t>
+  </si>
+  <si>
+    <t>Jim Walker</t>
+  </si>
+  <si>
+    <t>Craig Pickerill</t>
+  </si>
+  <si>
+    <t>Mark Gregory</t>
+  </si>
+  <si>
+    <t>Nick Guest</t>
+  </si>
+  <si>
+    <t>Ben Gregory</t>
   </si>
 </sst>
 </file>
@@ -201,7 +237,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -223,19 +259,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1318,13 +1360,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.0078" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.3516" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -1354,132 +1397,280 @@
         <v>6</v>
       </c>
       <c r="B2" s="6">
-        <v>78</v>
-      </c>
-      <c r="C2" s="6">
-        <v>59</v>
-      </c>
-      <c r="D2" s="7">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7">
+        <v>38</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" t="s" s="4">
-        <v>7</v>
-      </c>
+      <c r="E2" s="8">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7">
-        <v>78</v>
-      </c>
-      <c r="C3" s="7">
-        <v>62</v>
-      </c>
-      <c r="D3" s="7">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>36</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
         <v>16</v>
       </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>7</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7">
-        <v>75</v>
-      </c>
-      <c r="C4" s="7">
-        <v>64</v>
-      </c>
-      <c r="D4" s="7">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s" s="4">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>80</v>
-      </c>
-      <c r="C5" s="7">
-        <v>61</v>
-      </c>
-      <c r="D5" s="7">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s" s="4">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
-        <v>91</v>
-      </c>
-      <c r="C6" s="7">
-        <v>75</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="E9" s="8">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>37</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="E6" s="7">
+      <c r="B12" s="8">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>7</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8">
+        <v>6</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8">
+        <v>15</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="F6" t="s" s="4">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -126,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -231,13 +231,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -278,6 +293,18 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1360,13 +1387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="43.0078" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.3516" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
@@ -1649,13 +1676,13 @@
       <c r="F17" s="9"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="15">
         <v>10</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="8">
         <v>17</v>
       </c>
@@ -1665,12 +1692,276 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="A19" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6">
+        <v>38</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>17</v>
+      </c>
       <c r="F19" s="9"/>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8">
+        <v>36</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>16</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="B21" s="8">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>15</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8">
+        <v>14</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="B23" s="8">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8">
+        <v>5</v>
+      </c>
+      <c r="E23" s="8">
+        <v>13</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" ht="13.55" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B24" s="11">
+        <v>32</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11">
+        <v>6</v>
+      </c>
+      <c r="E24" s="17">
+        <v>12</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" ht="13.55" customHeight="1">
+      <c r="A25" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B25" s="8">
+        <v>30</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8">
+        <v>11</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" ht="13.55" customHeight="1">
+      <c r="A26" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="B26" s="8">
+        <v>30</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8">
+        <v>10</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" ht="13.55" customHeight="1">
+      <c r="A27" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="B27" s="8">
+        <v>30</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8">
+        <v>9</v>
+      </c>
+      <c r="E27" s="8">
+        <v>9</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" ht="13.55" customHeight="1">
+      <c r="A28" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="B28" s="8">
+        <v>37</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8">
+        <v>8</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" ht="13.55" customHeight="1">
+      <c r="A29" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B29" s="8">
+        <v>37</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8">
+        <v>11</v>
+      </c>
+      <c r="E29" s="8">
+        <v>7</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" ht="13.55" customHeight="1">
+      <c r="A30" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="B30" s="8">
+        <v>27</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8">
+        <v>12</v>
+      </c>
+      <c r="E30" s="8">
+        <v>6</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" ht="13.55" customHeight="1">
+      <c r="A31" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="B31" s="8">
+        <v>26</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8">
+        <v>13</v>
+      </c>
+      <c r="E31" s="8">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" ht="13.55" customHeight="1">
+      <c r="A32" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="B32" s="8">
+        <v>24</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8">
+        <v>14</v>
+      </c>
+      <c r="E32" s="8">
+        <v>4</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" ht="13.55" customHeight="1">
+      <c r="A33" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="B33" s="8">
+        <v>23</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8">
+        <v>15</v>
+      </c>
+      <c r="E33" s="8">
+        <v>3</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" ht="13.55" customHeight="1">
+      <c r="A34" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="B34" s="8">
+        <v>21</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8">
+        <v>16</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" ht="13.55" customHeight="1">
+      <c r="A35" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="B35" s="8">
+        <v>10</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8">
+        <v>17</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Dave McMinn</t>
   </si>
   <si>
+    <t>Single Stableford</t>
+  </si>
+  <si>
     <t>Paul Mellor</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t>Ben Gregory</t>
+  </si>
+  <si>
+    <t>Test Stabelford</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -292,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -302,9 +308,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1433,11 +1436,13 @@
       <c r="E2" s="8">
         <v>17</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8">
         <v>36</v>
@@ -1449,11 +1454,13 @@
       <c r="E3" s="8">
         <v>16</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8">
         <v>35</v>
@@ -1465,11 +1472,13 @@
       <c r="E4" s="8">
         <v>15</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8">
         <v>35</v>
@@ -1481,11 +1490,13 @@
       <c r="E5" s="8">
         <v>14</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="8">
         <v>33</v>
@@ -1497,11 +1508,13 @@
       <c r="E6" s="8">
         <v>13</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="11">
         <v>32</v>
@@ -1510,14 +1523,16 @@
       <c r="D7" s="11">
         <v>6</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>12</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8">
         <v>30</v>
@@ -1529,11 +1544,13 @@
       <c r="E8" s="8">
         <v>11</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8">
         <v>30</v>
@@ -1545,11 +1562,13 @@
       <c r="E9" s="8">
         <v>10</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="8">
         <v>30</v>
@@ -1561,11 +1580,13 @@
       <c r="E10" s="8">
         <v>9</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="8">
         <v>37</v>
@@ -1577,11 +1598,13 @@
       <c r="E11" s="8">
         <v>8</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8">
         <v>37</v>
@@ -1593,11 +1616,13 @@
       <c r="E12" s="8">
         <v>7</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8">
         <v>27</v>
@@ -1609,11 +1634,13 @@
       <c r="E13" s="8">
         <v>6</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="8">
         <v>26</v>
@@ -1625,11 +1652,13 @@
       <c r="E14" s="8">
         <v>5</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="8">
         <v>24</v>
@@ -1641,11 +1670,13 @@
       <c r="E15" s="8">
         <v>4</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="8">
         <v>23</v>
@@ -1657,11 +1688,13 @@
       <c r="E16" s="8">
         <v>3</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8">
         <v>21</v>
@@ -1673,11 +1706,13 @@
       <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="15">
         <v>10</v>
@@ -1689,7 +1724,9 @@
       <c r="E18" s="8">
         <v>1</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="5">
@@ -1705,11 +1742,13 @@
       <c r="E19" s="8">
         <v>17</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="8">
         <v>36</v>
@@ -1721,11 +1760,13 @@
       <c r="E20" s="8">
         <v>16</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" s="8">
         <v>35</v>
@@ -1737,11 +1778,13 @@
       <c r="E21" s="8">
         <v>15</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" s="8">
         <v>35</v>
@@ -1753,11 +1796,13 @@
       <c r="E22" s="8">
         <v>14</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="8">
         <v>33</v>
@@ -1769,11 +1814,13 @@
       <c r="E23" s="8">
         <v>13</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" s="11">
         <v>32</v>
@@ -1782,14 +1829,16 @@
       <c r="D24" s="11">
         <v>6</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="13">
         <v>12</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" s="8">
         <v>30</v>
@@ -1801,11 +1850,13 @@
       <c r="E25" s="8">
         <v>11</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" s="8">
         <v>30</v>
@@ -1817,11 +1868,13 @@
       <c r="E26" s="8">
         <v>10</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" s="8">
         <v>30</v>
@@ -1833,11 +1886,13 @@
       <c r="E27" s="8">
         <v>9</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" s="8">
         <v>37</v>
@@ -1849,11 +1904,13 @@
       <c r="E28" s="8">
         <v>8</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="8">
         <v>37</v>
@@ -1865,11 +1922,13 @@
       <c r="E29" s="8">
         <v>7</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="8">
         <v>27</v>
@@ -1881,11 +1940,13 @@
       <c r="E30" s="8">
         <v>6</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" s="8">
         <v>26</v>
@@ -1897,11 +1958,13 @@
       <c r="E31" s="8">
         <v>5</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="8">
         <v>24</v>
@@ -1913,11 +1976,13 @@
       <c r="E32" s="8">
         <v>4</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" s="8">
         <v>23</v>
@@ -1929,11 +1994,13 @@
       <c r="E33" s="8">
         <v>3</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34" s="8">
         <v>21</v>
@@ -1945,11 +2012,13 @@
       <c r="E34" s="8">
         <v>2</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" s="8">
         <v>10</v>
@@ -1961,7 +2030,9 @@
       <c r="E35" s="8">
         <v>1</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -258,7 +258,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -308,6 +308,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1737,10 +1740,10 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8">
+        <v>17</v>
+      </c>
+      <c r="E19" s="8">
         <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>17</v>
       </c>
       <c r="F19" t="s" s="4">
         <v>24</v>
@@ -1755,10 +1758,10 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="8">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8">
         <v>2</v>
-      </c>
-      <c r="E20" s="8">
-        <v>16</v>
       </c>
       <c r="F20" t="s" s="4">
         <v>24</v>
@@ -1773,10 +1776,10 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="8">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8">
         <v>3</v>
-      </c>
-      <c r="E21" s="8">
-        <v>15</v>
       </c>
       <c r="F21" t="s" s="4">
         <v>24</v>
@@ -1791,10 +1794,10 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="8">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8">
         <v>4</v>
-      </c>
-      <c r="E22" s="8">
-        <v>14</v>
       </c>
       <c r="F22" t="s" s="4">
         <v>24</v>
@@ -1809,10 +1812,10 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="8">
+        <v>13</v>
+      </c>
+      <c r="E23" s="8">
         <v>5</v>
-      </c>
-      <c r="E23" s="8">
-        <v>13</v>
       </c>
       <c r="F23" t="s" s="4">
         <v>24</v>
@@ -1825,12 +1828,12 @@
       <c r="B24" s="11">
         <v>32</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11">
+      <c r="C24" s="17"/>
+      <c r="D24" s="8">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8">
         <v>6</v>
-      </c>
-      <c r="E24" s="13">
-        <v>12</v>
       </c>
       <c r="F24" t="s" s="4">
         <v>24</v>
@@ -1845,10 +1848,10 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="8">
+        <v>11</v>
+      </c>
+      <c r="E25" s="8">
         <v>7</v>
-      </c>
-      <c r="E25" s="8">
-        <v>11</v>
       </c>
       <c r="F25" t="s" s="4">
         <v>24</v>
@@ -1863,10 +1866,10 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="8">
+        <v>10</v>
+      </c>
+      <c r="E26" s="8">
         <v>8</v>
-      </c>
-      <c r="E26" s="8">
-        <v>10</v>
       </c>
       <c r="F26" t="s" s="4">
         <v>24</v>
@@ -1899,10 +1902,10 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="8">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8">
         <v>10</v>
-      </c>
-      <c r="E28" s="8">
-        <v>8</v>
       </c>
       <c r="F28" t="s" s="4">
         <v>24</v>
@@ -1917,10 +1920,10 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="8">
+        <v>7</v>
+      </c>
+      <c r="E29" s="8">
         <v>11</v>
-      </c>
-      <c r="E29" s="8">
-        <v>7</v>
       </c>
       <c r="F29" t="s" s="4">
         <v>24</v>
@@ -1935,10 +1938,10 @@
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="8">
+        <v>6</v>
+      </c>
+      <c r="E30" s="8">
         <v>12</v>
-      </c>
-      <c r="E30" s="8">
-        <v>6</v>
       </c>
       <c r="F30" t="s" s="4">
         <v>24</v>
@@ -1953,10 +1956,10 @@
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="8">
+        <v>5</v>
+      </c>
+      <c r="E31" s="8">
         <v>13</v>
-      </c>
-      <c r="E31" s="8">
-        <v>5</v>
       </c>
       <c r="F31" t="s" s="4">
         <v>24</v>
@@ -1971,10 +1974,10 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="8">
+        <v>4</v>
+      </c>
+      <c r="E32" s="8">
         <v>14</v>
-      </c>
-      <c r="E32" s="8">
-        <v>4</v>
       </c>
       <c r="F32" t="s" s="4">
         <v>24</v>
@@ -1989,10 +1992,10 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="8">
+        <v>3</v>
+      </c>
+      <c r="E33" s="8">
         <v>15</v>
-      </c>
-      <c r="E33" s="8">
-        <v>3</v>
       </c>
       <c r="F33" t="s" s="4">
         <v>24</v>
@@ -2007,10 +2010,10 @@
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="8">
+        <v>2</v>
+      </c>
+      <c r="E34" s="8">
         <v>16</v>
-      </c>
-      <c r="E34" s="8">
-        <v>2</v>
       </c>
       <c r="F34" t="s" s="4">
         <v>24</v>
@@ -2025,10 +2028,10 @@
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
         <v>17</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1</v>
       </c>
       <c r="F35" t="s" s="4">
         <v>24</v>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -31,12 +31,18 @@
     <t>Competition</t>
   </si>
   <si>
+    <t>Andy Mee</t>
+  </si>
+  <si>
+    <t>Single Stableford</t>
+  </si>
+  <si>
+    <t>Simon Peers</t>
+  </si>
+  <si>
     <t>Dave McMinn</t>
   </si>
   <si>
-    <t>Single Stableford</t>
-  </si>
-  <si>
     <t>Paul Mellor</t>
   </si>
   <si>
@@ -56,12 +62,6 @@
   </si>
   <si>
     <t>Jay Francis</t>
-  </si>
-  <si>
-    <t>Andy Mee</t>
-  </si>
-  <si>
-    <t>Simon Peers</t>
   </si>
   <si>
     <t>Tony Doyle</t>
@@ -151,7 +151,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -193,6 +193,21 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -234,21 +249,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -258,7 +258,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -274,6 +274,12 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -283,34 +289,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1393,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1401,8 +1398,8 @@
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.3516" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1424,618 +1421,653 @@
       <c r="F1" t="s" s="4">
         <v>5</v>
       </c>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
-        <v>38</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8">
-        <v>17</v>
+      <c r="B2" s="5">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9</v>
       </c>
       <c r="F2" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="7">
         <v>8</v>
       </c>
       <c r="B3" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8">
-        <v>16</v>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8</v>
       </c>
       <c r="F3" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="4">
+      <c r="A4" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="B4" s="8">
-        <v>35</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8">
-        <v>15</v>
+      <c r="B4" s="11">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>17</v>
       </c>
       <c r="F4" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
-        <v>35</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8">
-        <v>14</v>
+      <c r="B5" s="5">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>16</v>
       </c>
       <c r="F5" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="B6" s="8">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8">
-        <v>13</v>
+      <c r="B6" s="5">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>15</v>
       </c>
       <c r="F6" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="A7" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B7" s="11">
-        <v>32</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11">
-        <v>6</v>
-      </c>
-      <c r="E7" s="13">
-        <v>12</v>
+      <c r="B7" s="5">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="B8" s="8">
-        <v>30</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8">
-        <v>11</v>
+      <c r="B8" s="5">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>13</v>
       </c>
       <c r="F8" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="B9" s="8">
-        <v>30</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8">
-        <v>10</v>
+      <c r="B9" s="14">
+        <v>32</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14">
+        <v>6</v>
+      </c>
+      <c r="E9" s="16">
+        <v>12</v>
       </c>
       <c r="F9" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>30</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8">
-        <v>9</v>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>11</v>
       </c>
       <c r="F10" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="B11" s="8">
-        <v>37</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8">
+      <c r="B11" s="5">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
         <v>10</v>
-      </c>
-      <c r="E11" s="8">
-        <v>8</v>
       </c>
       <c r="F11" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>37</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8">
+      <c r="C12" s="6"/>
+      <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>7</v>
       </c>
       <c r="F12" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>27</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8">
+      <c r="C13" s="6"/>
+      <c r="D13" s="5">
         <v>12</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>6</v>
       </c>
       <c r="F13" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>26</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8">
+      <c r="C14" s="6"/>
+      <c r="D14" s="5">
         <v>13</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <v>5</v>
       </c>
       <c r="F14" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>24</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8">
+      <c r="C15" s="6"/>
+      <c r="D15" s="5">
         <v>14</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>4</v>
       </c>
       <c r="F15" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>23</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8">
+      <c r="C16" s="6"/>
+      <c r="D16" s="5">
         <v>15</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="5">
         <v>3</v>
       </c>
       <c r="F16" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="5">
         <v>21</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8">
+      <c r="C17" s="6"/>
+      <c r="D17" s="5">
         <v>16</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>2</v>
       </c>
       <c r="F17" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="14">
+      <c r="A18" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="5">
         <v>10</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="8">
+      <c r="C18" s="9"/>
+      <c r="D18" s="5">
         <v>17</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="F18" t="s" s="4">
         <v>7</v>
       </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B19" s="6">
-        <v>38</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8">
+      <c r="A19" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5">
         <v>17</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>1</v>
       </c>
       <c r="F19" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B20" s="8">
-        <v>36</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5">
         <v>16</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="5">
         <v>2</v>
       </c>
       <c r="F20" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B21" s="8">
-        <v>35</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5">
         <v>15</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
         <v>3</v>
       </c>
       <c r="F21" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="B22" s="8">
-        <v>35</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5">
         <v>14</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
         <v>4</v>
       </c>
       <c r="F22" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="B23" s="8">
-        <v>33</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8">
         <v>13</v>
       </c>
-      <c r="E23" s="8">
+      <c r="B23" s="5">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5">
         <v>5</v>
       </c>
       <c r="F23" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" t="s" s="10">
+      <c r="A24" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="B24" s="5">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5">
         <v>12</v>
       </c>
-      <c r="B24" s="11">
-        <v>32</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="8">
-        <v>12</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
         <v>6</v>
       </c>
       <c r="F24" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="B25" s="8">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5">
         <v>30</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8">
+      <c r="C25" s="6"/>
+      <c r="D25" s="5">
         <v>11</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="5">
         <v>7</v>
       </c>
       <c r="F25" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="B26" s="8">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5">
         <v>30</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8">
+      <c r="C26" s="6"/>
+      <c r="D26" s="5">
         <v>10</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="5">
         <v>8</v>
       </c>
       <c r="F26" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="B27" s="8">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5">
         <v>30</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8">
+      <c r="C27" s="6"/>
+      <c r="D27" s="5">
         <v>9</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="5">
         <v>9</v>
       </c>
       <c r="F27" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="B28" s="8">
-        <v>37</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8">
         <v>8</v>
       </c>
-      <c r="E28" s="8">
+      <c r="B28" s="5">
+        <v>32</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5">
         <v>10</v>
       </c>
       <c r="F28" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="B29" s="8">
-        <v>37</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8">
+      <c r="B29" s="5">
+        <v>33</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5">
         <v>7</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="5">
         <v>11</v>
       </c>
       <c r="F29" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="B30" s="8">
-        <v>27</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8">
+      <c r="B30" s="5">
+        <v>35</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5">
         <v>6</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="5">
         <v>12</v>
       </c>
       <c r="F30" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="B31" s="8">
-        <v>26</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8">
+      <c r="B31" s="5">
+        <v>35</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="5">
         <v>13</v>
       </c>
       <c r="F31" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="B32" s="8">
-        <v>24</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8">
+      <c r="B32" s="5">
+        <v>36</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5">
         <v>4</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="5">
         <v>14</v>
       </c>
       <c r="F32" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="B33" s="8">
-        <v>23</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8">
+      <c r="B33" s="5">
+        <v>37</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5">
         <v>3</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="5">
         <v>15</v>
       </c>
       <c r="F33" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="4">
         <v>22</v>
       </c>
       <c r="B34" s="8">
-        <v>21</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="8">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5">
         <v>2</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="5">
         <v>16</v>
       </c>
       <c r="F34" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="B35" s="8">
-        <v>10</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8">
+      <c r="B35" s="11">
+        <v>38</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5">
         <v>1</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="5">
         <v>17</v>
       </c>
       <c r="F35" t="s" s="4">
         <v>24</v>
       </c>
+      <c r="G35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -31,13 +31,22 @@
     <t>Competition</t>
   </si>
   <si>
+    <t>Winnings</t>
+  </si>
+  <si>
     <t>Andy Mee</t>
   </si>
   <si>
     <t>Single Stableford</t>
   </si>
   <si>
+    <t>£24.48</t>
+  </si>
+  <si>
     <t>Simon Peers</t>
+  </si>
+  <si>
+    <t>£16.32</t>
   </si>
   <si>
     <t>Dave McMinn</t>
@@ -1421,11 +1430,13 @@
       <c r="F1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" t="s" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5">
         <v>30</v>
@@ -1438,13 +1449,15 @@
         <v>9</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="G2" t="s" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8">
         <v>37</v>
@@ -1457,13 +1470,15 @@
         <v>8</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="G3" t="s" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="11">
         <v>38</v>
@@ -1476,13 +1491,13 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>36</v>
@@ -1495,13 +1510,13 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <v>35</v>
@@ -1514,13 +1529,13 @@
         <v>15</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>35</v>
@@ -1533,13 +1548,13 @@
         <v>14</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5">
         <v>33</v>
@@ -1552,13 +1567,13 @@
         <v>13</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14">
         <v>32</v>
@@ -1571,13 +1586,13 @@
         <v>12</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5">
         <v>30</v>
@@ -1590,13 +1605,13 @@
         <v>11</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5">
         <v>30</v>
@@ -1609,13 +1624,13 @@
         <v>10</v>
       </c>
       <c r="F11" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5">
         <v>37</v>
@@ -1628,13 +1643,13 @@
         <v>7</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5">
         <v>27</v>
@@ -1647,13 +1662,13 @@
         <v>6</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5">
         <v>26</v>
@@ -1666,13 +1681,13 @@
         <v>5</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5">
         <v>24</v>
@@ -1685,13 +1700,13 @@
         <v>4</v>
       </c>
       <c r="F15" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5">
         <v>23</v>
@@ -1704,13 +1719,13 @@
         <v>3</v>
       </c>
       <c r="F16" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5">
         <v>21</v>
@@ -1723,13 +1738,13 @@
         <v>2</v>
       </c>
       <c r="F17" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5">
         <v>10</v>
@@ -1742,13 +1757,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B19" s="5">
         <v>10</v>
@@ -1761,13 +1776,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B20" s="5">
         <v>21</v>
@@ -1780,13 +1795,13 @@
         <v>2</v>
       </c>
       <c r="F20" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" s="5">
         <v>23</v>
@@ -1799,13 +1814,13 @@
         <v>3</v>
       </c>
       <c r="F21" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5">
         <v>24</v>
@@ -1818,13 +1833,13 @@
         <v>4</v>
       </c>
       <c r="F22" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B23" s="5">
         <v>26</v>
@@ -1837,13 +1852,13 @@
         <v>5</v>
       </c>
       <c r="F23" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B24" s="5">
         <v>27</v>
@@ -1856,13 +1871,13 @@
         <v>6</v>
       </c>
       <c r="F24" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B25" s="5">
         <v>30</v>
@@ -1875,13 +1890,13 @@
         <v>7</v>
       </c>
       <c r="F25" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B26" s="5">
         <v>30</v>
@@ -1894,13 +1909,13 @@
         <v>8</v>
       </c>
       <c r="F26" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" t="s" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="5">
         <v>30</v>
@@ -1913,13 +1928,13 @@
         <v>9</v>
       </c>
       <c r="F27" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B28" s="5">
         <v>32</v>
@@ -1932,13 +1947,13 @@
         <v>10</v>
       </c>
       <c r="F28" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B29" s="5">
         <v>33</v>
@@ -1951,13 +1966,13 @@
         <v>11</v>
       </c>
       <c r="F29" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B30" s="5">
         <v>35</v>
@@ -1970,13 +1985,13 @@
         <v>12</v>
       </c>
       <c r="F30" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" t="s" s="4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B31" s="5">
         <v>35</v>
@@ -1989,13 +2004,13 @@
         <v>13</v>
       </c>
       <c r="F31" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B32" s="5">
         <v>36</v>
@@ -2008,13 +2023,13 @@
         <v>14</v>
       </c>
       <c r="F32" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B33" s="5">
         <v>37</v>
@@ -2027,13 +2042,13 @@
         <v>15</v>
       </c>
       <c r="F33" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34" s="8">
         <v>37</v>
@@ -2046,13 +2061,13 @@
         <v>16</v>
       </c>
       <c r="F34" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" t="s" s="4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B35" s="11">
         <v>38</v>
@@ -2065,7 +2080,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="s" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G35" s="4"/>
     </row>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -34,67 +34,115 @@
     <t>Winnings</t>
   </si>
   <si>
+    <t>Dave McMinn</t>
+  </si>
+  <si>
+    <t>18 + 20</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April</t>
+  </si>
+  <si>
+    <t>£24.48</t>
+  </si>
+  <si>
+    <t>Paul Mellor</t>
+  </si>
+  <si>
+    <t>19 + 17</t>
+  </si>
+  <si>
+    <t>£16.32</t>
+  </si>
+  <si>
+    <t>Brain Combe</t>
+  </si>
+  <si>
+    <t>14 + 21</t>
+  </si>
+  <si>
+    <t>Paul Owens</t>
+  </si>
+  <si>
+    <t>17 +18</t>
+  </si>
+  <si>
+    <t>Jim Hall</t>
+  </si>
+  <si>
+    <t>16 + 17</t>
+  </si>
+  <si>
+    <t>Jay Dempsey</t>
+  </si>
+  <si>
+    <t>11 + 21</t>
+  </si>
+  <si>
+    <t>Neil Bearne</t>
+  </si>
+  <si>
+    <t>14 + 16</t>
+  </si>
+  <si>
+    <t>Jay Francis</t>
+  </si>
+  <si>
+    <t>15 + 15</t>
+  </si>
+  <si>
     <t>Andy Mee</t>
   </si>
   <si>
-    <t>Single Stableford</t>
-  </si>
-  <si>
-    <t>£24.48</t>
+    <t>18 + 12</t>
   </si>
   <si>
     <t>Simon Peers</t>
   </si>
   <si>
-    <t>£16.32</t>
-  </si>
-  <si>
-    <t>Dave McMinn</t>
-  </si>
-  <si>
-    <t>Paul Mellor</t>
-  </si>
-  <si>
-    <t>Brain Combe</t>
-  </si>
-  <si>
-    <t>Paul Owens</t>
-  </si>
-  <si>
-    <t>Jim Hall</t>
-  </si>
-  <si>
-    <t>Jay Dempsey</t>
-  </si>
-  <si>
-    <t>Neil Bearne</t>
-  </si>
-  <si>
-    <t>Jay Francis</t>
+    <t>13 + 14</t>
   </si>
   <si>
     <t>Tony Doyle</t>
   </si>
   <si>
+    <t>15 + 12</t>
+  </si>
+  <si>
     <t>Chris Mausdsley</t>
   </si>
   <si>
+    <t>16 + 11</t>
+  </si>
+  <si>
     <t>Jim Walker</t>
   </si>
   <si>
+    <t>16 + 10</t>
+  </si>
+  <si>
     <t>Craig Pickerill</t>
   </si>
   <si>
+    <t>11 + 13</t>
+  </si>
+  <si>
     <t>Mark Gregory</t>
   </si>
   <si>
+    <t>12 + 11</t>
+  </si>
+  <si>
     <t>Nick Guest</t>
   </si>
   <si>
+    <t>9 + 12</t>
+  </si>
+  <si>
     <t>Ben Gregory</t>
   </si>
   <si>
-    <t>Test Stabelford</t>
+    <t>4 + 6</t>
   </si>
 </sst>
 </file>
@@ -141,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -160,7 +208,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -191,21 +239,6 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -267,7 +300,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -283,28 +316,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -313,10 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1399,7 +1420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1407,7 +1428,7 @@
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.3516" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.3516" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1435,654 +1456,374 @@
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
-        <v>30</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5">
+      <c r="B2" s="6">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="E2" s="5">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>8</v>
-      </c>
       <c r="G2" t="s" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8">
-        <v>37</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="5">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
-        <v>8</v>
+      <c r="A3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>17</v>
+      <c r="A4" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>15</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5">
-        <v>36</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
         <v>16</v>
       </c>
+      <c r="B5" s="7">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>14</v>
+      </c>
       <c r="F5" t="s" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="7">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>13</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="B7" s="5">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5">
-        <v>4</v>
-      </c>
-      <c r="E7" s="5">
-        <v>14</v>
+      <c r="A7" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11">
+        <v>12</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5">
-        <v>33</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="7">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>11</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="13">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14">
-        <v>32</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14">
-        <v>6</v>
-      </c>
-      <c r="E9" s="16">
-        <v>12</v>
+      <c r="A9" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7">
         <v>30</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>11</v>
+      <c r="C10" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7">
+        <v>9</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
         <v>8</v>
       </c>
-      <c r="E11" s="5">
-        <v>10</v>
-      </c>
       <c r="F11" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7">
         <v>11</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <v>7</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7">
         <v>27</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5">
+      <c r="C13" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
         <v>12</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <v>6</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G13" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7">
         <v>26</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5">
+      <c r="C14" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7">
         <v>13</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>5</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="B15" s="5">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7">
         <v>24</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5">
+      <c r="C15" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
         <v>14</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>4</v>
       </c>
       <c r="F15" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7">
         <v>23</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5">
+      <c r="C16" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7">
         <v>15</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>3</v>
       </c>
       <c r="F16" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5">
+        <v>40</v>
+      </c>
+      <c r="B17" s="7">
         <v>21</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5">
+      <c r="C17" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7">
         <v>16</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>2</v>
       </c>
       <c r="F17" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5">
+      <c r="A18" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="B18" s="7">
         <v>10</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="5">
+      <c r="C18" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7">
         <v>17</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>1</v>
       </c>
       <c r="F18" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5">
-        <v>10</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="5">
-        <v>17</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="B20" s="5">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5">
-        <v>23</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="B22" s="5">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5">
-        <v>14</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="B23" s="5">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5">
-        <v>13</v>
-      </c>
-      <c r="E23" s="5">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="B24" s="5">
-        <v>27</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="B25" s="5">
-        <v>30</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5">
-        <v>11</v>
-      </c>
-      <c r="E25" s="5">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="B26" s="5">
-        <v>30</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="B27" s="5">
-        <v>30</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5">
-        <v>9</v>
-      </c>
-      <c r="E27" s="5">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5">
-        <v>32</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5">
-        <v>8</v>
-      </c>
-      <c r="E28" s="5">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="B29" s="5">
-        <v>33</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5">
-        <v>7</v>
-      </c>
-      <c r="E29" s="5">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="B30" s="5">
-        <v>35</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="B31" s="5">
-        <v>35</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5">
-        <v>5</v>
-      </c>
-      <c r="E31" s="5">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="B32" s="5">
-        <v>36</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5">
-        <v>4</v>
-      </c>
-      <c r="E32" s="5">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="B33" s="5">
-        <v>37</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5">
-        <v>3</v>
-      </c>
-      <c r="E33" s="5">
-        <v>15</v>
-      </c>
-      <c r="F33" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="B34" s="8">
-        <v>37</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5">
-        <v>2</v>
-      </c>
-      <c r="E34" s="5">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="B35" s="11">
-        <v>38</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="G35" s="4"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -43,16 +43,10 @@
     <t>Single Stableford 5th April</t>
   </si>
   <si>
-    <t>£24.48</t>
-  </si>
-  <si>
     <t>Paul Mellor</t>
   </si>
   <si>
     <t>19 + 17</t>
-  </si>
-  <si>
-    <t>£16.32</t>
   </si>
   <si>
     <t>Brain Combe</t>
@@ -1474,19 +1468,19 @@
       <c r="F2" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G2" t="s" s="4">
-        <v>10</v>
+      <c r="G2" s="7">
+        <v>24.48</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7">
         <v>36</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
@@ -1497,19 +1491,19 @@
       <c r="F3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="4">
-        <v>13</v>
+      <c r="G3" s="7">
+        <v>16.32</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7">
         <v>35</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
         <v>3</v>
@@ -1520,17 +1514,17 @@
       <c r="F4" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7">
         <v>35</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
         <v>4</v>
@@ -1541,17 +1535,17 @@
       <c r="F5" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7">
         <v>33</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
         <v>5</v>
@@ -1562,17 +1556,17 @@
       <c r="F6" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9">
         <v>32</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="9">
         <v>6</v>
@@ -1583,17 +1577,17 @@
       <c r="F7" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7">
         <v>30</v>
       </c>
       <c r="C8" t="s" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7">
         <v>7</v>
@@ -1604,17 +1598,17 @@
       <c r="F8" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="7">
         <v>30</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
         <v>8</v>
@@ -1625,17 +1619,17 @@
       <c r="F9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="7">
         <v>30</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
         <v>9</v>
@@ -1646,17 +1640,17 @@
       <c r="F10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7">
         <v>27</v>
       </c>
       <c r="C11" t="s" s="4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
         <v>10</v>
@@ -1667,17 +1661,17 @@
       <c r="F11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="7">
         <v>27</v>
       </c>
       <c r="C12" t="s" s="4">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7">
         <v>11</v>
@@ -1688,17 +1682,17 @@
       <c r="F12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="7">
         <v>27</v>
       </c>
       <c r="C13" t="s" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
         <v>12</v>
@@ -1709,17 +1703,17 @@
       <c r="F13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="7">
         <v>26</v>
       </c>
       <c r="C14" t="s" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
         <v>13</v>
@@ -1730,17 +1724,17 @@
       <c r="F14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7">
         <v>24</v>
       </c>
       <c r="C15" t="s" s="4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7">
         <v>14</v>
@@ -1751,17 +1745,17 @@
       <c r="F15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7">
         <v>23</v>
       </c>
       <c r="C16" t="s" s="4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
         <v>15</v>
@@ -1772,17 +1766,17 @@
       <c r="F16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7">
         <v>21</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
         <v>16</v>
@@ -1793,17 +1787,17 @@
       <c r="F17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="7">
         <v>10</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="7">
         <v>17</v>
@@ -1814,16 +1808,16 @@
       <c r="F18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -34,109 +34,109 @@
     <t>Winnings</t>
   </si>
   <si>
+    <t>18 + 20</t>
+  </si>
+  <si>
     <t>Dave McMinn</t>
   </si>
   <si>
-    <t>18 + 20</t>
-  </si>
-  <si>
     <t>Single Stableford 5th April</t>
   </si>
   <si>
+    <t>19 + 17</t>
+  </si>
+  <si>
     <t>Paul Mellor</t>
   </si>
   <si>
-    <t>19 + 17</t>
+    <t>14 + 21</t>
   </si>
   <si>
     <t>Brain Combe</t>
   </si>
   <si>
-    <t>14 + 21</t>
+    <t>17 +18</t>
   </si>
   <si>
     <t>Paul Owens</t>
   </si>
   <si>
-    <t>17 +18</t>
+    <t>16 + 17</t>
   </si>
   <si>
     <t>Jim Hall</t>
   </si>
   <si>
-    <t>16 + 17</t>
+    <t>11 + 21</t>
   </si>
   <si>
     <t>Jay Dempsey</t>
   </si>
   <si>
-    <t>11 + 21</t>
+    <t>14 + 16</t>
   </si>
   <si>
     <t>Neil Bearne</t>
   </si>
   <si>
-    <t>14 + 16</t>
+    <t>15 + 15</t>
   </si>
   <si>
     <t>Jay Francis</t>
   </si>
   <si>
-    <t>15 + 15</t>
+    <t>18 + 12</t>
   </si>
   <si>
     <t>Andy Mee</t>
   </si>
   <si>
-    <t>18 + 12</t>
+    <t>13 + 14</t>
   </si>
   <si>
     <t>Simon Peers</t>
   </si>
   <si>
-    <t>13 + 14</t>
+    <t>15 + 12</t>
   </si>
   <si>
     <t>Tony Doyle</t>
   </si>
   <si>
-    <t>15 + 12</t>
+    <t>16 + 11</t>
   </si>
   <si>
     <t>Chris Mausdsley</t>
   </si>
   <si>
-    <t>16 + 11</t>
+    <t>16 + 10</t>
   </si>
   <si>
     <t>Jim Walker</t>
   </si>
   <si>
-    <t>16 + 10</t>
+    <t>11 + 13</t>
   </si>
   <si>
     <t>Craig Pickerill</t>
   </si>
   <si>
-    <t>11 + 13</t>
+    <t>12 + 11</t>
   </si>
   <si>
     <t>Mark Gregory</t>
   </si>
   <si>
-    <t>12 + 11</t>
+    <t>9 + 12</t>
   </si>
   <si>
     <t>Nick Guest</t>
   </si>
   <si>
-    <t>9 + 12</t>
+    <t>4 + 6</t>
   </si>
   <si>
     <t>Ben Gregory</t>
-  </si>
-  <si>
-    <t>4 + 6</t>
   </si>
 </sst>
 </file>
@@ -319,6 +319,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -329,9 +332,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1414,7 +1414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1422,8 +1422,8 @@
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.3516" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1448,17 +1448,18 @@
       <c r="G1" t="s" s="4">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6">
         <v>38</v>
       </c>
-      <c r="C2" t="s" s="5">
-        <v>8</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="7">
         <v>1</v>
       </c>
@@ -1470,18 +1471,19 @@
       </c>
       <c r="G2" s="7">
         <v>24.48</v>
+      </c>
+      <c r="H2" t="s" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7">
         <v>36</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="7">
         <v>2</v>
       </c>
@@ -1493,18 +1495,19 @@
       </c>
       <c r="G3" s="7">
         <v>16.32</v>
+      </c>
+      <c r="H3" t="s" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7">
         <v>35</v>
       </c>
-      <c r="C4" t="s" s="4">
-        <v>13</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="7">
         <v>3</v>
       </c>
@@ -1514,18 +1517,19 @@
       <c r="F4" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" t="s" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7">
         <v>35</v>
       </c>
-      <c r="C5" t="s" s="4">
-        <v>15</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="7">
         <v>4</v>
       </c>
@@ -1535,18 +1539,19 @@
       <c r="F5" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" t="s" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7">
         <v>33</v>
       </c>
-      <c r="C6" t="s" s="4">
-        <v>17</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="7">
         <v>5</v>
       </c>
@@ -1556,39 +1561,41 @@
       <c r="F6" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" t="s" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10">
         <v>32</v>
       </c>
-      <c r="C7" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10">
         <v>6</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <v>12</v>
       </c>
       <c r="F7" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" t="s" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7">
         <v>30</v>
       </c>
-      <c r="C8" t="s" s="4">
-        <v>21</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="7">
         <v>7</v>
       </c>
@@ -1598,18 +1605,19 @@
       <c r="F8" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" t="s" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7">
         <v>30</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>23</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="7">
         <v>8</v>
       </c>
@@ -1619,18 +1627,19 @@
       <c r="F9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" t="s" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7">
         <v>30</v>
       </c>
-      <c r="C10" t="s" s="4">
-        <v>25</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="7">
         <v>9</v>
       </c>
@@ -1640,18 +1649,19 @@
       <c r="F10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" t="s" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="7">
         <v>27</v>
       </c>
-      <c r="C11" t="s" s="4">
-        <v>27</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="7">
         <v>10</v>
       </c>
@@ -1661,18 +1671,19 @@
       <c r="F11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" t="s" s="4">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="7">
         <v>27</v>
       </c>
-      <c r="C12" t="s" s="4">
-        <v>29</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="7">
         <v>11</v>
       </c>
@@ -1682,18 +1693,19 @@
       <c r="F12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" t="s" s="4">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7">
         <v>27</v>
       </c>
-      <c r="C13" t="s" s="4">
-        <v>31</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="7">
         <v>12</v>
       </c>
@@ -1703,18 +1715,19 @@
       <c r="F13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" t="s" s="4">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="7">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="4">
-        <v>33</v>
-      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="7">
         <v>13</v>
       </c>
@@ -1724,18 +1737,19 @@
       <c r="F14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" t="s" s="4">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="7">
         <v>24</v>
       </c>
-      <c r="C15" t="s" s="4">
-        <v>35</v>
-      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="7">
         <v>14</v>
       </c>
@@ -1745,18 +1759,19 @@
       <c r="F15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" t="s" s="4">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="7">
         <v>23</v>
       </c>
-      <c r="C16" t="s" s="4">
-        <v>37</v>
-      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="7">
         <v>15</v>
       </c>
@@ -1766,18 +1781,19 @@
       <c r="F16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" t="s" s="4">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="7">
         <v>21</v>
       </c>
-      <c r="C17" t="s" s="4">
-        <v>39</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="7">
         <v>16</v>
       </c>
@@ -1787,18 +1803,19 @@
       <c r="F17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" t="s" s="4">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
-        <v>41</v>
-      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="7">
         <v>17</v>
       </c>
@@ -1808,16 +1825,18 @@
       <c r="F18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -19,9 +19,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t>F9/B9</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -34,106 +31,55 @@
     <t>Winnings</t>
   </si>
   <si>
-    <t>18 + 20</t>
-  </si>
-  <si>
     <t>Dave McMinn</t>
   </si>
   <si>
     <t>Single Stableford 5th April</t>
   </si>
   <si>
-    <t>19 + 17</t>
-  </si>
-  <si>
     <t>Paul Mellor</t>
   </si>
   <si>
-    <t>14 + 21</t>
-  </si>
-  <si>
     <t>Brain Combe</t>
   </si>
   <si>
-    <t>17 +18</t>
-  </si>
-  <si>
     <t>Paul Owens</t>
   </si>
   <si>
-    <t>16 + 17</t>
-  </si>
-  <si>
     <t>Jim Hall</t>
   </si>
   <si>
-    <t>11 + 21</t>
-  </si>
-  <si>
     <t>Jay Dempsey</t>
   </si>
   <si>
-    <t>14 + 16</t>
-  </si>
-  <si>
     <t>Neil Bearne</t>
   </si>
   <si>
-    <t>15 + 15</t>
-  </si>
-  <si>
     <t>Jay Francis</t>
   </si>
   <si>
-    <t>18 + 12</t>
-  </si>
-  <si>
     <t>Andy Mee</t>
   </si>
   <si>
-    <t>13 + 14</t>
-  </si>
-  <si>
     <t>Simon Peers</t>
   </si>
   <si>
-    <t>15 + 12</t>
-  </si>
-  <si>
     <t>Tony Doyle</t>
   </si>
   <si>
-    <t>16 + 11</t>
-  </si>
-  <si>
     <t>Chris Mausdsley</t>
   </si>
   <si>
-    <t>16 + 10</t>
-  </si>
-  <si>
     <t>Jim Walker</t>
   </si>
   <si>
-    <t>11 + 13</t>
-  </si>
-  <si>
     <t>Craig Pickerill</t>
   </si>
   <si>
-    <t>12 + 11</t>
-  </si>
-  <si>
     <t>Mark Gregory</t>
   </si>
   <si>
-    <t>9 + 12</t>
-  </si>
-  <si>
     <t>Nick Guest</t>
-  </si>
-  <si>
-    <t>4 + 6</t>
   </si>
   <si>
     <t>Ben Gregory</t>
@@ -294,7 +240,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -326,9 +272,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1414,16 +1357,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.3516" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.3516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1433,10 +1376,10 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
       <c r="E1" t="s" s="4">
@@ -1445,388 +1388,316 @@
       <c r="F1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="5">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
         <v>38</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
       <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
         <v>17</v>
       </c>
-      <c r="F2" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="E2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7">
         <v>24.48</v>
-      </c>
-      <c r="H2" t="s" s="4">
-        <v>10</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7">
         <v>36</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
       <c r="D3" s="7">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="E3" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7">
         <v>16.32</v>
-      </c>
-      <c r="H3" t="s" s="4">
-        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
         <v>35</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
       <c r="D4" s="7">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7">
         <v>15</v>
       </c>
-      <c r="F4" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" t="s" s="4">
-        <v>14</v>
-      </c>
+      <c r="E4" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7">
         <v>35</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
       <c r="D5" s="7">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7">
         <v>14</v>
       </c>
-      <c r="F5" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" t="s" s="4">
-        <v>16</v>
-      </c>
+      <c r="E5" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7">
         <v>33</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
       <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7">
         <v>13</v>
       </c>
-      <c r="F6" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" t="s" s="4">
-        <v>18</v>
-      </c>
+      <c r="E6" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" s="10">
         <v>32</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10">
+      <c r="C7" s="10">
         <v>6</v>
       </c>
-      <c r="E7" s="12">
+      <c r="D7" s="11">
         <v>12</v>
       </c>
-      <c r="F7" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" t="s" s="4">
-        <v>20</v>
-      </c>
+      <c r="E7" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8" s="7">
         <v>30</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
       <c r="D8" s="7">
-        <v>7</v>
-      </c>
-      <c r="E8" s="7">
         <v>11</v>
       </c>
-      <c r="F8" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" t="s" s="4">
-        <v>22</v>
-      </c>
+      <c r="E8" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B9" s="7">
         <v>30</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="7">
+        <v>8</v>
+      </c>
       <c r="D9" s="7">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7">
         <v>10</v>
       </c>
-      <c r="F9" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" t="s" s="4">
-        <v>24</v>
-      </c>
+      <c r="E9" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B10" s="7">
         <v>30</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="7">
+        <v>9</v>
+      </c>
       <c r="D10" s="7">
         <v>9</v>
       </c>
-      <c r="E10" s="7">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" t="s" s="4">
-        <v>26</v>
-      </c>
+      <c r="E10" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7">
         <v>27</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
       <c r="D11" s="7">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7">
         <v>8</v>
       </c>
-      <c r="F11" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" t="s" s="4">
-        <v>28</v>
-      </c>
+      <c r="E11" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7">
         <v>27</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
       <c r="D12" s="7">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" t="s" s="4">
-        <v>30</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E12" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7">
         <v>27</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="7">
+        <v>12</v>
+      </c>
       <c r="D13" s="7">
-        <v>12</v>
-      </c>
-      <c r="E13" s="7">
         <v>6</v>
       </c>
-      <c r="F13" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" t="s" s="4">
-        <v>32</v>
-      </c>
+      <c r="E13" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="4">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B14" s="7">
         <v>26</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="7">
+        <v>13</v>
+      </c>
       <c r="D14" s="7">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7">
         <v>5</v>
       </c>
-      <c r="F14" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" t="s" s="4">
-        <v>34</v>
-      </c>
+      <c r="E14" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B15" s="7">
         <v>24</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="7">
+        <v>14</v>
+      </c>
       <c r="D15" s="7">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7">
         <v>4</v>
       </c>
-      <c r="F15" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" t="s" s="4">
-        <v>36</v>
-      </c>
+      <c r="E15" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="4">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B16" s="7">
         <v>23</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
       <c r="D16" s="7">
-        <v>15</v>
-      </c>
-      <c r="E16" s="7">
         <v>3</v>
       </c>
-      <c r="F16" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" t="s" s="4">
-        <v>38</v>
-      </c>
+      <c r="E16" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="4">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B17" s="7">
         <v>21</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
       <c r="D17" s="7">
-        <v>16</v>
-      </c>
-      <c r="E17" s="7">
         <v>2</v>
       </c>
-      <c r="F17" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" t="s" s="4">
-        <v>40</v>
-      </c>
+      <c r="E17" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="4">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B18" s="7">
         <v>10</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
       <c r="D18" s="7">
-        <v>17</v>
-      </c>
-      <c r="E18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="E18" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" s="8"/>
@@ -1835,8 +1706,6 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Ben Gregory</t>
+  </si>
+  <si>
+    <t>Monthly Medal 1 Test</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -234,13 +237,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -275,6 +293,12 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1357,7 +1381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1682,10 +1706,10 @@
       <c r="F17" s="8"/>
     </row>
     <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="13">
         <v>10</v>
       </c>
       <c r="C18" s="7">
@@ -1700,12 +1724,80 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6">
+        <v>78</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="F19" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="B20" s="7">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="F20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" t="s" s="4">
+        <v>9</v>
+      </c>
+      <c r="B21" s="7">
+        <v>80</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7">
+        <v>81</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Ben Gregory</t>
-  </si>
-  <si>
-    <t>Monthly Medal 1 Test</t>
   </si>
 </sst>
 </file>
@@ -258,7 +255,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -299,6 +296,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1724,79 +1724,35 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B19" s="6">
-        <v>78</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="F19" s="7">
-        <v>20</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="B20" s="7">
-        <v>79</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="F20" s="7">
-        <v>10</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B21" s="7">
-        <v>80</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s" s="4">
-        <v>24</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="B22" s="7">
-        <v>81</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s" s="4">
-        <v>24</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="8"/>
     </row>
   </sheetData>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\TheLeague\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -88,28 +96,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -129,42 +124,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -184,54 +149,43 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -244,63 +198,41 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,24 +241,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -452,7 +445,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -461,7 +454,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -470,7 +463,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -544,7 +537,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -552,7 +545,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -570,7 +563,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -599,7 +592,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -624,7 +617,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -649,7 +642,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -674,7 +667,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -699,7 +692,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -724,7 +717,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -749,7 +742,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -774,7 +767,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,7 +792,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,9 +805,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -829,7 +828,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -837,7 +836,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -855,7 +854,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -880,7 +879,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -905,7 +904,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -930,7 +929,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +954,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,7 +979,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,7 +1004,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1029,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1055,7 +1054,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,7 +1079,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1093,9 +1092,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1109,7 +1114,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1127,7 +1132,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1156,7 +1161,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,7 +1186,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1211,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1231,7 +1236,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1261,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +1286,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,7 +1311,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +1336,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1356,7 +1361,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,146 +1374,157 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.3516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="10">
         <v>38</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10">
         <v>24.48</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>36</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
         <v>16.32</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>35</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="4">
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>35</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>14</v>
       </c>
-      <c r="E5" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="4">
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <v>33</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>13</v>
       </c>
-      <c r="E6" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="10">
@@ -1517,247 +1533,247 @@
       <c r="C7" s="10">
         <v>6</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>12</v>
       </c>
-      <c r="E7" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="4">
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <v>30</v>
       </c>
-      <c r="C8" s="7">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="10">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10">
         <v>11</v>
       </c>
-      <c r="E8" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="4">
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>30</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10">
         <v>10</v>
       </c>
-      <c r="E9" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="4">
+      <c r="E9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <v>30</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="10">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="4">
+      <c r="E10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <v>27</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <v>10</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10">
         <v>8</v>
       </c>
-      <c r="E11" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="4">
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <v>27</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="10">
         <v>11</v>
       </c>
-      <c r="D12" s="7">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="4">
+      <c r="D12" s="10">
+        <v>7</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <v>27</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <v>12</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="10">
         <v>6</v>
       </c>
-      <c r="E13" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="4">
+      <c r="E13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <v>26</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>13</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="10">
         <v>5</v>
       </c>
-      <c r="E14" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="4">
+      <c r="E14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="10">
         <v>24</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="10">
         <v>14</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="10">
         <v>4</v>
       </c>
-      <c r="E15" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="4">
+      <c r="E15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="10">
         <v>23</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="10">
         <v>15</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="10">
         <v>3</v>
       </c>
-      <c r="E16" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="4">
+      <c r="E16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="10">
         <v>21</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="10">
         <v>16</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="10">
         <v>2</v>
       </c>
-      <c r="E17" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="12">
+      <c r="E17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>10</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="10">
         <v>17</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="10">
         <v>1</v>
       </c>
-      <c r="E18" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="4"/>
+      <c r="E18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="8"/>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -91,6 +91,21 @@
   </si>
   <si>
     <t>Ben Gregory</t>
+  </si>
+  <si>
+    <t>1st Monthly Medal 12th April</t>
+  </si>
+  <si>
+    <t>Dan Edmiston</t>
+  </si>
+  <si>
+    <t>Andy Loftus</t>
+  </si>
+  <si>
+    <t>Andy Roe</t>
+  </si>
+  <si>
+    <t>Matt Withers</t>
   </si>
 </sst>
 </file>
@@ -124,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -214,11 +229,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -233,6 +261,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1740,36 +1771,386 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="11">
+        <v>59</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>21</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="11">
+        <v>30.24</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="8">
+        <v>61</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>20</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="8">
+        <v>20.16</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>19</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="12">
+        <v>63</v>
+      </c>
+      <c r="C22" s="12">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12">
+        <v>18</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="10">
+        <v>64</v>
+      </c>
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>17</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10">
+        <v>64</v>
+      </c>
+      <c r="C24" s="10">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10">
+        <v>16</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="10">
+        <v>65</v>
+      </c>
+      <c r="C25" s="10">
+        <v>7</v>
+      </c>
+      <c r="D25" s="10">
+        <v>15</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="10">
+        <v>65</v>
+      </c>
+      <c r="C26" s="10">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10">
+        <v>14</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="10">
+        <v>66</v>
+      </c>
+      <c r="C27" s="10">
+        <v>9</v>
+      </c>
+      <c r="D27" s="10">
+        <v>13</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="10">
+        <v>68</v>
+      </c>
+      <c r="C28" s="10">
+        <v>10</v>
+      </c>
+      <c r="D28" s="10">
+        <v>12</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="10">
+        <v>69</v>
+      </c>
+      <c r="C29" s="10">
+        <v>11</v>
+      </c>
+      <c r="D29" s="10">
+        <v>11</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="10">
+        <v>70</v>
+      </c>
+      <c r="C30" s="10">
+        <v>12</v>
+      </c>
+      <c r="D30" s="10">
+        <v>10</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="10">
+        <v>70</v>
+      </c>
+      <c r="C31" s="10">
+        <v>13</v>
+      </c>
+      <c r="D31" s="10">
+        <v>9</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="10">
+        <v>71</v>
+      </c>
+      <c r="C32" s="10">
+        <v>14</v>
+      </c>
+      <c r="D32" s="10">
+        <v>8</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="10">
+        <v>72</v>
+      </c>
+      <c r="C33" s="10">
+        <v>15</v>
+      </c>
+      <c r="D33" s="10">
+        <v>7</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="10">
+        <v>72</v>
+      </c>
+      <c r="C34" s="10">
+        <v>16</v>
+      </c>
+      <c r="D34" s="10">
+        <v>6</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="10">
+        <v>73</v>
+      </c>
+      <c r="C35" s="10">
+        <v>17</v>
+      </c>
+      <c r="D35" s="10">
+        <v>5</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="10">
+        <v>76</v>
+      </c>
+      <c r="C36" s="10">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10">
+        <v>4</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="10">
+        <v>77</v>
+      </c>
+      <c r="C37" s="10">
+        <v>19</v>
+      </c>
+      <c r="D37" s="10">
+        <v>3</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="10">
+        <v>77</v>
+      </c>
+      <c r="C38" s="10">
+        <v>20</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="10">
+        <v>80</v>
+      </c>
+      <c r="C39" s="10">
+        <v>21</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Dave McMinn</t>
   </si>
   <si>
-    <t>Single Stableford 5th April</t>
-  </si>
-  <si>
     <t>Paul Mellor</t>
   </si>
   <si>
@@ -106,6 +103,42 @@
   </si>
   <si>
     <t>Matt Withers</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 38 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 36 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 35 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 33 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 32 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 30 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 27 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 26 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 10 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 21 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 23 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 24 Points</t>
   </si>
 </sst>
 </file>
@@ -125,7 +158,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,28 +171,19 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -216,54 +240,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,431 +1419,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="A12:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="4" width="8.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="31.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11"/>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6">
         <v>38</v>
       </c>
-      <c r="C2" s="10">
+      <c r="G2" s="6">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6">
+        <v>36</v>
+      </c>
+      <c r="G3" s="6">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6">
+        <v>35</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6">
+        <v>33</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6">
+        <v>30</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="6">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="6">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="6">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="6">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="6">
+        <v>26</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="6">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="6">
+        <v>24</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="6">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="6">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="6">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
-        <v>17</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="10">
-        <v>24.48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="E18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="10">
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>21</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9">
+        <v>30.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>61</v>
+      </c>
+      <c r="C20" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
-        <v>16</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="10">
-        <v>16.32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10">
-        <v>35</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="D20" s="9">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="9">
+        <v>63</v>
+      </c>
+      <c r="C21" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D21" s="9">
+        <v>19</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10">
-        <v>35</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B22" s="9">
+        <v>63</v>
+      </c>
+      <c r="C22" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="10">
-        <v>14</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10">
-        <v>33</v>
-      </c>
-      <c r="C6" s="10">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="D22" s="9">
+        <v>18</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="10">
-        <v>32</v>
-      </c>
-      <c r="C7" s="10">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10">
-        <v>30</v>
-      </c>
-      <c r="C8" s="10">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10">
-        <v>30</v>
-      </c>
-      <c r="C10" s="10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="10">
-        <v>27</v>
-      </c>
-      <c r="C11" s="10">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="10">
-        <v>27</v>
-      </c>
-      <c r="C12" s="10">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="10">
-        <v>27</v>
-      </c>
-      <c r="C13" s="10">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10">
-        <v>6</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="10">
-        <v>26</v>
-      </c>
-      <c r="C14" s="10">
-        <v>13</v>
-      </c>
-      <c r="D14" s="10">
-        <v>5</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="10">
-        <v>24</v>
-      </c>
-      <c r="C15" s="10">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="10">
-        <v>23</v>
-      </c>
-      <c r="C16" s="10">
-        <v>15</v>
-      </c>
-      <c r="D16" s="10">
-        <v>3</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="10">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10">
-        <v>16</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="10">
-        <v>10</v>
-      </c>
-      <c r="C18" s="10">
-        <v>17</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="11">
-        <v>59</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="11">
-        <v>30.24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="8">
-        <v>61</v>
-      </c>
-      <c r="C20" s="8">
-        <v>2</v>
-      </c>
-      <c r="D20" s="8">
-        <v>20</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="8">
-        <v>20.16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3">
-        <v>63</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>19</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="12">
-        <v>63</v>
-      </c>
-      <c r="C22" s="12">
-        <v>4</v>
-      </c>
-      <c r="D22" s="12">
-        <v>18</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="B23" s="10">
         <v>64</v>
@@ -1859,14 +1877,15 @@
       <c r="D23" s="10">
         <v>17</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>21</v>
+      <c r="E23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B24" s="10">
         <v>64</v>
@@ -1877,14 +1896,15 @@
       <c r="D24" s="10">
         <v>16</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>9</v>
+      <c r="E24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B25" s="10">
         <v>65</v>
@@ -1895,14 +1915,15 @@
       <c r="D25" s="10">
         <v>15</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>12</v>
+      <c r="E25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B26" s="10">
         <v>65</v>
@@ -1913,14 +1934,15 @@
       <c r="D26" s="10">
         <v>14</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>17</v>
+      <c r="E26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B27" s="10">
         <v>66</v>
@@ -1931,13 +1953,14 @@
       <c r="D27" s="10">
         <v>13</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+      <c r="E27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="10">
@@ -1949,14 +1972,15 @@
       <c r="D28" s="10">
         <v>12</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>19</v>
+      <c r="E28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B29" s="10">
         <v>69</v>
@@ -1967,14 +1991,15 @@
       <c r="D29" s="10">
         <v>11</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>8</v>
+      <c r="E29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B30" s="10">
         <v>70</v>
@@ -1985,14 +2010,15 @@
       <c r="D30" s="10">
         <v>10</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>10</v>
+      <c r="E30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B31" s="10">
         <v>70</v>
@@ -2003,14 +2029,15 @@
       <c r="D31" s="10">
         <v>9</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>15</v>
+      <c r="E31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B32" s="10">
         <v>71</v>
@@ -2021,14 +2048,15 @@
       <c r="D32" s="10">
         <v>8</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
-        <v>11</v>
+      <c r="E32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B33" s="10">
         <v>72</v>
@@ -2039,14 +2067,15 @@
       <c r="D33" s="10">
         <v>7</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
-        <v>26</v>
+      <c r="E33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B34" s="10">
         <v>72</v>
@@ -2057,14 +2086,15 @@
       <c r="D34" s="10">
         <v>6</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
-        <v>27</v>
+      <c r="E34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="10">
         <v>73</v>
@@ -2075,14 +2105,15 @@
       <c r="D35" s="10">
         <v>5</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
-        <v>18</v>
+      <c r="E35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B36" s="10">
         <v>76</v>
@@ -2093,14 +2124,15 @@
       <c r="D36" s="10">
         <v>4</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B37" s="10">
         <v>77</v>
@@ -2111,14 +2143,15 @@
       <c r="D37" s="10">
         <v>3</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
-        <v>14</v>
+      <c r="E37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B38" s="10">
         <v>77</v>
@@ -2129,14 +2162,15 @@
       <c r="D38" s="10">
         <v>2</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
-        <v>28</v>
+      <c r="E38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B39" s="10">
         <v>80</v>
@@ -2147,10 +2181,11 @@
       <c r="D39" s="10">
         <v>1</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="14"/>
+      <c r="E39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1419,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="A12:G31"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1430,13 +1430,12 @@
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="4" width="8.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="1"/>
+    <col min="6" max="6" width="20.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1452,12 +1451,11 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1472,13 +1470,10 @@
         <v>28</v>
       </c>
       <c r="F2" s="6">
-        <v>38</v>
-      </c>
-      <c r="G2" s="6">
         <v>24.48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1493,13 +1488,10 @@
         <v>29</v>
       </c>
       <c r="F3" s="6">
-        <v>36</v>
-      </c>
-      <c r="G3" s="6">
         <v>16.32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1513,12 +1505,9 @@
       <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6">
-        <v>35</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1532,12 +1521,9 @@
       <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="6">
-        <v>35</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1551,12 +1537,9 @@
       <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6">
-        <v>33</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1570,12 +1553,9 @@
       <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="6">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1589,12 +1569,9 @@
       <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="6">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1608,12 +1585,9 @@
       <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="6">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1627,12 +1601,9 @@
       <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="6">
-        <v>30</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1646,12 +1617,9 @@
       <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="6">
-        <v>27</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1665,12 +1633,9 @@
       <c r="E12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="6">
-        <v>27</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1684,12 +1649,9 @@
       <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="6">
-        <v>27</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1703,12 +1665,9 @@
       <c r="E14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="6">
-        <v>26</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1722,12 +1681,9 @@
       <c r="E15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="6">
-        <v>24</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1741,12 +1697,9 @@
       <c r="E16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="6">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1760,12 +1713,9 @@
       <c r="E17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="6">
-        <v>21</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1779,12 +1729,9 @@
       <c r="E18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="6">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
@@ -1800,12 +1747,11 @@
       <c r="E19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9">
+      <c r="F19" s="9">
         <v>30.24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1821,12 +1767,11 @@
       <c r="E20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9">
+      <c r="F20" s="9">
         <v>20.16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>24</v>
       </c>
@@ -1842,10 +1787,9 @@
       <c r="E21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1861,10 +1805,9 @@
       <c r="E22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -1880,10 +1823,9 @@
       <c r="E23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -1899,10 +1841,9 @@
       <c r="E24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
@@ -1918,10 +1859,9 @@
       <c r="E25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>11</v>
       </c>
@@ -1937,10 +1877,9 @@
       <c r="E26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>16</v>
       </c>
@@ -1956,10 +1895,9 @@
       <c r="E27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>6</v>
       </c>
@@ -1975,10 +1913,9 @@
       <c r="E28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>18</v>
       </c>
@@ -1994,10 +1931,9 @@
       <c r="E29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
@@ -2013,10 +1949,9 @@
       <c r="E30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>9</v>
       </c>
@@ -2032,10 +1967,9 @@
       <c r="E31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2051,10 +1985,9 @@
       <c r="E32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>10</v>
       </c>
@@ -2070,10 +2003,9 @@
       <c r="E33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>25</v>
       </c>
@@ -2089,10 +2021,9 @@
       <c r="E34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>26</v>
       </c>
@@ -2108,10 +2039,9 @@
       <c r="E35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>17</v>
       </c>
@@ -2127,10 +2057,9 @@
       <c r="E36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>22</v>
       </c>
@@ -2146,10 +2075,9 @@
       <c r="E37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>13</v>
       </c>
@@ -2165,10 +2093,9 @@
       <c r="E38" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>27</v>
       </c>
@@ -2184,8 +2111,7 @@
       <c r="E39" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1459,7 +1459,9 @@
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="11">
+        <v>100</v>
+      </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
@@ -1477,7 +1479,9 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="11">
+        <v>100</v>
+      </c>
       <c r="C3" s="6">
         <v>2</v>
       </c>
@@ -1495,7 +1499,9 @@
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="11">
+        <v>100</v>
+      </c>
       <c r="C4" s="6">
         <v>3</v>
       </c>
@@ -1511,7 +1517,9 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11">
+        <v>100</v>
+      </c>
       <c r="C5" s="6">
         <v>4</v>
       </c>
@@ -1527,7 +1535,9 @@
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="11">
+        <v>100</v>
+      </c>
       <c r="C6" s="6">
         <v>5</v>
       </c>
@@ -1543,7 +1553,9 @@
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="11">
+        <v>100</v>
+      </c>
       <c r="C7" s="6">
         <v>6</v>
       </c>
@@ -1559,7 +1571,9 @@
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="11">
+        <v>100</v>
+      </c>
       <c r="C8" s="6">
         <v>7</v>
       </c>
@@ -1575,7 +1589,9 @@
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="11">
+        <v>100</v>
+      </c>
       <c r="C9" s="6">
         <v>8</v>
       </c>
@@ -1591,7 +1607,9 @@
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11">
+        <v>100</v>
+      </c>
       <c r="C10" s="6">
         <v>9</v>
       </c>
@@ -1607,7 +1625,9 @@
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="11">
+        <v>100</v>
+      </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
@@ -1623,7 +1643,9 @@
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="11">
+        <v>100</v>
+      </c>
       <c r="C12" s="6">
         <v>11</v>
       </c>
@@ -1639,7 +1661,9 @@
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="11">
+        <v>100</v>
+      </c>
       <c r="C13" s="6">
         <v>12</v>
       </c>
@@ -1655,7 +1679,9 @@
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="11">
+        <v>100</v>
+      </c>
       <c r="C14" s="6">
         <v>13</v>
       </c>
@@ -1671,7 +1697,9 @@
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="11">
+        <v>100</v>
+      </c>
       <c r="C15" s="6">
         <v>14</v>
       </c>
@@ -1687,7 +1715,9 @@
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="11">
+        <v>100</v>
+      </c>
       <c r="C16" s="6">
         <v>15</v>
       </c>
@@ -1703,7 +1733,9 @@
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="11">
+        <v>100</v>
+      </c>
       <c r="C17" s="6">
         <v>16</v>
       </c>
@@ -1719,7 +1751,9 @@
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11">
+        <v>100</v>
+      </c>
       <c r="C18" s="6">
         <v>17</v>
       </c>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1460,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="11">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="11">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -1500,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="11">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
@@ -1518,7 +1518,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="11">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6">
         <v>4</v>
@@ -1536,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="11">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
@@ -1554,7 +1554,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="11">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C7" s="6">
         <v>6</v>
@@ -1572,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="11">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C8" s="6">
         <v>7</v>
@@ -1590,7 +1590,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="11">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C9" s="6">
         <v>8</v>
@@ -1608,7 +1608,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="11">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
@@ -1626,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="11">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
@@ -1644,7 +1644,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="11">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C12" s="6">
         <v>11</v>
@@ -1662,7 +1662,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="11">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C13" s="6">
         <v>12</v>
@@ -1680,7 +1680,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="11">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C14" s="6">
         <v>13</v>
@@ -1698,7 +1698,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="11">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C15" s="6">
         <v>14</v>
@@ -1716,7 +1716,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="11">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C16" s="6">
         <v>15</v>
@@ -1734,7 +1734,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="11">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C17" s="6">
         <v>16</v>
@@ -1752,7 +1752,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="11">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C18" s="6">
         <v>17</v>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\TheLeague\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -42,24 +34,42 @@
     <t>Dave McMinn</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 38 Points</t>
+  </si>
+  <si>
     <t>Paul Mellor</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 36 Points</t>
+  </si>
+  <si>
     <t>Brain Combe</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 35 Points</t>
+  </si>
+  <si>
     <t>Paul Owens</t>
   </si>
   <si>
     <t>Jim Hall</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 33 Points</t>
+  </si>
+  <si>
     <t>Jay Dempsey</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 32 Points</t>
+  </si>
+  <si>
     <t>Neil Bearne</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 30 Points</t>
+  </si>
+  <si>
     <t>Jay Francis</t>
   </si>
   <si>
@@ -69,6 +79,9 @@
     <t>Simon Peers</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 27 Points</t>
+  </si>
+  <si>
     <t>Tony Doyle</t>
   </si>
   <si>
@@ -78,18 +91,33 @@
     <t>Jim Walker</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 26 Points</t>
+  </si>
+  <si>
     <t>Craig Pickerill</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 24 Points</t>
+  </si>
+  <si>
     <t>Mark Gregory</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 23 Points</t>
+  </si>
+  <si>
     <t>Nick Guest</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 21 Points</t>
+  </si>
+  <si>
     <t>Ben Gregory</t>
   </si>
   <si>
+    <t>Single Stableford 5th April - 10 Points</t>
+  </si>
+  <si>
     <t>1st Monthly Medal 12th April</t>
   </si>
   <si>
@@ -105,54 +133,34 @@
     <t>Matt Withers</t>
   </si>
   <si>
-    <t>Single Stableford 5th April - 38 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 36 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 35 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 33 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 32 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 30 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 27 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 26 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 10 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 21 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 23 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 24 Points</t>
+    <t>2nd Monthly Medal 23th April</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -173,32 +181,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -211,7 +204,9 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -224,7 +219,9 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -237,28 +234,51 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,85 +287,25 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffd8d8d8"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -471,7 +431,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -480,7 +440,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -489,7 +449,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -563,7 +523,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -571,7 +531,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -589,7 +549,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -618,7 +578,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,7 +603,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,7 +628,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -693,7 +653,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -718,7 +678,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -743,7 +703,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +728,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -793,7 +753,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,7 +778,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -831,15 +791,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -854,7 +808,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -862,7 +816,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -880,7 +834,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -905,7 +859,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -930,7 +884,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +909,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,7 +934,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,7 +959,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +984,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1055,7 +1009,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,7 +1034,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1059,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,15 +1072,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1140,7 +1088,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1158,7 +1106,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1135,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1160,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,7 +1185,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1262,7 +1210,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1235,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1312,7 +1260,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1337,7 +1285,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1310,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1387,7 +1335,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1400,66 +1348,56 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="2" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.3516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="13.5" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="6">
         <v>62</v>
       </c>
       <c r="C2" s="6">
@@ -1468,18 +1406,18 @@
       <c r="D2" s="6">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
+      <c r="E2" t="s" s="5">
+        <v>7</v>
       </c>
       <c r="F2" s="6">
         <v>24.48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="11">
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
         <v>64</v>
       </c>
       <c r="C3" s="6">
@@ -1488,18 +1426,18 @@
       <c r="D3" s="6">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
+      <c r="E3" t="s" s="5">
+        <v>9</v>
       </c>
       <c r="F3" s="6">
         <v>16.32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
         <v>66</v>
       </c>
       <c r="C4" s="6">
@@ -1508,16 +1446,16 @@
       <c r="D4" s="6">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>30</v>
+      <c r="E4" t="s" s="5">
+        <v>11</v>
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11">
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6">
         <v>66</v>
       </c>
       <c r="C5" s="6">
@@ -1526,16 +1464,16 @@
       <c r="D5" s="6">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
+      <c r="E5" t="s" s="5">
+        <v>11</v>
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11">
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
         <v>67</v>
       </c>
       <c r="C6" s="6">
@@ -1544,16 +1482,16 @@
       <c r="D6" s="6">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
+      <c r="E6" t="s" s="5">
+        <v>14</v>
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="11">
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6">
         <v>68</v>
       </c>
       <c r="C7" s="6">
@@ -1562,16 +1500,16 @@
       <c r="D7" s="6">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
+      <c r="E7" t="s" s="5">
+        <v>16</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="11">
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6">
         <v>71</v>
       </c>
       <c r="C8" s="6">
@@ -1580,16 +1518,16 @@
       <c r="D8" s="6">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
+      <c r="E8" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="11">
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6">
         <v>71</v>
       </c>
       <c r="C9" s="6">
@@ -1598,16 +1536,16 @@
       <c r="D9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
+      <c r="E9" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11">
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
         <v>72</v>
       </c>
       <c r="C10" s="6">
@@ -1616,16 +1554,16 @@
       <c r="D10" s="6">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
+      <c r="E10" t="s" s="5">
+        <v>18</v>
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="11">
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6">
         <v>73</v>
       </c>
       <c r="C11" s="6">
@@ -1634,16 +1572,16 @@
       <c r="D11" s="6">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>34</v>
+      <c r="E11" t="s" s="5">
+        <v>22</v>
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11">
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6">
         <v>73</v>
       </c>
       <c r="C12" s="6">
@@ -1652,16 +1590,16 @@
       <c r="D12" s="6">
         <v>7</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>34</v>
+      <c r="E12" t="s" s="5">
+        <v>22</v>
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="11">
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="A13" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6">
         <v>73</v>
       </c>
       <c r="C13" s="6">
@@ -1670,16 +1608,16 @@
       <c r="D13" s="6">
         <v>6</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
+      <c r="E13" t="s" s="5">
+        <v>22</v>
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="11">
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="A14" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6">
         <v>74</v>
       </c>
       <c r="C14" s="6">
@@ -1688,16 +1626,16 @@
       <c r="D14" s="6">
         <v>5</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>35</v>
+      <c r="E14" t="s" s="5">
+        <v>26</v>
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="11">
+    <row r="15" ht="13.5" customHeight="1">
+      <c r="A15" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6">
         <v>76</v>
       </c>
       <c r="C15" s="6">
@@ -1706,16 +1644,16 @@
       <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
+      <c r="E15" t="s" s="5">
+        <v>28</v>
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="11">
+    <row r="16" ht="13.5" customHeight="1">
+      <c r="A16" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6">
         <v>77</v>
       </c>
       <c r="C16" s="6">
@@ -1724,16 +1662,16 @@
       <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
+      <c r="E16" t="s" s="5">
+        <v>30</v>
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="11">
+    <row r="17" ht="13.5" customHeight="1">
+      <c r="A17" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6">
         <v>80</v>
       </c>
       <c r="C17" s="6">
@@ -1742,16 +1680,16 @@
       <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>37</v>
+      <c r="E17" t="s" s="5">
+        <v>32</v>
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="11">
+    <row r="18" ht="13.5" customHeight="1">
+      <c r="A18" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6">
         <v>91</v>
       </c>
       <c r="C18" s="6">
@@ -1760,14 +1698,14 @@
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>36</v>
+      <c r="E18" t="s" s="5">
+        <v>34</v>
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>21</v>
+    <row r="19" ht="13.5" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>31</v>
       </c>
       <c r="B19" s="9">
         <v>59</v>
@@ -1778,16 +1716,16 @@
       <c r="D19" s="9">
         <v>21</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>23</v>
+      <c r="E19" t="s" s="8">
+        <v>35</v>
       </c>
       <c r="F19" s="9">
         <v>30.24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>19</v>
+    <row r="20" ht="13.5" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>27</v>
       </c>
       <c r="B20" s="9">
         <v>61</v>
@@ -1798,16 +1736,16 @@
       <c r="D20" s="9">
         <v>20</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>23</v>
+      <c r="E20" t="s" s="8">
+        <v>35</v>
       </c>
       <c r="F20" s="9">
         <v>20.16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
-        <v>24</v>
+    <row r="21" ht="13.5" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>36</v>
       </c>
       <c r="B21" s="9">
         <v>63</v>
@@ -1818,14 +1756,14 @@
       <c r="D21" s="9">
         <v>19</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>15</v>
+      <c r="E21" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" ht="13.5" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>21</v>
       </c>
       <c r="B22" s="9">
         <v>63</v>
@@ -1836,320 +1774,710 @@
       <c r="D22" s="9">
         <v>18</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9">
+        <v>64</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B24" s="9">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9">
+        <v>6</v>
+      </c>
+      <c r="D24" s="9">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B25" s="9">
+        <v>65</v>
+      </c>
+      <c r="C25" s="9">
+        <v>7</v>
+      </c>
+      <c r="D25" s="9">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B26" s="9">
+        <v>65</v>
+      </c>
+      <c r="C26" s="9">
+        <v>8</v>
+      </c>
+      <c r="D26" s="9">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="B27" s="9">
+        <v>66</v>
+      </c>
+      <c r="C27" s="9">
+        <v>9</v>
+      </c>
+      <c r="D27" s="9">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B28" s="9">
+        <v>68</v>
+      </c>
+      <c r="C28" s="9">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9">
         <v>12</v>
       </c>
-      <c r="B23" s="10">
+      <c r="E28" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B29" s="9">
+        <v>69</v>
+      </c>
+      <c r="C29" s="9">
+        <v>11</v>
+      </c>
+      <c r="D29" s="9">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B30" s="9">
+        <v>70</v>
+      </c>
+      <c r="C30" s="9">
+        <v>12</v>
+      </c>
+      <c r="D30" s="9">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B31" s="9">
+        <v>70</v>
+      </c>
+      <c r="C31" s="9">
+        <v>13</v>
+      </c>
+      <c r="D31" s="9">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B32" s="9">
+        <v>71</v>
+      </c>
+      <c r="C32" s="9">
+        <v>14</v>
+      </c>
+      <c r="D32" s="9">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B33" s="9">
+        <v>72</v>
+      </c>
+      <c r="C33" s="9">
+        <v>15</v>
+      </c>
+      <c r="D33" s="9">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B34" s="9">
+        <v>72</v>
+      </c>
+      <c r="C34" s="9">
+        <v>16</v>
+      </c>
+      <c r="D34" s="9">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="B35" s="9">
+        <v>73</v>
+      </c>
+      <c r="C35" s="9">
+        <v>17</v>
+      </c>
+      <c r="D35" s="9">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B36" s="9">
+        <v>76</v>
+      </c>
+      <c r="C36" s="9">
+        <v>18</v>
+      </c>
+      <c r="D36" s="9">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B37" s="9">
+        <v>77</v>
+      </c>
+      <c r="C37" s="9">
+        <v>19</v>
+      </c>
+      <c r="D37" s="9">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B38" s="9">
+        <v>77</v>
+      </c>
+      <c r="C38" s="9">
+        <v>20</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B39" s="9">
+        <v>80</v>
+      </c>
+      <c r="C39" s="9">
+        <v>21</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B40" s="9">
+        <v>70</v>
+      </c>
+      <c r="C40" s="9">
+        <v>12</v>
+      </c>
+      <c r="D40" s="9">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B41" s="9">
+        <v>70</v>
+      </c>
+      <c r="C41" s="9">
+        <v>13</v>
+      </c>
+      <c r="D41" s="9">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B42" s="9">
+        <v>71</v>
+      </c>
+      <c r="C42" s="9">
+        <v>14</v>
+      </c>
+      <c r="D42" s="9">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B43" s="9">
+        <v>72</v>
+      </c>
+      <c r="C43" s="9">
+        <v>15</v>
+      </c>
+      <c r="D43" s="9">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B44" s="9">
+        <v>72</v>
+      </c>
+      <c r="C44" s="9">
+        <v>16</v>
+      </c>
+      <c r="D44" s="9">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B45" s="9">
+        <v>73</v>
+      </c>
+      <c r="C45" s="9">
+        <v>17</v>
+      </c>
+      <c r="D45" s="9">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B46" s="9">
+        <v>76</v>
+      </c>
+      <c r="C46" s="9">
+        <v>18</v>
+      </c>
+      <c r="D46" s="9">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B47" s="9">
+        <v>77</v>
+      </c>
+      <c r="C47" s="9">
+        <v>19</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B48" s="9">
+        <v>77</v>
+      </c>
+      <c r="C48" s="9">
+        <v>20</v>
+      </c>
+      <c r="D48" s="9">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B49" s="9">
+        <v>80</v>
+      </c>
+      <c r="C49" s="9">
+        <v>21</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B50" s="9">
+        <v>59</v>
+      </c>
+      <c r="C50" s="9">
+        <v>11</v>
+      </c>
+      <c r="D50" s="9">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F50" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B51" s="9">
+        <v>61</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F51" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B52" s="9">
+        <v>63</v>
+      </c>
+      <c r="C52" s="9">
+        <v>2</v>
+      </c>
+      <c r="D52" s="9">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B53" s="9">
+        <v>63</v>
+      </c>
+      <c r="C53" s="9">
+        <v>3</v>
+      </c>
+      <c r="D53" s="9">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B54" s="9">
         <v>64</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C54" s="9">
+        <v>4</v>
+      </c>
+      <c r="D54" s="9">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B55" s="9">
+        <v>64</v>
+      </c>
+      <c r="C55" s="9">
         <v>5</v>
       </c>
-      <c r="D23" s="10">
-        <v>17</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10">
-        <v>64</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="D55" s="9">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" ht="15" customHeight="1">
+      <c r="A56" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="B56" s="9">
+        <v>65</v>
+      </c>
+      <c r="C56" s="9">
         <v>6</v>
       </c>
-      <c r="D24" s="10">
-        <v>16</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="D56" s="9">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" ht="15" customHeight="1">
+      <c r="A57" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B57" s="9">
+        <v>65</v>
+      </c>
+      <c r="C57" s="9">
+        <v>7</v>
+      </c>
+      <c r="D57" s="9">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B58" s="9">
+        <v>66</v>
+      </c>
+      <c r="C58" s="9">
         <v>8</v>
       </c>
-      <c r="B25" s="10">
-        <v>65</v>
-      </c>
-      <c r="C25" s="10">
-        <v>7</v>
-      </c>
-      <c r="D25" s="10">
-        <v>15</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="D58" s="9">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" ht="15" customHeight="1">
+      <c r="A59" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B59" s="9">
+        <v>68</v>
+      </c>
+      <c r="C59" s="9">
+        <v>9</v>
+      </c>
+      <c r="D59" s="9">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" ht="15" customHeight="1">
+      <c r="A60" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B60" s="9">
+        <v>69</v>
+      </c>
+      <c r="C60" s="9">
+        <v>10</v>
+      </c>
+      <c r="D60" s="9">
         <v>11</v>
       </c>
-      <c r="B26" s="10">
-        <v>65</v>
-      </c>
-      <c r="C26" s="10">
-        <v>8</v>
-      </c>
-      <c r="D26" s="10">
-        <v>14</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="10">
-        <v>66</v>
-      </c>
-      <c r="C27" s="10">
-        <v>9</v>
-      </c>
-      <c r="D27" s="10">
-        <v>13</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="10">
-        <v>68</v>
-      </c>
-      <c r="C28" s="10">
-        <v>10</v>
-      </c>
-      <c r="D28" s="10">
-        <v>12</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="10">
-        <v>69</v>
-      </c>
-      <c r="C29" s="10">
-        <v>11</v>
-      </c>
-      <c r="D29" s="10">
-        <v>11</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="10">
-        <v>70</v>
-      </c>
-      <c r="C30" s="10">
-        <v>12</v>
-      </c>
-      <c r="D30" s="10">
-        <v>10</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="10">
-        <v>70</v>
-      </c>
-      <c r="C31" s="10">
-        <v>13</v>
-      </c>
-      <c r="D31" s="10">
-        <v>9</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="10">
-        <v>71</v>
-      </c>
-      <c r="C32" s="10">
-        <v>14</v>
-      </c>
-      <c r="D32" s="10">
-        <v>8</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="10">
-        <v>72</v>
-      </c>
-      <c r="C33" s="10">
-        <v>15</v>
-      </c>
-      <c r="D33" s="10">
-        <v>7</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="10">
-        <v>72</v>
-      </c>
-      <c r="C34" s="10">
-        <v>16</v>
-      </c>
-      <c r="D34" s="10">
-        <v>6</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="10">
-        <v>73</v>
-      </c>
-      <c r="C35" s="10">
-        <v>17</v>
-      </c>
-      <c r="D35" s="10">
-        <v>5</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="10">
-        <v>76</v>
-      </c>
-      <c r="C36" s="10">
-        <v>18</v>
-      </c>
-      <c r="D36" s="10">
-        <v>4</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="10">
-        <v>77</v>
-      </c>
-      <c r="C37" s="10">
-        <v>19</v>
-      </c>
-      <c r="D37" s="10">
-        <v>3</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="10">
-        <v>77</v>
-      </c>
-      <c r="C38" s="10">
-        <v>20</v>
-      </c>
-      <c r="D38" s="10">
-        <v>2</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="10">
-        <v>80</v>
-      </c>
-      <c r="C39" s="10">
-        <v>21</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="10"/>
+      <c r="E60" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" ht="15" customHeight="1">
+      <c r="A61" s="8"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Winnings</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Dave McMinn</t>
@@ -140,8 +143,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="d/m/yy"/>
+    <numFmt numFmtId="60" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -245,7 +250,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -267,6 +272,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -276,7 +284,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1360,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1369,8 +1383,8 @@
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
     <col min="2" max="4" width="8.85156" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.3516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.3516" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
@@ -1392,10 +1406,13 @@
       <c r="F1" t="s" s="4">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6">
         <v>62</v>
@@ -1407,15 +1424,18 @@
         <v>17</v>
       </c>
       <c r="E2" t="s" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="6">
         <v>24.48</v>
       </c>
+      <c r="G2" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6">
         <v>64</v>
@@ -1427,15 +1447,18 @@
         <v>16</v>
       </c>
       <c r="E3" t="s" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6">
         <v>16.32</v>
       </c>
+      <c r="G3" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" t="s" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6">
         <v>66</v>
@@ -1447,13 +1470,16 @@
         <v>15</v>
       </c>
       <c r="E4" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" t="s" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6">
         <v>66</v>
@@ -1465,13 +1491,16 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
         <v>67</v>
@@ -1483,13 +1512,16 @@
         <v>13</v>
       </c>
       <c r="E6" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" t="s" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="6">
         <v>68</v>
@@ -1501,13 +1533,16 @@
         <v>12</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" t="s" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6">
         <v>71</v>
@@ -1519,13 +1554,16 @@
         <v>11</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" t="s" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6">
         <v>71</v>
@@ -1537,13 +1575,16 @@
         <v>10</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" t="s" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6">
         <v>72</v>
@@ -1555,13 +1596,16 @@
         <v>9</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" t="s" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6">
         <v>73</v>
@@ -1573,13 +1617,16 @@
         <v>8</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6">
         <v>73</v>
@@ -1591,13 +1638,16 @@
         <v>7</v>
       </c>
       <c r="E12" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" t="s" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="6">
         <v>73</v>
@@ -1609,13 +1659,16 @@
         <v>6</v>
       </c>
       <c r="E13" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" t="s" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6">
         <v>74</v>
@@ -1627,13 +1680,16 @@
         <v>5</v>
       </c>
       <c r="E14" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" t="s" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6">
         <v>76</v>
@@ -1645,13 +1701,16 @@
         <v>4</v>
       </c>
       <c r="E15" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" t="s" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6">
         <v>77</v>
@@ -1663,13 +1722,16 @@
         <v>3</v>
       </c>
       <c r="E16" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" t="s" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6">
         <v>80</v>
@@ -1681,13 +1743,16 @@
         <v>2</v>
       </c>
       <c r="E17" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7">
+        <v>45752</v>
+      </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" t="s" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6">
         <v>91</v>
@@ -1699,781 +1764,911 @@
         <v>1</v>
       </c>
       <c r="E18" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7">
+        <v>45752</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" customHeight="1">
+      <c r="A19" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F19" s="10">
+        <v>30.24</v>
+      </c>
+      <c r="G19" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" customHeight="1">
+      <c r="A20" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="B20" s="10">
+        <v>61</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F20" s="10">
+        <v>20.16</v>
+      </c>
+      <c r="G20" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" customHeight="1">
+      <c r="A21" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="B21" s="10">
+        <v>63</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" customHeight="1">
+      <c r="A22" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10">
+        <v>63</v>
+      </c>
+      <c r="C22" s="10">
+        <v>4</v>
+      </c>
+      <c r="D22" s="10">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10">
+        <v>64</v>
+      </c>
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="B24" s="10">
+        <v>64</v>
+      </c>
+      <c r="C24" s="10">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="B25" s="10">
+        <v>65</v>
+      </c>
+      <c r="C25" s="10">
+        <v>7</v>
+      </c>
+      <c r="D25" s="10">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B26" s="10">
+        <v>65</v>
+      </c>
+      <c r="C26" s="10">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="10">
+        <v>66</v>
+      </c>
+      <c r="C27" s="10">
+        <v>9</v>
+      </c>
+      <c r="D27" s="10">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="B28" s="10">
+        <v>68</v>
+      </c>
+      <c r="C28" s="10">
+        <v>10</v>
+      </c>
+      <c r="D28" s="10">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="10">
+        <v>69</v>
+      </c>
+      <c r="C29" s="10">
+        <v>11</v>
+      </c>
+      <c r="D29" s="10">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="B30" s="10">
+        <v>70</v>
+      </c>
+      <c r="C30" s="10">
+        <v>12</v>
+      </c>
+      <c r="D30" s="10">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="B31" s="10">
+        <v>70</v>
+      </c>
+      <c r="C31" s="10">
+        <v>13</v>
+      </c>
+      <c r="D31" s="10">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="B32" s="10">
+        <v>71</v>
+      </c>
+      <c r="C32" s="10">
+        <v>14</v>
+      </c>
+      <c r="D32" s="10">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="B33" s="10">
+        <v>72</v>
+      </c>
+      <c r="C33" s="10">
+        <v>15</v>
+      </c>
+      <c r="D33" s="10">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="B34" s="10">
+        <v>72</v>
+      </c>
+      <c r="C34" s="10">
+        <v>16</v>
+      </c>
+      <c r="D34" s="10">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B35" s="10">
+        <v>73</v>
+      </c>
+      <c r="C35" s="10">
+        <v>17</v>
+      </c>
+      <c r="D35" s="10">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="s" s="9">
+        <v>25</v>
+      </c>
+      <c r="B36" s="10">
+        <v>76</v>
+      </c>
+      <c r="C36" s="10">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="B37" s="10">
+        <v>77</v>
+      </c>
+      <c r="C37" s="10">
+        <v>19</v>
+      </c>
+      <c r="D37" s="10">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="B38" s="10">
+        <v>77</v>
+      </c>
+      <c r="C38" s="10">
+        <v>20</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="B39" s="10">
+        <v>80</v>
+      </c>
+      <c r="C39" s="10">
+        <v>21</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="B40" s="10">
+        <v>70</v>
+      </c>
+      <c r="C40" s="10">
+        <v>12</v>
+      </c>
+      <c r="D40" s="10">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="B41" s="10">
+        <v>70</v>
+      </c>
+      <c r="C41" s="10">
+        <v>13</v>
+      </c>
+      <c r="D41" s="10">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="B42" s="10">
+        <v>71</v>
+      </c>
+      <c r="C42" s="10">
+        <v>14</v>
+      </c>
+      <c r="D42" s="10">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="B43" s="10">
+        <v>72</v>
+      </c>
+      <c r="C43" s="10">
+        <v>15</v>
+      </c>
+      <c r="D43" s="10">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="B44" s="10">
+        <v>72</v>
+      </c>
+      <c r="C44" s="10">
+        <v>16</v>
+      </c>
+      <c r="D44" s="10">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="B45" s="10">
+        <v>73</v>
+      </c>
+      <c r="C45" s="10">
+        <v>17</v>
+      </c>
+      <c r="D45" s="10">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1">
+      <c r="A46" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="B46" s="10">
+        <v>76</v>
+      </c>
+      <c r="C46" s="10">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1">
+      <c r="A47" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B47" s="10">
+        <v>77</v>
+      </c>
+      <c r="C47" s="10">
+        <v>19</v>
+      </c>
+      <c r="D47" s="10">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1">
+      <c r="A48" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="B48" s="10">
+        <v>77</v>
+      </c>
+      <c r="C48" s="10">
+        <v>20</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1">
+      <c r="A49" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="B49" s="10">
+        <v>80</v>
+      </c>
+      <c r="C49" s="10">
+        <v>21</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1">
+      <c r="A50" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B50" s="10">
         <v>59</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C50" s="10">
+        <v>11</v>
+      </c>
+      <c r="D50" s="10">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F50" s="10">
+        <v>100</v>
+      </c>
+      <c r="G50" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1">
+      <c r="A51" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="B51" s="10">
+        <v>61</v>
+      </c>
+      <c r="C51" s="10">
         <v>1</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D51" s="10">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F51" s="10">
+        <v>50</v>
+      </c>
+      <c r="G51" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1">
+      <c r="A52" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="B52" s="10">
+        <v>63</v>
+      </c>
+      <c r="C52" s="10">
+        <v>2</v>
+      </c>
+      <c r="D52" s="10">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1">
+      <c r="A53" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="E19" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F19" s="9">
-        <v>30.24</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B20" s="9">
-        <v>61</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="B53" s="10">
+        <v>63</v>
+      </c>
+      <c r="C53" s="10">
+        <v>3</v>
+      </c>
+      <c r="D53" s="10">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="B54" s="10">
+        <v>64</v>
+      </c>
+      <c r="C54" s="10">
+        <v>4</v>
+      </c>
+      <c r="D54" s="10">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="B55" s="10">
+        <v>64</v>
+      </c>
+      <c r="C55" s="10">
+        <v>5</v>
+      </c>
+      <c r="D55" s="10">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1">
+      <c r="A56" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B56" s="10">
+        <v>65</v>
+      </c>
+      <c r="C56" s="10">
+        <v>6</v>
+      </c>
+      <c r="D56" s="10">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1">
+      <c r="A57" t="s" s="9">
+        <v>25</v>
+      </c>
+      <c r="B57" s="10">
+        <v>65</v>
+      </c>
+      <c r="C57" s="10">
+        <v>7</v>
+      </c>
+      <c r="D57" s="10">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="B58" s="10">
+        <v>66</v>
+      </c>
+      <c r="C58" s="10">
+        <v>8</v>
+      </c>
+      <c r="D58" s="10">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1">
+      <c r="A59" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="E20" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F20" s="9">
-        <v>20.16</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B21" s="9">
-        <v>63</v>
-      </c>
-      <c r="C21" s="9">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9">
-        <v>63</v>
-      </c>
-      <c r="C22" s="9">
-        <v>4</v>
-      </c>
-      <c r="D22" s="9">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="B23" s="9">
-        <v>64</v>
-      </c>
-      <c r="C23" s="9">
-        <v>5</v>
-      </c>
-      <c r="D23" s="9">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="B24" s="9">
-        <v>64</v>
-      </c>
-      <c r="C24" s="9">
-        <v>6</v>
-      </c>
-      <c r="D24" s="9">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="8">
+      <c r="B59" s="10">
+        <v>68</v>
+      </c>
+      <c r="C59" s="10">
+        <v>9</v>
+      </c>
+      <c r="D59" s="10">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1">
+      <c r="A60" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="B60" s="10">
+        <v>69</v>
+      </c>
+      <c r="C60" s="10">
         <v>10</v>
       </c>
-      <c r="B25" s="9">
-        <v>65</v>
-      </c>
-      <c r="C25" s="9">
-        <v>7</v>
-      </c>
-      <c r="D25" s="9">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B26" s="9">
-        <v>65</v>
-      </c>
-      <c r="C26" s="9">
-        <v>8</v>
-      </c>
-      <c r="D26" s="9">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B27" s="9">
-        <v>66</v>
-      </c>
-      <c r="C27" s="9">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B28" s="9">
-        <v>68</v>
-      </c>
-      <c r="C28" s="9">
-        <v>10</v>
-      </c>
-      <c r="D28" s="9">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="B29" s="9">
-        <v>69</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="D60" s="10">
         <v>11</v>
       </c>
-      <c r="D29" s="9">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B30" s="9">
-        <v>70</v>
-      </c>
-      <c r="C30" s="9">
-        <v>12</v>
-      </c>
-      <c r="D30" s="9">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B31" s="9">
-        <v>70</v>
-      </c>
-      <c r="C31" s="9">
-        <v>13</v>
-      </c>
-      <c r="D31" s="9">
-        <v>9</v>
-      </c>
-      <c r="E31" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="B32" s="9">
-        <v>71</v>
-      </c>
-      <c r="C32" s="9">
-        <v>14</v>
-      </c>
-      <c r="D32" s="9">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B33" s="9">
-        <v>72</v>
-      </c>
-      <c r="C33" s="9">
-        <v>15</v>
-      </c>
-      <c r="D33" s="9">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B34" s="9">
-        <v>72</v>
-      </c>
-      <c r="C34" s="9">
-        <v>16</v>
-      </c>
-      <c r="D34" s="9">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="B35" s="9">
-        <v>73</v>
-      </c>
-      <c r="C35" s="9">
-        <v>17</v>
-      </c>
-      <c r="D35" s="9">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B36" s="9">
-        <v>76</v>
-      </c>
-      <c r="C36" s="9">
-        <v>18</v>
-      </c>
-      <c r="D36" s="9">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B37" s="9">
-        <v>77</v>
-      </c>
-      <c r="C37" s="9">
-        <v>19</v>
-      </c>
-      <c r="D37" s="9">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="B38" s="9">
-        <v>77</v>
-      </c>
-      <c r="C38" s="9">
-        <v>20</v>
-      </c>
-      <c r="D38" s="9">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B39" s="9">
-        <v>80</v>
-      </c>
-      <c r="C39" s="9">
-        <v>21</v>
-      </c>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B40" s="9">
-        <v>70</v>
-      </c>
-      <c r="C40" s="9">
-        <v>12</v>
-      </c>
-      <c r="D40" s="9">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B41" s="9">
-        <v>70</v>
-      </c>
-      <c r="C41" s="9">
-        <v>13</v>
-      </c>
-      <c r="D41" s="9">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B42" s="9">
-        <v>71</v>
-      </c>
-      <c r="C42" s="9">
-        <v>14</v>
-      </c>
-      <c r="D42" s="9">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B43" s="9">
-        <v>72</v>
-      </c>
-      <c r="C43" s="9">
-        <v>15</v>
-      </c>
-      <c r="D43" s="9">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="B44" s="9">
-        <v>72</v>
-      </c>
-      <c r="C44" s="9">
-        <v>16</v>
-      </c>
-      <c r="D44" s="9">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="B45" s="9">
-        <v>73</v>
-      </c>
-      <c r="C45" s="9">
-        <v>17</v>
-      </c>
-      <c r="D45" s="9">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="B46" s="9">
-        <v>76</v>
-      </c>
-      <c r="C46" s="9">
-        <v>18</v>
-      </c>
-      <c r="D46" s="9">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B47" s="9">
-        <v>77</v>
-      </c>
-      <c r="C47" s="9">
-        <v>19</v>
-      </c>
-      <c r="D47" s="9">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B48" s="9">
-        <v>77</v>
-      </c>
-      <c r="C48" s="9">
-        <v>20</v>
-      </c>
-      <c r="D48" s="9">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B49" s="9">
-        <v>80</v>
-      </c>
-      <c r="C49" s="9">
-        <v>21</v>
-      </c>
-      <c r="D49" s="9">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="B50" s="9">
-        <v>59</v>
-      </c>
-      <c r="C50" s="9">
-        <v>11</v>
-      </c>
-      <c r="D50" s="9">
-        <v>21</v>
-      </c>
-      <c r="E50" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F50" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B51" s="9">
-        <v>61</v>
-      </c>
-      <c r="C51" s="9">
-        <v>1</v>
-      </c>
-      <c r="D51" s="9">
-        <v>20</v>
-      </c>
-      <c r="E51" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F51" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B52" s="9">
-        <v>63</v>
-      </c>
-      <c r="C52" s="9">
-        <v>2</v>
-      </c>
-      <c r="D52" s="9">
-        <v>19</v>
-      </c>
-      <c r="E52" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="B53" s="9">
-        <v>63</v>
-      </c>
-      <c r="C53" s="9">
-        <v>3</v>
-      </c>
-      <c r="D53" s="9">
-        <v>18</v>
-      </c>
-      <c r="E53" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B54" s="9">
-        <v>64</v>
-      </c>
-      <c r="C54" s="9">
-        <v>4</v>
-      </c>
-      <c r="D54" s="9">
-        <v>17</v>
-      </c>
-      <c r="E54" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B55" s="9">
-        <v>64</v>
-      </c>
-      <c r="C55" s="9">
-        <v>5</v>
-      </c>
-      <c r="D55" s="9">
-        <v>16</v>
-      </c>
-      <c r="E55" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" ht="15" customHeight="1">
-      <c r="A56" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="B56" s="9">
-        <v>65</v>
-      </c>
-      <c r="C56" s="9">
-        <v>6</v>
-      </c>
-      <c r="D56" s="9">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="A57" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B57" s="9">
-        <v>65</v>
-      </c>
-      <c r="C57" s="9">
-        <v>7</v>
-      </c>
-      <c r="D57" s="9">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F57" s="10"/>
-    </row>
-    <row r="58" ht="15" customHeight="1">
-      <c r="A58" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="B58" s="9">
-        <v>66</v>
-      </c>
-      <c r="C58" s="9">
-        <v>8</v>
-      </c>
-      <c r="D58" s="9">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="B59" s="9">
-        <v>68</v>
-      </c>
-      <c r="C59" s="9">
-        <v>9</v>
-      </c>
-      <c r="D59" s="9">
-        <v>12</v>
-      </c>
-      <c r="E59" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" ht="15" customHeight="1">
-      <c r="A60" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B60" s="9">
-        <v>69</v>
-      </c>
-      <c r="C60" s="9">
-        <v>10</v>
-      </c>
-      <c r="D60" s="9">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="F60" s="10"/>
+      <c r="E60" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13">
+        <v>45770</v>
+      </c>
     </row>
     <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="8"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="10"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\TheLeague\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -31,141 +39,120 @@
     <t>Winnings</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Dave McMinn</t>
   </si>
   <si>
+    <t>Paul Mellor</t>
+  </si>
+  <si>
+    <t>Brain Combe</t>
+  </si>
+  <si>
+    <t>Paul Owens</t>
+  </si>
+  <si>
+    <t>Jim Hall</t>
+  </si>
+  <si>
+    <t>Jay Dempsey</t>
+  </si>
+  <si>
+    <t>Neil Bearne</t>
+  </si>
+  <si>
+    <t>Jay Francis</t>
+  </si>
+  <si>
+    <t>Andy Mee</t>
+  </si>
+  <si>
+    <t>Simon Peers</t>
+  </si>
+  <si>
+    <t>Tony Doyle</t>
+  </si>
+  <si>
+    <t>Chris Mausdsley</t>
+  </si>
+  <si>
+    <t>Jim Walker</t>
+  </si>
+  <si>
+    <t>Craig Pickerill</t>
+  </si>
+  <si>
+    <t>Mark Gregory</t>
+  </si>
+  <si>
+    <t>Nick Guest</t>
+  </si>
+  <si>
+    <t>Ben Gregory</t>
+  </si>
+  <si>
+    <t>1st Monthly Medal 12th April</t>
+  </si>
+  <si>
+    <t>Dan Edmiston</t>
+  </si>
+  <si>
+    <t>Andy Loftus</t>
+  </si>
+  <si>
+    <t>Andy Roe</t>
+  </si>
+  <si>
+    <t>Matt Withers</t>
+  </si>
+  <si>
     <t>Single Stableford 5th April - 38 Points</t>
   </si>
   <si>
-    <t>Paul Mellor</t>
-  </si>
-  <si>
     <t>Single Stableford 5th April - 36 Points</t>
   </si>
   <si>
-    <t>Brain Combe</t>
-  </si>
-  <si>
     <t>Single Stableford 5th April - 35 Points</t>
   </si>
   <si>
-    <t>Paul Owens</t>
-  </si>
-  <si>
-    <t>Jim Hall</t>
-  </si>
-  <si>
     <t>Single Stableford 5th April - 33 Points</t>
   </si>
   <si>
-    <t>Jay Dempsey</t>
-  </si>
-  <si>
     <t>Single Stableford 5th April - 32 Points</t>
   </si>
   <si>
-    <t>Neil Bearne</t>
-  </si>
-  <si>
     <t>Single Stableford 5th April - 30 Points</t>
   </si>
   <si>
-    <t>Jay Francis</t>
-  </si>
-  <si>
-    <t>Andy Mee</t>
-  </si>
-  <si>
-    <t>Simon Peers</t>
-  </si>
-  <si>
     <t>Single Stableford 5th April - 27 Points</t>
   </si>
   <si>
-    <t>Tony Doyle</t>
-  </si>
-  <si>
-    <t>Chris Mausdsley</t>
-  </si>
-  <si>
-    <t>Jim Walker</t>
-  </si>
-  <si>
     <t>Single Stableford 5th April - 26 Points</t>
   </si>
   <si>
-    <t>Craig Pickerill</t>
+    <t>Single Stableford 5th April - 10 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 21 Points</t>
+  </si>
+  <si>
+    <t>Single Stableford 5th April - 23 Points</t>
   </si>
   <si>
     <t>Single Stableford 5th April - 24 Points</t>
-  </si>
-  <si>
-    <t>Mark Gregory</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 23 Points</t>
-  </si>
-  <si>
-    <t>Nick Guest</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 21 Points</t>
-  </si>
-  <si>
-    <t>Ben Gregory</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 10 Points</t>
-  </si>
-  <si>
-    <t>1st Monthly Medal 12th April</t>
-  </si>
-  <si>
-    <t>Dan Edmiston</t>
-  </si>
-  <si>
-    <t>Andy Loftus</t>
-  </si>
-  <si>
-    <t>Andy Roe</t>
-  </si>
-  <si>
-    <t>Matt Withers</t>
-  </si>
-  <si>
-    <t>2nd Monthly Medal 23th April</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d/m/yy"/>
-    <numFmt numFmtId="60" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -186,17 +173,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -209,9 +211,7 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -224,9 +224,7 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -239,60 +237,28 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -301,25 +267,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd8d8d8"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -445,7 +471,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -454,7 +480,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -463,7 +489,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -537,7 +563,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -545,7 +571,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -563,7 +589,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -592,7 +618,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,7 +643,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -642,7 +668,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -667,7 +693,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,7 +718,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -717,7 +743,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +768,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -767,7 +793,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -792,7 +818,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -805,9 +831,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -822,7 +854,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -830,7 +862,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -848,7 +880,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -873,7 +905,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,7 +930,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -923,7 +955,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +980,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +1005,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +1030,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1055,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1080,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1105,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,9 +1118,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1102,7 +1140,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1120,7 +1158,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1187,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1212,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1237,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1262,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1287,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1312,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,7 +1337,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,7 +1362,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1387,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,59 +1400,66 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.8516" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B2" s="11">
         <v>62</v>
       </c>
       <c r="C2" s="6">
@@ -1423,21 +1468,18 @@
       <c r="D2" s="6">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="5">
-        <v>8</v>
+      <c r="E2" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F2" s="6">
         <v>24.48</v>
       </c>
-      <c r="G2" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6">
+    </row>
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11">
         <v>64</v>
       </c>
       <c r="C3" s="6">
@@ -1446,21 +1488,18 @@
       <c r="D3" s="6">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="5">
-        <v>10</v>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F3" s="6">
         <v>16.32</v>
       </c>
-      <c r="G3" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6">
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11">
         <v>66</v>
       </c>
       <c r="C4" s="6">
@@ -1469,19 +1508,16 @@
       <c r="D4" s="6">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11">
         <v>66</v>
       </c>
       <c r="C5" s="6">
@@ -1490,19 +1526,16 @@
       <c r="D5" s="6">
         <v>14</v>
       </c>
-      <c r="E5" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11">
         <v>67</v>
       </c>
       <c r="C6" s="6">
@@ -1511,19 +1544,16 @@
       <c r="D6" s="6">
         <v>13</v>
       </c>
-      <c r="E6" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11">
         <v>68</v>
       </c>
       <c r="C7" s="6">
@@ -1532,19 +1562,16 @@
       <c r="D7" s="6">
         <v>12</v>
       </c>
-      <c r="E7" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11">
         <v>71</v>
       </c>
       <c r="C8" s="6">
@@ -1553,19 +1580,16 @@
       <c r="D8" s="6">
         <v>11</v>
       </c>
-      <c r="E8" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11">
         <v>71</v>
       </c>
       <c r="C9" s="6">
@@ -1574,19 +1598,16 @@
       <c r="D9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="11">
         <v>72</v>
       </c>
       <c r="C10" s="6">
@@ -1595,19 +1616,16 @@
       <c r="D10" s="6">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11">
         <v>73</v>
       </c>
       <c r="C11" s="6">
@@ -1616,19 +1634,16 @@
       <c r="D11" s="6">
         <v>8</v>
       </c>
-      <c r="E11" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="11">
         <v>73</v>
       </c>
       <c r="C12" s="6">
@@ -1637,19 +1652,16 @@
       <c r="D12" s="6">
         <v>7</v>
       </c>
-      <c r="E12" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="11">
         <v>73</v>
       </c>
       <c r="C13" s="6">
@@ -1658,19 +1670,16 @@
       <c r="D13" s="6">
         <v>6</v>
       </c>
-      <c r="E13" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11">
         <v>74</v>
       </c>
       <c r="C14" s="6">
@@ -1679,19 +1688,16 @@
       <c r="D14" s="6">
         <v>5</v>
       </c>
-      <c r="E14" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="E14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11">
         <v>76</v>
       </c>
       <c r="C15" s="6">
@@ -1700,19 +1706,16 @@
       <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11">
         <v>77</v>
       </c>
       <c r="C16" s="6">
@@ -1721,19 +1724,16 @@
       <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="E16" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="11">
         <v>80</v>
       </c>
       <c r="C17" s="6">
@@ -1742,19 +1742,16 @@
       <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="E17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11">
         <v>91</v>
       </c>
       <c r="C18" s="6">
@@ -1763,105 +1760,90 @@
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7">
-        <v>45752</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="E18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9">
         <v>59</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>21</v>
       </c>
-      <c r="E19" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="E19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="9">
         <v>30.24</v>
       </c>
-      <c r="G19" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="B20" s="10">
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
         <v>61</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>20</v>
       </c>
-      <c r="E20" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="9">
         <v>20.16</v>
       </c>
-      <c r="G20" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="B21" s="10">
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="9">
         <v>63</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>3</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B22" s="10">
+      <c r="E21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9">
         <v>63</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>4</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>18</v>
       </c>
-      <c r="E22" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>18</v>
+      <c r="E22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B23" s="10">
         <v>64</v>
@@ -1872,17 +1854,14 @@
       <c r="D23" s="10">
         <v>17</v>
       </c>
-      <c r="E23" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>30</v>
+      <c r="E23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B24" s="10">
         <v>64</v>
@@ -1893,17 +1872,14 @@
       <c r="D24" s="10">
         <v>16</v>
       </c>
-      <c r="E24" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>11</v>
+      <c r="E24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B25" s="10">
         <v>65</v>
@@ -1914,17 +1890,14 @@
       <c r="D25" s="10">
         <v>15</v>
       </c>
-      <c r="E25" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="s" s="9">
-        <v>16</v>
+      <c r="E25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B26" s="10">
         <v>65</v>
@@ -1935,17 +1908,14 @@
       <c r="D26" s="10">
         <v>14</v>
       </c>
-      <c r="E26" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="s" s="9">
-        <v>24</v>
+      <c r="E26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B27" s="10">
         <v>66</v>
@@ -1956,17 +1926,14 @@
       <c r="D27" s="10">
         <v>13</v>
       </c>
-      <c r="E27" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="s" s="9">
-        <v>7</v>
+      <c r="E27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B28" s="10">
         <v>68</v>
@@ -1977,17 +1944,14 @@
       <c r="D28" s="10">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="9">
-        <v>26</v>
+      <c r="E28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B29" s="10">
         <v>69</v>
@@ -1998,17 +1962,14 @@
       <c r="D29" s="10">
         <v>11</v>
       </c>
-      <c r="E29" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="s" s="9">
-        <v>9</v>
+      <c r="E29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="B30" s="10">
         <v>70</v>
@@ -2019,17 +1980,14 @@
       <c r="D30" s="10">
         <v>10</v>
       </c>
-      <c r="E30" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="s" s="9">
-        <v>13</v>
+      <c r="E30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B31" s="10">
         <v>70</v>
@@ -2040,17 +1998,14 @@
       <c r="D31" s="10">
         <v>9</v>
       </c>
-      <c r="E31" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="s" s="9">
-        <v>21</v>
+      <c r="E31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="B32" s="10">
         <v>71</v>
@@ -2061,17 +2016,14 @@
       <c r="D32" s="10">
         <v>8</v>
       </c>
-      <c r="E32" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="s" s="9">
-        <v>14</v>
+      <c r="E32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B33" s="10">
         <v>72</v>
@@ -2082,17 +2034,14 @@
       <c r="D33" s="10">
         <v>7</v>
       </c>
-      <c r="E33" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="s" s="9">
-        <v>38</v>
+      <c r="E33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B34" s="10">
         <v>72</v>
@@ -2103,17 +2052,14 @@
       <c r="D34" s="10">
         <v>6</v>
       </c>
-      <c r="E34" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="s" s="9">
-        <v>39</v>
+      <c r="E34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B35" s="10">
         <v>73</v>
@@ -2124,17 +2070,14 @@
       <c r="D35" s="10">
         <v>5</v>
       </c>
-      <c r="E35" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="s" s="9">
-        <v>25</v>
+      <c r="E35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="B36" s="10">
         <v>76</v>
@@ -2145,17 +2088,14 @@
       <c r="D36" s="10">
         <v>4</v>
       </c>
-      <c r="E36" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="s" s="9">
-        <v>34</v>
+      <c r="E36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B37" s="10">
         <v>77</v>
@@ -2166,17 +2106,14 @@
       <c r="D37" s="10">
         <v>3</v>
       </c>
-      <c r="E37" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="s" s="9">
-        <v>20</v>
+      <c r="E37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="B38" s="10">
         <v>77</v>
@@ -2187,17 +2124,14 @@
       <c r="D38" s="10">
         <v>2</v>
       </c>
-      <c r="E38" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="s" s="9">
-        <v>40</v>
+      <c r="E38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B39" s="10">
         <v>80</v>
@@ -2208,471 +2142,14 @@
       <c r="D39" s="10">
         <v>1</v>
       </c>
-      <c r="E39" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="11">
-        <v>45759</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="B40" s="10">
-        <v>70</v>
-      </c>
-      <c r="C40" s="10">
-        <v>12</v>
-      </c>
-      <c r="D40" s="10">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="B41" s="10">
-        <v>70</v>
-      </c>
-      <c r="C41" s="10">
-        <v>13</v>
-      </c>
-      <c r="D41" s="10">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="B42" s="10">
-        <v>71</v>
-      </c>
-      <c r="C42" s="10">
-        <v>14</v>
-      </c>
-      <c r="D42" s="10">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B43" s="10">
-        <v>72</v>
-      </c>
-      <c r="C43" s="10">
-        <v>15</v>
-      </c>
-      <c r="D43" s="10">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="B44" s="10">
-        <v>72</v>
-      </c>
-      <c r="C44" s="10">
-        <v>16</v>
-      </c>
-      <c r="D44" s="10">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="B45" s="10">
-        <v>73</v>
-      </c>
-      <c r="C45" s="10">
-        <v>17</v>
-      </c>
-      <c r="D45" s="10">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" t="s" s="9">
-        <v>11</v>
-      </c>
-      <c r="B46" s="10">
-        <v>76</v>
-      </c>
-      <c r="C46" s="10">
-        <v>18</v>
-      </c>
-      <c r="D46" s="10">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B47" s="10">
-        <v>77</v>
-      </c>
-      <c r="C47" s="10">
-        <v>19</v>
-      </c>
-      <c r="D47" s="10">
-        <v>3</v>
-      </c>
-      <c r="E47" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="B48" s="10">
-        <v>77</v>
-      </c>
-      <c r="C48" s="10">
-        <v>20</v>
-      </c>
-      <c r="D48" s="10">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="B49" s="10">
-        <v>80</v>
-      </c>
-      <c r="C49" s="10">
-        <v>21</v>
-      </c>
-      <c r="D49" s="10">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="B50" s="10">
-        <v>59</v>
-      </c>
-      <c r="C50" s="10">
-        <v>11</v>
-      </c>
-      <c r="D50" s="10">
-        <v>21</v>
-      </c>
-      <c r="E50" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F50" s="10">
-        <v>100</v>
-      </c>
-      <c r="G50" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="B51" s="10">
-        <v>61</v>
-      </c>
-      <c r="C51" s="10">
-        <v>1</v>
-      </c>
-      <c r="D51" s="10">
-        <v>20</v>
-      </c>
-      <c r="E51" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F51" s="10">
-        <v>50</v>
-      </c>
-      <c r="G51" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="s" s="9">
-        <v>13</v>
-      </c>
-      <c r="B52" s="10">
-        <v>63</v>
-      </c>
-      <c r="C52" s="10">
-        <v>2</v>
-      </c>
-      <c r="D52" s="10">
-        <v>19</v>
-      </c>
-      <c r="E52" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="B53" s="10">
-        <v>63</v>
-      </c>
-      <c r="C53" s="10">
-        <v>3</v>
-      </c>
-      <c r="D53" s="10">
-        <v>18</v>
-      </c>
-      <c r="E53" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B54" s="10">
-        <v>64</v>
-      </c>
-      <c r="C54" s="10">
-        <v>4</v>
-      </c>
-      <c r="D54" s="10">
-        <v>17</v>
-      </c>
-      <c r="E54" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="B55" s="10">
-        <v>64</v>
-      </c>
-      <c r="C55" s="10">
-        <v>5</v>
-      </c>
-      <c r="D55" s="10">
-        <v>16</v>
-      </c>
-      <c r="E55" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="56" ht="15" customHeight="1">
-      <c r="A56" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="B56" s="10">
-        <v>65</v>
-      </c>
-      <c r="C56" s="10">
-        <v>6</v>
-      </c>
-      <c r="D56" s="10">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="A57" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="B57" s="10">
-        <v>65</v>
-      </c>
-      <c r="C57" s="10">
-        <v>7</v>
-      </c>
-      <c r="D57" s="10">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="58" ht="15" customHeight="1">
-      <c r="A58" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="B58" s="10">
-        <v>66</v>
-      </c>
-      <c r="C58" s="10">
-        <v>8</v>
-      </c>
-      <c r="D58" s="10">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="B59" s="10">
-        <v>68</v>
-      </c>
-      <c r="C59" s="10">
-        <v>9</v>
-      </c>
-      <c r="D59" s="10">
-        <v>12</v>
-      </c>
-      <c r="E59" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="60" ht="15" customHeight="1">
-      <c r="A60" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="B60" s="10">
-        <v>69</v>
-      </c>
-      <c r="C60" s="10">
-        <v>10</v>
-      </c>
-      <c r="D60" s="10">
-        <v>11</v>
-      </c>
-      <c r="E60" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="13">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="9"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="E39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\TheLeague\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Ben Gregory</t>
   </si>
   <si>
-    <t>1st Monthly Medal 12th April</t>
-  </si>
-  <si>
     <t>Dan Edmiston</t>
   </si>
   <si>
@@ -105,40 +102,10 @@
     <t>Matt Withers</t>
   </si>
   <si>
-    <t>Single Stableford 5th April - 38 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 36 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 35 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 33 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 32 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 30 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 27 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 26 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 10 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 21 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 23 Points</t>
-  </si>
-  <si>
-    <t>Single Stableford 5th April - 24 Points</t>
+    <t>SS - 5th April - 38 Points</t>
+  </si>
+  <si>
+    <t>1st  MM 12th April</t>
   </si>
 </sst>
 </file>
@@ -1422,20 +1389,20 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="2" max="4" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1469,13 +1436,13 @@
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6">
         <v>24.48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1489,13 +1456,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="6">
         <v>16.32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1509,11 +1476,11 @@
         <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1527,11 +1494,11 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1545,11 +1512,11 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1563,11 +1530,11 @@
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1581,11 +1548,11 @@
         <v>11</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1599,11 +1566,11 @@
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1617,11 +1584,11 @@
         <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1635,11 +1602,11 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1653,11 +1620,11 @@
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1671,11 +1638,11 @@
         <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1689,11 +1656,11 @@
         <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1707,11 +1674,11 @@
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1725,11 +1692,11 @@
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1743,11 +1710,11 @@
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1761,11 +1728,11 @@
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
@@ -1779,13 +1746,13 @@
         <v>21</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F19" s="9">
         <v>30.24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1799,15 +1766,15 @@
         <v>20</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F20" s="9">
         <v>20.16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>63</v>
@@ -1819,11 +1786,11 @@
         <v>19</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1837,11 +1804,11 @@
         <v>18</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -1855,11 +1822,11 @@
         <v>17</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -1873,11 +1840,11 @@
         <v>16</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
@@ -1891,11 +1858,11 @@
         <v>15</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>11</v>
       </c>
@@ -1909,11 +1876,11 @@
         <v>14</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>16</v>
       </c>
@@ -1927,11 +1894,11 @@
         <v>13</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>6</v>
       </c>
@@ -1945,11 +1912,11 @@
         <v>12</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>18</v>
       </c>
@@ -1963,11 +1930,11 @@
         <v>11</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
@@ -1981,11 +1948,11 @@
         <v>10</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>9</v>
       </c>
@@ -1999,11 +1966,11 @@
         <v>9</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2017,11 +1984,11 @@
         <v>8</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>10</v>
       </c>
@@ -2035,13 +2002,13 @@
         <v>7</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="10">
         <v>72</v>
@@ -2053,13 +2020,13 @@
         <v>6</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="10">
         <v>73</v>
@@ -2071,11 +2038,11 @@
         <v>5</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>17</v>
       </c>
@@ -2089,11 +2056,11 @@
         <v>4</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>22</v>
       </c>
@@ -2107,11 +2074,11 @@
         <v>3</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>13</v>
       </c>
@@ -2125,13 +2092,13 @@
         <v>2</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="10">
         <v>80</v>
@@ -2143,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F39" s="10"/>
     </row>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>1st  MM 12th April</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>05/04/2025</t>
+  </si>
+  <si>
+    <t>12/04/2025</t>
   </si>
 </sst>
 </file>
@@ -1386,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1398,11 +1407,11 @@
     <col min="2" max="4" width="8.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1421,8 +1430,11 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1441,8 +1453,11 @@
       <c r="F2" s="6">
         <v>24.48</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1461,8 +1476,11 @@
       <c r="F3" s="6">
         <v>16.32</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1479,8 +1497,11 @@
         <v>27</v>
       </c>
       <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1497,8 +1518,11 @@
         <v>27</v>
       </c>
       <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1515,8 +1539,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1533,8 +1560,11 @@
         <v>27</v>
       </c>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1551,8 +1581,11 @@
         <v>27</v>
       </c>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1569,8 +1602,11 @@
         <v>27</v>
       </c>
       <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1587,8 +1623,11 @@
         <v>27</v>
       </c>
       <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1605,8 +1644,11 @@
         <v>27</v>
       </c>
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1623,8 +1665,11 @@
         <v>27</v>
       </c>
       <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1641,8 +1686,11 @@
         <v>27</v>
       </c>
       <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1659,8 +1707,11 @@
         <v>27</v>
       </c>
       <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1677,8 +1728,11 @@
         <v>27</v>
       </c>
       <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1695,8 +1749,11 @@
         <v>27</v>
       </c>
       <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1713,8 +1770,11 @@
         <v>27</v>
       </c>
       <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1731,8 +1791,11 @@
         <v>27</v>
       </c>
       <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
@@ -1751,8 +1814,11 @@
       <c r="F19" s="9">
         <v>30.24</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1771,8 +1837,11 @@
       <c r="F20" s="9">
         <v>20.16</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1789,8 +1858,11 @@
         <v>28</v>
       </c>
       <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1807,8 +1879,11 @@
         <v>28</v>
       </c>
       <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -1825,8 +1900,11 @@
         <v>28</v>
       </c>
       <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -1843,8 +1921,11 @@
         <v>28</v>
       </c>
       <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
@@ -1861,8 +1942,11 @@
         <v>28</v>
       </c>
       <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>11</v>
       </c>
@@ -1879,8 +1963,11 @@
         <v>28</v>
       </c>
       <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>16</v>
       </c>
@@ -1897,8 +1984,11 @@
         <v>28</v>
       </c>
       <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>6</v>
       </c>
@@ -1915,8 +2005,11 @@
         <v>28</v>
       </c>
       <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>18</v>
       </c>
@@ -1933,8 +2026,11 @@
         <v>28</v>
       </c>
       <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>7</v>
       </c>
@@ -1951,8 +2047,11 @@
         <v>28</v>
       </c>
       <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>9</v>
       </c>
@@ -1969,8 +2068,11 @@
         <v>28</v>
       </c>
       <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
@@ -1987,8 +2089,11 @@
         <v>28</v>
       </c>
       <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>10</v>
       </c>
@@ -2005,8 +2110,11 @@
         <v>28</v>
       </c>
       <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
@@ -2023,8 +2131,11 @@
         <v>28</v>
       </c>
       <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>25</v>
       </c>
@@ -2041,8 +2152,11 @@
         <v>28</v>
       </c>
       <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>17</v>
       </c>
@@ -2059,8 +2173,11 @@
         <v>28</v>
       </c>
       <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>22</v>
       </c>
@@ -2077,8 +2194,11 @@
         <v>28</v>
       </c>
       <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>13</v>
       </c>
@@ -2095,8 +2215,11 @@
         <v>28</v>
       </c>
       <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>26</v>
       </c>
@@ -2113,6 +2236,9 @@
         <v>28</v>
       </c>
       <c r="F39" s="10"/>
+      <c r="G39" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leasingoptions\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Settings" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Settings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,149 +25,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dave McMinn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS - 5th April - 38 Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Mellor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brain Combe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Owens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jay Dempsey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neil Bearne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jay Francis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andy Mee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simon Peers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tony Doyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Mausdsley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim Walker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Craig Pickerill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark Gregory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nick Guest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben Gregory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1st  MM 12th April</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan Edmiston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andy Loftus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andy Roe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt Withers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">League Champions Pot</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="37">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Winnings</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Dave McMinn</t>
+  </si>
+  <si>
+    <t>SS - 5th April - 38 Points</t>
+  </si>
+  <si>
+    <t>05/04/2025</t>
+  </si>
+  <si>
+    <t>Paul Mellor</t>
+  </si>
+  <si>
+    <t>Brain Combe</t>
+  </si>
+  <si>
+    <t>Paul Owens</t>
+  </si>
+  <si>
+    <t>Jim Hall</t>
+  </si>
+  <si>
+    <t>Jay Dempsey</t>
+  </si>
+  <si>
+    <t>Neil Bearne</t>
+  </si>
+  <si>
+    <t>Jay Francis</t>
+  </si>
+  <si>
+    <t>Andy Mee</t>
+  </si>
+  <si>
+    <t>Simon Peers</t>
+  </si>
+  <si>
+    <t>Tony Doyle</t>
+  </si>
+  <si>
+    <t>Chris Mausdsley</t>
+  </si>
+  <si>
+    <t>Jim Walker</t>
+  </si>
+  <si>
+    <t>Craig Pickerill</t>
+  </si>
+  <si>
+    <t>Mark Gregory</t>
+  </si>
+  <si>
+    <t>Nick Guest</t>
+  </si>
+  <si>
+    <t>Ben Gregory</t>
+  </si>
+  <si>
+    <t>1st  MM 12th April</t>
+  </si>
+  <si>
+    <t>12/04/2025</t>
+  </si>
+  <si>
+    <t>Dan Edmiston</t>
+  </si>
+  <si>
+    <t>Andy Loftus</t>
+  </si>
+  <si>
+    <t>Andy Roe</t>
+  </si>
+  <si>
+    <t>Matt Withers</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>League Champions Pot</t>
+  </si>
+  <si>
+    <t>Saturday 19th April - Centenary Trophy - Medal</t>
+  </si>
+  <si>
+    <t>Next Competition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="[$£-809]#,##0.00;[RED]\-[$£-809]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]\-[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -182,113 +173,71 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -347,62 +296,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="a7a7a7"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
         <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="ff00ff"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -429,7 +394,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -447,7 +412,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -498,7 +463,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -516,36 +481,33 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="8.86"/>
+    <col min="1" max="1" width="43" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,63 +530,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>62</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="6">
         <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>24.48</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="5">
         <v>64</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="6">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6">
         <v>16.32</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>66</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -635,17 +597,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>66</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -656,17 +618,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>67</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="6">
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -677,17 +639,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>68</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -698,17 +660,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>71</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="6">
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -719,17 +681,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="5">
         <v>71</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="n">
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -740,17 +702,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="5">
         <v>72</v>
       </c>
-      <c r="C10" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="n">
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -761,17 +723,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="5">
         <v>73</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -782,17 +744,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="5">
         <v>73</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6">
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -803,17 +765,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="5">
         <v>73</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -824,17 +786,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="5">
         <v>74</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="6">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="6">
         <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -845,17 +807,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="5">
         <v>76</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>14</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -866,17 +828,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="5">
         <v>77</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="6">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="6">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -887,17 +849,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="5">
         <v>80</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="6">
         <v>16</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -908,17 +870,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="5">
         <v>91</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="6">
         <v>17</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -929,63 +891,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="8">
         <v>59</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="8">
         <v>21</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="8">
         <v>30.24</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="8" t="n">
+      <c r="B20" s="8">
         <v>61</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="8">
         <v>2</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="8">
         <v>20</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="8">
         <v>20.16</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="8" t="n">
+      <c r="B21" s="8">
         <v>63</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="8">
         <v>3</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="8">
         <v>19</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -996,17 +958,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="8" t="n">
+      <c r="B22" s="8">
         <v>63</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="8">
         <v>4</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="8">
         <v>18</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -1017,17 +979,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="8" t="n">
+      <c r="B23" s="8">
         <v>64</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="8">
         <v>5</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="8">
         <v>17</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -1038,17 +1000,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="8">
         <v>64</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="8">
         <v>6</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="8">
         <v>16</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -1059,17 +1021,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B25" s="8">
         <v>65</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="8">
         <v>7</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="8">
         <v>15</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -1080,17 +1042,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="8" t="n">
+      <c r="B26" s="8">
         <v>65</v>
       </c>
-      <c r="C26" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D26" s="8" t="n">
+      <c r="C26" s="8">
+        <v>8</v>
+      </c>
+      <c r="D26" s="8">
         <v>14</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -1101,17 +1063,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="8" t="n">
+      <c r="B27" s="8">
         <v>66</v>
       </c>
-      <c r="C27" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D27" s="8" t="n">
+      <c r="C27" s="8">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8">
         <v>13</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1122,17 +1084,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B28" s="8">
         <v>68</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="8">
         <v>10</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="8">
         <v>12</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -1143,17 +1105,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="8" t="n">
+      <c r="B29" s="8">
         <v>69</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="8">
         <v>11</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="8">
         <v>11</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -1164,17 +1126,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="8">
         <v>70</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="8">
         <v>12</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="8">
         <v>10</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1185,17 +1147,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="8" t="n">
+      <c r="B31" s="8">
         <v>70</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="8">
         <v>13</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="8">
         <v>9</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1206,17 +1168,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="8" t="n">
+      <c r="B32" s="8">
         <v>71</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="8">
         <v>14</v>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="D32" s="8">
         <v>8</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -1227,17 +1189,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="8" t="n">
+      <c r="B33" s="8">
         <v>72</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="8">
         <v>15</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="8">
         <v>7</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -1248,17 +1210,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="8" t="n">
+      <c r="B34" s="8">
         <v>72</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="8">
         <v>16</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="8">
         <v>6</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -1269,17 +1231,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="8" t="n">
+      <c r="B35" s="8">
         <v>73</v>
       </c>
-      <c r="C35" s="8" t="n">
+      <c r="C35" s="8">
         <v>17</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="8">
         <v>5</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -1290,17 +1252,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="8" t="n">
+      <c r="B36" s="8">
         <v>76</v>
       </c>
-      <c r="C36" s="8" t="n">
+      <c r="C36" s="8">
         <v>18</v>
       </c>
-      <c r="D36" s="8" t="n">
+      <c r="D36" s="8">
         <v>4</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -1311,17 +1273,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="8" t="n">
+      <c r="B37" s="8">
         <v>77</v>
       </c>
-      <c r="C37" s="8" t="n">
+      <c r="C37" s="8">
         <v>19</v>
       </c>
-      <c r="D37" s="8" t="n">
+      <c r="D37" s="8">
         <v>3</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -1332,17 +1294,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="8" t="n">
+      <c r="B38" s="8">
         <v>77</v>
       </c>
-      <c r="C38" s="8" t="n">
+      <c r="C38" s="8">
         <v>20</v>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38" s="8">
         <v>2</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -1353,17 +1315,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="8" t="n">
+      <c r="B39" s="8">
         <v>80</v>
       </c>
-      <c r="C39" s="8" t="n">
+      <c r="C39" s="8">
         <v>21</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="8">
         <v>1</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -1375,33 +1337,29 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="10.16"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
@@ -1409,19 +1367,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="9">
         <v>22.6</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -136,16 +136,16 @@
   </si>
   <si>
     <t>Next Competition</t>
+  </si>
+  <si>
+    <t>22.60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]\-[$£-809]#,##0.00"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -156,6 +156,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -218,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -230,8 +235,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1350,42 +1356,42 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="9">
-        <v>22.6</v>
+      <c r="B2" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -20,6 +20,9 @@
     <t>Score</t>
   </si>
   <si>
+    <t>Stableford</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
@@ -53,21 +56,36 @@
     <t>Paul Mellor</t>
   </si>
   <si>
+    <t>SS - 5th April - 36 Points</t>
+  </si>
+  <si>
     <t>Brain Combe</t>
   </si>
   <si>
+    <t>SS - 5th April - 35 Points</t>
+  </si>
+  <si>
     <t>Paul Owens</t>
   </si>
   <si>
     <t>Jim Hall</t>
   </si>
   <si>
+    <t>SS - 5th April - 33 Points</t>
+  </si>
+  <si>
     <t>Jay Dempsey</t>
   </si>
   <si>
+    <t>SS - 5th April - 32 Points</t>
+  </si>
+  <si>
     <t>Neil Bearne</t>
   </si>
   <si>
+    <t>SS - 5th April - 30 Points</t>
+  </si>
+  <si>
     <t>Jay Francis</t>
   </si>
   <si>
@@ -77,6 +95,9 @@
     <t>Simon Peers</t>
   </si>
   <si>
+    <t>SS - 5th April - 27 Points</t>
+  </si>
+  <si>
     <t>Tony Doyle</t>
   </si>
   <si>
@@ -86,16 +107,31 @@
     <t>Jim Walker</t>
   </si>
   <si>
+    <t>SS - 5th April - 26 Points</t>
+  </si>
+  <si>
     <t>Craig Pickerill</t>
   </si>
   <si>
+    <t>SS - 5th April - 24 Points</t>
+  </si>
+  <si>
     <t>Mark Gregory</t>
   </si>
   <si>
+    <t>SS - 5th April - 23 Points</t>
+  </si>
+  <si>
     <t>Nick Guest</t>
   </si>
   <si>
+    <t>SS - 5th April - 21 Points</t>
+  </si>
+  <si>
     <t>Ben Gregory</t>
+  </si>
+  <si>
+    <t>SS - 5th April - 10 Points</t>
   </si>
   <si>
     <t>1st  MM 12th April</t>
@@ -236,7 +272,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -267,13 +303,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -497,14 +527,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -773,9 +806,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1052,7 +1088,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1324,18 +1360,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="31.8516" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.8516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.8516" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
@@ -1363,925 +1400,1000 @@
       <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>62</v>
       </c>
       <c r="C2" s="4">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="F2" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
         <v>24.48</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>10</v>
       </c>
       <c r="H2" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I2" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" ht="13.5" customHeight="1">
       <c r="A3" t="s" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4">
         <v>64</v>
       </c>
       <c r="C3" s="4">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="F3" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4">
         <v>16.32</v>
-      </c>
-      <c r="G3" t="s" s="3">
-        <v>10</v>
       </c>
       <c r="H3" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I3" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" t="s" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>66</v>
       </c>
       <c r="C4" s="4">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F4" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I4" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" t="s" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4">
         <v>66</v>
       </c>
       <c r="C5" s="4">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>14</v>
       </c>
-      <c r="E5" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F5" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I5" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4">
         <v>67</v>
       </c>
       <c r="C6" s="4">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>13</v>
       </c>
-      <c r="E6" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I6" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4">
         <v>68</v>
       </c>
       <c r="C7" s="4">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>12</v>
       </c>
-      <c r="E7" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F7" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I7" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
         <v>71</v>
       </c>
       <c r="C8" s="4">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>11</v>
       </c>
-      <c r="E8" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F8" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I8" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>71</v>
       </c>
       <c r="C9" s="4">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>10</v>
       </c>
-      <c r="E9" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F9" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I9" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
         <v>72</v>
       </c>
       <c r="C10" s="4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4">
         <v>9</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" s="4">
         <v>9</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F10" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I10" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4">
         <v>73</v>
       </c>
       <c r="C11" s="4">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>8</v>
       </c>
-      <c r="E11" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I11" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4">
         <v>73</v>
       </c>
       <c r="C12" s="4">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>7</v>
       </c>
-      <c r="E12" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F12" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I12" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4">
         <v>73</v>
       </c>
       <c r="C13" s="4">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>6</v>
       </c>
-      <c r="E13" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F13" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I13" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4">
         <v>74</v>
       </c>
       <c r="C14" s="4">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4">
         <v>13</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>5</v>
       </c>
-      <c r="E14" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F14" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="G14" s="5"/>
       <c r="H14" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I14" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4">
         <v>76</v>
       </c>
       <c r="C15" s="4">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4">
         <v>14</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>4</v>
       </c>
-      <c r="E15" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F15" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I15" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4">
         <v>77</v>
       </c>
       <c r="C16" s="4">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="E16" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F16" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="G16" s="5"/>
       <c r="H16" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I16" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B17" s="4">
         <v>80</v>
       </c>
       <c r="C17" s="4">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4">
         <v>16</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F17" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="G17" s="5"/>
       <c r="H17" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I17" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4">
         <v>91</v>
       </c>
       <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
         <v>17</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" t="s" s="3">
-        <v>10</v>
-      </c>
+      <c r="F18" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="G18" s="5"/>
       <c r="H18" t="s" s="3">
         <v>11</v>
       </c>
+      <c r="I18" t="s" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" s="7">
         <v>59</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8"/>
+      <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E19" s="7">
         <v>21</v>
       </c>
-      <c r="E19" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="F19" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7">
         <v>30.24</v>
       </c>
-      <c r="G19" t="s" s="6">
-        <v>29</v>
-      </c>
       <c r="H19" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I19" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B20" s="7">
         <v>61</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8"/>
+      <c r="D20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="E20" s="7">
         <v>20</v>
       </c>
-      <c r="E20" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="F20" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G20" s="7">
         <v>20.16</v>
       </c>
-      <c r="G20" t="s" s="6">
-        <v>29</v>
-      </c>
       <c r="H20" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I20" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B21" s="7">
         <v>63</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7">
         <v>3</v>
       </c>
-      <c r="D21" s="7">
+      <c r="E21" s="7">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F21" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G21" s="8"/>
       <c r="H21" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I21" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" t="s" s="6">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B22" s="7">
         <v>63</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8"/>
+      <c r="D22" s="7">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="E22" s="7">
         <v>18</v>
       </c>
-      <c r="E22" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F22" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G22" s="8"/>
       <c r="H22" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I22" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7">
         <v>64</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8"/>
+      <c r="D23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
+      <c r="E23" s="7">
         <v>17</v>
       </c>
-      <c r="E23" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F23" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G23" s="8"/>
       <c r="H23" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I23" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="6">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="7">
         <v>64</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8"/>
+      <c r="D24" s="7">
         <v>6</v>
       </c>
-      <c r="D24" s="7">
+      <c r="E24" s="7">
         <v>16</v>
       </c>
-      <c r="E24" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F24" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G24" s="8"/>
       <c r="H24" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I24" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25" s="7">
         <v>65</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8"/>
+      <c r="D25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E25" s="7">
         <v>15</v>
       </c>
-      <c r="E25" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F25" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G25" s="8"/>
       <c r="H25" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I25" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="s" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B26" s="7">
         <v>65</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8"/>
+      <c r="D26" s="7">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="E26" s="7">
         <v>14</v>
       </c>
-      <c r="E26" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F26" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G26" s="8"/>
       <c r="H26" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I26" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="s" s="6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B27" s="7">
         <v>66</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8"/>
+      <c r="D27" s="7">
         <v>9</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E27" s="7">
         <v>13</v>
       </c>
-      <c r="E27" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F27" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G27" s="8"/>
       <c r="H27" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I27" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="s" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" s="7">
         <v>68</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8"/>
+      <c r="D28" s="7">
         <v>10</v>
       </c>
-      <c r="D28" s="7">
+      <c r="E28" s="7">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F28" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G28" s="8"/>
       <c r="H28" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I28" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B29" s="7">
         <v>69</v>
       </c>
-      <c r="C29" s="7">
-        <v>11</v>
-      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="7">
         <v>11</v>
       </c>
-      <c r="E29" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="E29" s="7">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G29" s="8"/>
       <c r="H29" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I29" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" s="7">
         <v>70</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8"/>
+      <c r="D30" s="7">
         <v>12</v>
       </c>
-      <c r="D30" s="7">
+      <c r="E30" s="7">
         <v>10</v>
       </c>
-      <c r="E30" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F30" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G30" s="8"/>
       <c r="H30" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I30" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B31" s="7">
         <v>70</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8"/>
+      <c r="D31" s="7">
         <v>13</v>
       </c>
-      <c r="D31" s="7">
+      <c r="E31" s="7">
         <v>9</v>
       </c>
-      <c r="E31" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F31" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G31" s="8"/>
       <c r="H31" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I31" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="6">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B32" s="7">
         <v>71</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8"/>
+      <c r="D32" s="7">
         <v>14</v>
       </c>
-      <c r="D32" s="7">
+      <c r="E32" s="7">
         <v>8</v>
       </c>
-      <c r="E32" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F32" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G32" s="8"/>
       <c r="H32" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I32" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B33" s="7">
         <v>72</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7">
         <v>15</v>
       </c>
-      <c r="D33" s="7">
+      <c r="E33" s="7">
         <v>7</v>
       </c>
-      <c r="E33" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F33" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G33" s="8"/>
       <c r="H33" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I33" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="6">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7">
         <v>72</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8"/>
+      <c r="D34" s="7">
         <v>16</v>
       </c>
-      <c r="D34" s="7">
+      <c r="E34" s="7">
         <v>6</v>
       </c>
-      <c r="E34" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F34" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G34" s="8"/>
       <c r="H34" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I34" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="6">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B35" s="7">
         <v>73</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8"/>
+      <c r="D35" s="7">
         <v>17</v>
       </c>
-      <c r="D35" s="7">
+      <c r="E35" s="7">
         <v>5</v>
       </c>
-      <c r="E35" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F35" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G35" s="8"/>
       <c r="H35" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I35" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="s" s="6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B36" s="7">
         <v>76</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8"/>
+      <c r="D36" s="7">
         <v>18</v>
       </c>
-      <c r="D36" s="7">
+      <c r="E36" s="7">
         <v>4</v>
       </c>
-      <c r="E36" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F36" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G36" s="8"/>
       <c r="H36" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I36" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="s" s="6">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B37" s="7">
         <v>77</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8"/>
+      <c r="D37" s="7">
         <v>19</v>
       </c>
-      <c r="D37" s="7">
+      <c r="E37" s="7">
         <v>3</v>
       </c>
-      <c r="E37" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F37" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G37" s="8"/>
       <c r="H37" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I37" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="s" s="6">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B38" s="7">
         <v>77</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8"/>
+      <c r="D38" s="7">
         <v>20</v>
       </c>
-      <c r="D38" s="7">
+      <c r="E38" s="7">
         <v>2</v>
       </c>
-      <c r="E38" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F38" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G38" s="8"/>
       <c r="H38" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I38" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="s" s="6">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B39" s="7">
         <v>80</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="8"/>
+      <c r="D39" s="7">
         <v>21</v>
       </c>
-      <c r="D39" s="7">
+      <c r="E39" s="7">
         <v>1</v>
       </c>
-      <c r="E39" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="F39" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="G39" s="8"/>
       <c r="H39" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I39" t="s" s="6">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2309,85 +2421,85 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="B1" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s" s="11">
-        <v>40</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -20,7 +20,7 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Stableford</t>
+    <t>Stableford Points</t>
   </si>
   <si>
     <t>Position</t>
@@ -1367,7 +1367,9 @@
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.8516" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.85156" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.85156" style="1" customWidth="1"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -6,13 +6,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Settings" sheetId="2" r:id="rId5"/>
+    <sheet name="Players" sheetId="2" r:id="rId5"/>
+    <sheet name="Settings" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -153,6 +154,15 @@
   </si>
   <si>
     <t>Matt Withers</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>Handicap</t>
+  </si>
+  <si>
+    <t>Joined Date</t>
   </si>
   <si>
     <t>Key</t>
@@ -180,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -205,10 +215,26 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +253,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -253,16 +285,241 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
       </bottom>
       <diagonal/>
     </border>
@@ -272,7 +529,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -301,12 +558,75 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -328,6 +648,13 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffd8d8d8"/>
+      <rgbColor rgb="ff323232"/>
+      <rgbColor rgb="ffadadad"/>
+      <rgbColor rgb="ffd6d6d6"/>
+      <rgbColor rgb="ff89847f"/>
+      <rgbColor rgb="ffa6a29f"/>
+      <rgbColor rgb="ffe3e3e3"/>
+      <rgbColor rgb="fff4f9f8"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -2409,99 +2736,217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="26.35" customHeight="1">
+      <c r="A1" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" ht="15.4" customHeight="1">
+      <c r="A2" t="s" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" ht="15.15" customHeight="1">
+      <c r="A3" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="B3" s="16">
+        <v>12.7</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" ht="14.8" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" ht="14.8" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" ht="14.8" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" ht="14.8" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" ht="14.8" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" ht="14.8" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="14.8" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" ht="15.05" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.3516" style="9" customWidth="1"/>
-    <col min="3" max="5" width="10.1719" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="10.1719" style="9" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="24.3516" style="30" customWidth="1"/>
+    <col min="3" max="5" width="10.1719" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="10.1719" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" t="s" s="31">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s" s="31">
+        <v>51</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" t="s" s="31">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s" s="31">
+        <v>53</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" t="s" s="31">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s" s="31">
+        <v>55</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -6,14 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Players" sheetId="2" r:id="rId5"/>
-    <sheet name="Settings" sheetId="3" r:id="rId6"/>
+    <sheet name="Settings" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -154,15 +153,6 @@
   </si>
   <si>
     <t>Matt Withers</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
-    <t>Handicap</t>
-  </si>
-  <si>
-    <t>Joined Date</t>
   </si>
   <si>
     <t>Key</t>
@@ -190,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -215,26 +205,10 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="11"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,14 +227,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -285,241 +253,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="15"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,7 +272,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -558,75 +301,12 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -648,13 +328,6 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ff323232"/>
-      <rgbColor rgb="ffadadad"/>
-      <rgbColor rgb="ffd6d6d6"/>
-      <rgbColor rgb="ff89847f"/>
-      <rgbColor rgb="ffa6a29f"/>
-      <rgbColor rgb="ffe3e3e3"/>
-      <rgbColor rgb="fff4f9f8"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -2736,217 +2409,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="17.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="5" width="16.3516" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="26.35" customHeight="1">
-      <c r="A1" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" ht="15.4" customHeight="1">
-      <c r="A2" t="s" s="11">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="12">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s" s="12">
-        <v>49</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" ht="15.15" customHeight="1">
-      <c r="A3" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="B3" s="16">
-        <v>12.7</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" ht="14.8" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" ht="14.8" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" ht="14.8" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" ht="14.8" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" ht="14.8" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" ht="14.8" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" ht="14.8" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" ht="15.05" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="24.3516" style="30" customWidth="1"/>
-    <col min="3" max="5" width="10.1719" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="10.1719" style="30" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.3516" style="9" customWidth="1"/>
+    <col min="3" max="5" width="10.1719" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="10.1719" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="31">
+      <c r="A1" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="10">
         <v>50</v>
       </c>
-      <c r="B1" t="s" s="31">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="10">
         <v>51</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="31">
+      <c r="B3" t="s" s="10">
         <v>52</v>
       </c>
-      <c r="B2" t="s" s="31">
-        <v>53</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="31">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s" s="31">
-        <v>55</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="59">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -51,6 +51,9 @@
     <t xml:space="preserve">Title</t>
   </si>
   <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dave McMinn</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t xml:space="preserve">Single Stableford</t>
   </si>
   <si>
+    <t xml:space="preserve">18H Stableford</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paul Mellor</t>
   </si>
   <si>
@@ -151,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">1st Monthly Medal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18H Strokeplay</t>
   </si>
   <si>
     <t xml:space="preserve">Dan Edmiston</t>
@@ -291,7 +300,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -310,6 +319,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -529,10 +542,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J39" activeCellId="0" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -545,7 +558,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="31.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="8.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.41"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="8.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -576,10 +590,13 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>62</v>
@@ -594,24 +611,27 @@
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>24.48</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>64</v>
@@ -626,24 +646,27 @@
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>16.32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>66</v>
@@ -658,22 +681,25 @@
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>66</v>
@@ -688,22 +714,25 @@
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>67</v>
@@ -718,22 +747,25 @@
         <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>68</v>
@@ -748,22 +780,25 @@
         <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>71</v>
@@ -778,22 +813,25 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>71</v>
@@ -808,22 +846,25 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="4" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>72</v>
@@ -838,22 +879,25 @@
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>73</v>
@@ -868,22 +912,25 @@
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>73</v>
@@ -898,22 +945,25 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>73</v>
@@ -928,22 +978,25 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>74</v>
@@ -958,22 +1011,25 @@
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="4" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>76</v>
@@ -988,22 +1044,25 @@
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="4" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>77</v>
@@ -1018,22 +1077,25 @@
         <v>3</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>80</v>
@@ -1048,22 +1110,25 @@
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="4" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>91</v>
@@ -1078,22 +1143,25 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="4" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>59</v>
@@ -1106,21 +1174,24 @@
         <v>21</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>30.24</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>61</v>
@@ -1133,21 +1204,24 @@
         <v>20</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>20.16</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>63</v>
@@ -1160,19 +1234,22 @@
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>63</v>
@@ -1185,19 +1262,22 @@
         <v>18</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>64</v>
@@ -1210,19 +1290,22 @@
         <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>64</v>
@@ -1235,19 +1318,22 @@
         <v>16</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>65</v>
@@ -1260,19 +1346,22 @@
         <v>15</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>65</v>
@@ -1285,19 +1374,22 @@
         <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>66</v>
@@ -1310,19 +1402,22 @@
         <v>13</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>68</v>
@@ -1335,19 +1430,22 @@
         <v>12</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>69</v>
@@ -1360,19 +1458,22 @@
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>70</v>
@@ -1385,19 +1486,22 @@
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>70</v>
@@ -1410,19 +1514,22 @@
         <v>9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>71</v>
@@ -1435,19 +1542,22 @@
         <v>8</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>72</v>
@@ -1460,19 +1570,22 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>72</v>
@@ -1485,19 +1598,22 @@
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>73</v>
@@ -1510,19 +1626,22 @@
         <v>5</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>76</v>
@@ -1535,19 +1654,22 @@
         <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>77</v>
@@ -1560,19 +1682,22 @@
         <v>3</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77</v>
@@ -1585,19 +1710,22 @@
         <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>80</v>
@@ -1610,14 +1738,17 @@
         <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1643,102 +1774,102 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="B2:B18 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="J39 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3515625" defaultRowHeight="17.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="5" width="16.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="6" width="16.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="10" t="n">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="11" t="n">
         <v>12.7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="15.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1762,7 +1893,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B2:B18 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J39 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1774,10 +1905,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1785,10 +1916,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1796,10 +1927,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="63">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -172,6 +172,45 @@
   </si>
   <si>
     <t xml:space="preserve">Matt Withers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Pro’s Roll Up – Week 1 -  17</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> April</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">17/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro’s Roll Up – Week 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9H Stableford</t>
   </si>
   <si>
     <t xml:space="preserve">Table 1</t>
@@ -209,7 +248,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -239,13 +278,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +302,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -300,7 +352,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,15 +373,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -362,6 +438,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -542,10 +678,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J39" activeCellId="0" sqref="J39"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1159,597 +1295,853 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" s="9" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="7" t="n">
         <v>59</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="n">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="7" t="n">
         <v>30.24</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" s="9" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="7" t="n">
         <v>61</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="n">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="7" t="n">
         <v>20.16</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" s="9" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="7" t="n">
         <v>63</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="n">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" s="9" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="7" t="n">
         <v>63</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="n">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="n">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="n">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="7" t="n">
         <v>65</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="n">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+    <row r="26" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="7" t="n">
         <v>65</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="n">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="27" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="n">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+    <row r="28" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="7" t="n">
         <v>68</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="n">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+    <row r="29" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="7" t="n">
         <v>69</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="n">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+    <row r="30" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="n">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="3" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+    <row r="31" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="n">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="3" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+    <row r="32" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="7" t="n">
         <v>71</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="n">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+    <row r="33" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="7" t="n">
         <v>72</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="n">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="7"/>
+      <c r="H33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+    <row r="34" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="7" t="n">
         <v>72</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="n">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="3" t="s">
+      <c r="G34" s="7"/>
+      <c r="H34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+    <row r="35" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="7" t="n">
         <v>73</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="n">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="7"/>
+      <c r="H35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+    <row r="36" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="7" t="n">
         <v>76</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="n">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+    <row r="37" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="7" t="n">
         <v>77</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="n">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="3" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+    <row r="38" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="7" t="n">
         <v>77</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="n">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="3" t="s">
+      <c r="G38" s="7"/>
+      <c r="H38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+    <row r="39" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="7" t="n">
         <v>80</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="n">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="3" t="s">
+      <c r="G39" s="7"/>
+      <c r="H39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="8" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D40" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D41" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D42" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D43" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D45" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E45" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="D47" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1774,102 +2166,102 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="J39 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="H41:H47 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3515625" defaultRowHeight="17.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="6" width="16.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="12" width="16.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="17" t="n">
         <v>12.7</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="15.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1893,7 +2285,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J39 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H41:H47 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1905,10 +2297,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1916,10 +2308,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1927,10 +2319,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -207,7 +207,7 @@
     <t xml:space="preserve">17/04/2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Pro’s Roll Up – Week 1</t>
+    <t xml:space="preserve">Pro’s Roll Up – Stableford - **TEST DATA**</t>
   </si>
   <si>
     <t xml:space="preserve">9H Stableford</t>
@@ -397,7 +397,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -680,8 +680,8 @@
   </sheetPr>
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41:H47"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I48" activeCellId="0" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1891,7 +1891,9 @@
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="10" t="n">
+        <v>34</v>
+      </c>
       <c r="C40" s="10" t="n">
         <v>22</v>
       </c>
@@ -1921,7 +1923,9 @@
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="11" t="n">
+        <v>38</v>
+      </c>
       <c r="C41" s="10" t="n">
         <v>22</v>
       </c>
@@ -1951,7 +1955,9 @@
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="11" t="n">
+        <v>41</v>
+      </c>
       <c r="C42" s="10" t="n">
         <v>18</v>
       </c>
@@ -1979,7 +1985,9 @@
       <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="11" t="n">
+        <v>39</v>
+      </c>
       <c r="C43" s="10" t="n">
         <v>18</v>
       </c>
@@ -2007,7 +2015,9 @@
       <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="11" t="n">
+        <v>34</v>
+      </c>
       <c r="C44" s="10" t="n">
         <v>17</v>
       </c>
@@ -2035,7 +2045,9 @@
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="11" t="n">
+        <v>34</v>
+      </c>
       <c r="C45" s="10" t="n">
         <v>16</v>
       </c>
@@ -2063,7 +2075,9 @@
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="C46" s="10" t="n">
         <v>15</v>
       </c>
@@ -2091,7 +2105,9 @@
       <c r="A47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="10"/>
+      <c r="B47" s="11" t="n">
+        <v>24</v>
+      </c>
       <c r="C47" s="10" t="n">
         <v>13</v>
       </c>
@@ -2166,7 +2182,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="H41:H47 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3515625" defaultRowHeight="17.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2285,7 +2301,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H41:H47 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -678,10 +678,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I48" activeCellId="0" sqref="I48"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1891,9 +1891,7 @@
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="10" t="n">
-        <v>34</v>
-      </c>
+      <c r="B40" s="10"/>
       <c r="C40" s="10" t="n">
         <v>22</v>
       </c>
@@ -1917,15 +1915,16 @@
       </c>
       <c r="J40" s="10" t="s">
         <v>53</v>
+      </c>
+      <c r="L40" s="10" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="11" t="n">
-        <v>38</v>
-      </c>
+      <c r="B41" s="11"/>
       <c r="C41" s="10" t="n">
         <v>22</v>
       </c>
@@ -1949,15 +1948,16 @@
       </c>
       <c r="J41" s="10" t="s">
         <v>53</v>
+      </c>
+      <c r="L41" s="11" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="11" t="n">
-        <v>41</v>
-      </c>
+      <c r="B42" s="11"/>
       <c r="C42" s="10" t="n">
         <v>18</v>
       </c>
@@ -1980,14 +1980,15 @@
       <c r="J42" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="L42" s="11" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="11" t="n">
-        <v>39</v>
-      </c>
+      <c r="B43" s="11"/>
       <c r="C43" s="10" t="n">
         <v>18</v>
       </c>
@@ -2010,14 +2011,15 @@
       <c r="J43" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="L43" s="11" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="11" t="n">
-        <v>34</v>
-      </c>
+      <c r="B44" s="11"/>
       <c r="C44" s="10" t="n">
         <v>17</v>
       </c>
@@ -2040,14 +2042,15 @@
       <c r="J44" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="L44" s="11" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="11" t="n">
-        <v>34</v>
-      </c>
+      <c r="B45" s="11"/>
       <c r="C45" s="10" t="n">
         <v>16</v>
       </c>
@@ -2070,14 +2073,15 @@
       <c r="J45" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="L45" s="11" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="11" t="n">
-        <v>40</v>
-      </c>
+      <c r="B46" s="11"/>
       <c r="C46" s="10" t="n">
         <v>15</v>
       </c>
@@ -2100,14 +2104,15 @@
       <c r="J46" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="L46" s="11" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="11" t="n">
-        <v>24</v>
-      </c>
+      <c r="B47" s="11"/>
       <c r="C47" s="10" t="n">
         <v>13</v>
       </c>
@@ -2129,6 +2134,9 @@
       </c>
       <c r="J47" s="10" t="s">
         <v>53</v>
+      </c>
+      <c r="L47" s="11" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,7 +2190,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="B40:B47 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3515625" defaultRowHeight="17.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2301,7 +2309,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B40:B47 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="59">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -172,45 +172,6 @@
   </si>
   <si>
     <t xml:space="preserve">Matt Withers</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Pro’s Roll Up – Week 1 -  17</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> April</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">17/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pro’s Roll Up – Stableford - **TEST DATA**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9H Stableford</t>
   </si>
   <si>
     <t xml:space="preserve">Table 1</t>
@@ -248,7 +209,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -272,13 +233,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -352,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,15 +351,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -678,10 +628,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40:B47"/>
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1887,286 +1837,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="D40" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L40" s="10" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="D41" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L41" s="11" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="D42" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L42" s="11" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E43" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" s="11" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10" t="n">
-        <v>17</v>
-      </c>
-      <c r="D44" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E44" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L44" s="11" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E45" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L45" s="11" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="D46" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E46" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L46" s="11" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L47" s="11" t="n">
-        <v>24</v>
-      </c>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
-    </row>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
@@ -2190,102 +1896,102 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="B40:B47 A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3515625" defaultRowHeight="17.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="12" width="16.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="11" width="16.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="15.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="17" t="n">
+      <c r="B3" s="16" t="n">
         <v>12.7</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="15.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2309,7 +2015,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B40:B47 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2321,10 +2027,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2332,10 +2038,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2343,10 +2049,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="69">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -191,12 +191,27 @@
     <t xml:space="preserve">19.20</t>
   </si>
   <si>
-    <t xml:space="preserve">N/R</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centenary Trophy – N/R</t>
   </si>
   <si>
+    <t xml:space="preserve">Pros Roll Up Week 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros Roll Up Week 2 – Stableford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9H Stableford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68</t>
+  </si>
+  <si>
     <t xml:space="preserve">Key</t>
   </si>
   <si>
@@ -206,13 +221,13 @@
     <t xml:space="preserve">League Champions Pot</t>
   </si>
   <si>
-    <t xml:space="preserve">34.80</t>
+    <t xml:space="preserve">44.60</t>
   </si>
   <si>
     <t xml:space="preserve">Next Competition</t>
   </si>
   <si>
-    <t xml:space="preserve">Pros Roll Up Week 2 24/04/2025</t>
+    <t xml:space="preserve">Jubilee Bowl Stableford | 26/04/2025</t>
   </si>
 </sst>
 </file>
@@ -223,7 +238,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -252,8 +267,15 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +298,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB3CAC7"/>
         <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF395511"/>
+        <bgColor rgb="FF333333"/>
       </patternFill>
     </fill>
   </fills>
@@ -320,7 +348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,6 +417,34 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +507,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF395511"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -638,10 +694,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2387,8 +2443,8 @@
       <c r="A59" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>56</v>
+      <c r="B59" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14" t="n">
@@ -2398,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="14" t="s">
@@ -2409,6 +2465,250 @@
       </c>
       <c r="J59" s="15" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="60" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="17" t="n">
+        <v>38</v>
+      </c>
+      <c r="C60" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="D60" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="C61" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="D61" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="C62" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="D62" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E62" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="18"/>
+      <c r="H62" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="17" t="n">
+        <v>42</v>
+      </c>
+      <c r="C63" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D63" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E63" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="20" t="n">
+        <v>40</v>
+      </c>
+      <c r="C64" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="D64" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="17" t="n">
+        <v>38</v>
+      </c>
+      <c r="C65" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D65" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="17" t="n">
+        <v>42</v>
+      </c>
+      <c r="C66" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D66" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E66" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="H66" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="20" t="n">
+        <v>40</v>
+      </c>
+      <c r="C67" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="D67" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E67" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I67" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2430,22 +2730,22 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.32"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="10.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2453,10 +2753,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2464,10 +2764,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -434,6 +434,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,10 +448,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -769,8 +769,8 @@
   </sheetPr>
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G88" activeCellId="0" sqref="G88"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -826,21 +826,21 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="7" t="n">
         <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="8" t="n">
         <v>24.48</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -849,10 +849,10 @@
       <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="9" t="n">
+      <c r="J2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="n">
         <v>62</v>
       </c>
     </row>
@@ -861,21 +861,21 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="n">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="7" t="n">
         <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="8" t="n">
         <v>16.32</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -884,10 +884,10 @@
       <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="9" t="n">
+      <c r="J3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="6" t="n">
         <v>64</v>
       </c>
     </row>
@@ -896,31 +896,31 @@
         <v>17</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="C4" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="7" t="n">
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9" t="n">
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6" t="n">
         <v>66</v>
       </c>
     </row>
@@ -929,31 +929,31 @@
         <v>19</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="C5" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="9" t="n">
+      <c r="J5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6" t="n">
         <v>66</v>
       </c>
     </row>
@@ -962,31 +962,31 @@
         <v>20</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="C6" s="7" t="n">
         <v>33</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="7" t="n">
         <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="9" t="n">
+      <c r="J6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6" t="n">
         <v>67</v>
       </c>
     </row>
@@ -995,31 +995,31 @@
         <v>22</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7" t="n">
         <v>32</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="9" t="n">
+      <c r="J7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6" t="n">
         <v>68</v>
       </c>
     </row>
@@ -1028,31 +1028,31 @@
         <v>24</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="7" t="n">
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="9" t="n">
+      <c r="J8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="6" t="n">
         <v>71</v>
       </c>
     </row>
@@ -1061,31 +1061,31 @@
         <v>26</v>
       </c>
       <c r="B9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>10</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="9" t="n">
+      <c r="J9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="6" t="n">
         <v>71</v>
       </c>
     </row>
@@ -1094,31 +1094,31 @@
         <v>27</v>
       </c>
       <c r="B10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="9" t="n">
+      <c r="J10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="6" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1127,31 +1127,31 @@
         <v>28</v>
       </c>
       <c r="B11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="C11" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="9" t="n">
+      <c r="J11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="6" t="n">
         <v>73</v>
       </c>
     </row>
@@ -1160,31 +1160,31 @@
         <v>30</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="C12" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="7" t="n">
         <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="9" t="n">
+      <c r="J12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="6" t="n">
         <v>73</v>
       </c>
     </row>
@@ -1193,31 +1193,31 @@
         <v>32</v>
       </c>
       <c r="B13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="C13" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="9" t="n">
+      <c r="J13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="6" t="n">
         <v>73</v>
       </c>
     </row>
@@ -1226,31 +1226,31 @@
         <v>33</v>
       </c>
       <c r="B14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C14" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="9" t="n">
+      <c r="J14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="6" t="n">
         <v>74</v>
       </c>
     </row>
@@ -1259,31 +1259,31 @@
         <v>35</v>
       </c>
       <c r="B15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="C15" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="D15" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="E15" s="6" t="n">
+      <c r="D15" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="9" t="n">
+      <c r="J15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="6" t="n">
         <v>76</v>
       </c>
     </row>
@@ -1292,31 +1292,31 @@
         <v>37</v>
       </c>
       <c r="B16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="C16" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="9" t="n">
+      <c r="J16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="6" t="n">
         <v>77</v>
       </c>
     </row>
@@ -1325,31 +1325,31 @@
         <v>39</v>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="C17" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="9" t="n">
+      <c r="J17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="6" t="n">
         <v>80</v>
       </c>
     </row>
@@ -1358,31 +1358,31 @@
         <v>41</v>
       </c>
       <c r="B18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="C18" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="9" t="n">
+      <c r="J18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="6" t="n">
         <v>91</v>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
         <v>39</v>
       </c>
       <c r="B68" s="23" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C68" s="23" t="n">
         <v>38</v>
@@ -2823,7 +2823,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="23" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C69" s="23" t="n">
         <v>37</v>
@@ -2855,7 +2855,7 @@
         <v>17</v>
       </c>
       <c r="B70" s="23" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C70" s="23" t="n">
         <v>35</v>
@@ -2885,7 +2885,7 @@
         <v>35</v>
       </c>
       <c r="B71" s="23" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C71" s="23" t="n">
         <v>34</v>
@@ -2915,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="B72" s="23" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C72" s="23" t="n">
         <v>33</v>
@@ -2945,7 +2945,7 @@
         <v>47</v>
       </c>
       <c r="B73" s="23" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C73" s="23" t="n">
         <v>32</v>
@@ -2975,7 +2975,7 @@
         <v>26</v>
       </c>
       <c r="B74" s="23" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C74" s="23" t="n">
         <v>30</v>
@@ -3005,7 +3005,7 @@
         <v>24</v>
       </c>
       <c r="B75" s="23" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C75" s="23" t="n">
         <v>30</v>
@@ -3035,7 +3035,7 @@
         <v>20</v>
       </c>
       <c r="B76" s="23" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C76" s="23" t="n">
         <v>29</v>
@@ -3065,7 +3065,7 @@
         <v>15</v>
       </c>
       <c r="B77" s="23" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C77" s="23" t="n">
         <v>28</v>
@@ -3095,7 +3095,7 @@
         <v>33</v>
       </c>
       <c r="B78" s="23" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C78" s="23" t="n">
         <v>26</v>
@@ -3125,7 +3125,7 @@
         <v>49</v>
       </c>
       <c r="B79" s="23" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C79" s="23" t="n">
         <v>25</v>
@@ -3155,7 +3155,7 @@
         <v>41</v>
       </c>
       <c r="B80" s="23" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C80" s="23" t="n">
         <v>16</v>
@@ -3181,16 +3181,16 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
       <c r="G81" s="25"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3228,9 +3228,9 @@
       <c r="B1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -3239,9 +3239,9 @@
       <c r="B2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -3250,58 +3250,58 @@
       <c r="B3" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="86">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pros Roll Up Week 3 | 01/05/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Competition</t>
   </si>
 </sst>
 </file>
@@ -769,8 +772,8 @@
   </sheetPr>
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I68" activeCellId="0" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3210,8 +3213,8 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3255,8 +3258,12 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>66</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>

--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Settings" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="93">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -260,6 +261,21 @@
     <t xml:space="preserve">Jubilee Bowl Stableford – 16 Points</t>
   </si>
   <si>
+    <t xml:space="preserve">Pros Roll Up Week 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 May 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros Roll Up Week 3 -Stableford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64</t>
+  </si>
+  <si>
     <t xml:space="preserve">Key</t>
   </si>
   <si>
@@ -269,16 +285,76 @@
     <t xml:space="preserve">League Champions Pot</t>
   </si>
   <si>
-    <t xml:space="preserve">52.40</t>
+    <t xml:space="preserve">57.80</t>
   </si>
   <si>
     <t xml:space="preserve">Next Competition</t>
   </si>
   <si>
-    <t xml:space="preserve">Pros Roll Up Week 3 | 01/05/2025</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Monthly Medal | 03/05/2025</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Last Competition</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Monthly Medal</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3 May 2025</t>
   </si>
 </sst>
 </file>
@@ -289,7 +365,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -320,7 +396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -332,8 +408,15 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +451,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBF819E"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -412,13 +507,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -478,15 +577,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -495,6 +606,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -509,16 +624,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -567,11 +710,11 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -770,10 +913,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I68" activeCellId="0" sqref="I68"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I89" activeCellId="0" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -783,2418 +926,2935 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="50.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="50.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="12.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="29.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="29.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="3.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="12" style="1" width="10.16"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="7" t="n">
         <v>62</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="9" t="n">
         <v>24.48</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="7" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="9" t="n">
         <v>16.32</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="6" t="n">
+      <c r="K3" s="7" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="7" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="7" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="7" t="n">
         <v>67</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="K6" s="7" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="7" t="n">
         <v>68</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7" s="7" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="7" t="n">
         <v>71</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="7" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="7" t="n">
         <v>71</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="7" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="7" t="n">
         <v>72</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="6" t="n">
+      <c r="K10" s="7" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="7" t="n">
         <v>73</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="6" t="n">
+      <c r="K11" s="7" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="7" t="n">
         <v>73</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12" s="7" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="7" t="n">
         <v>73</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="6" t="n">
+      <c r="K13" s="7" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="7" t="n">
         <v>74</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14" s="7" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="7" t="n">
         <v>76</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="7" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="7" t="n">
         <v>77</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="7" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="7" t="n">
         <v>80</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="7" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="6" t="n">
+      <c r="B18" s="7" t="n">
         <v>91</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="6" t="n">
+      <c r="K18" s="7" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="12" t="n">
         <v>59</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11" t="n">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" s="13" t="n">
         <v>30.24</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="12" t="n">
         <v>61</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="n">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E20" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G20" s="13" t="n">
         <v>20.16</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="12" t="n">
         <v>63</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="n">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="11" t="n">
+      <c r="E21" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="12" t="n">
         <v>63</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="n">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E22" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="10" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="n">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="11" t="n">
+      <c r="E23" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="10" t="s">
+      <c r="G23" s="13"/>
+      <c r="H23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="n">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E24" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="10" t="s">
+      <c r="G24" s="13"/>
+      <c r="H24" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="11" t="n">
+      <c r="B25" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="n">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="E25" s="11" t="n">
+      <c r="E25" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="10" t="s">
+      <c r="G25" s="13"/>
+      <c r="H25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="n">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E26" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="10" t="s">
+      <c r="G26" s="13"/>
+      <c r="H26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="11" t="n">
+      <c r="B27" s="12" t="n">
         <v>66</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="n">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="E27" s="11" t="n">
+      <c r="E27" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="13"/>
+      <c r="H27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="11" t="n">
+      <c r="B28" s="12" t="n">
         <v>68</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11" t="n">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E28" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="10" t="s">
+      <c r="G28" s="13"/>
+      <c r="H28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="11" t="n">
+      <c r="B29" s="12" t="n">
         <v>69</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11" t="n">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="E29" s="11" t="n">
+      <c r="E29" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="10" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="11" t="n">
+      <c r="B30" s="12" t="n">
         <v>70</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11" t="n">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="E30" s="11" t="n">
+      <c r="E30" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="10" t="s">
+      <c r="G30" s="13"/>
+      <c r="H30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="11" t="n">
+      <c r="B31" s="12" t="n">
         <v>70</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11" t="n">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="E31" s="11" t="n">
+      <c r="E31" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="10" t="s">
+      <c r="G31" s="13"/>
+      <c r="H31" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="11" t="n">
+      <c r="B32" s="12" t="n">
         <v>71</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11" t="n">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="E32" s="11" t="n">
+      <c r="E32" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="10" t="s">
+      <c r="G32" s="13"/>
+      <c r="H32" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="12" t="n">
         <v>72</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11" t="n">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="E33" s="11" t="n">
+      <c r="E33" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="10" t="s">
+      <c r="G33" s="13"/>
+      <c r="H33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B34" s="12" t="n">
         <v>72</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11" t="n">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="E34" s="11" t="n">
+      <c r="E34" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="10" t="s">
+      <c r="G34" s="13"/>
+      <c r="H34" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="11" t="n">
+      <c r="B35" s="12" t="n">
         <v>73</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11" t="n">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="E35" s="11" t="n">
+      <c r="E35" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="10" t="s">
+      <c r="G35" s="13"/>
+      <c r="H35" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="11" t="n">
+      <c r="B36" s="12" t="n">
         <v>76</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11" t="n">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="E36" s="11" t="n">
+      <c r="E36" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="10" t="s">
+      <c r="G36" s="13"/>
+      <c r="H36" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="12" t="n">
         <v>77</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11" t="n">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="E37" s="11" t="n">
+      <c r="E37" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="10" t="s">
+      <c r="G37" s="13"/>
+      <c r="H37" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="11" t="n">
+      <c r="B38" s="12" t="n">
         <v>77</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11" t="n">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="E38" s="11" t="n">
+      <c r="E38" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="10" t="s">
+      <c r="G38" s="13"/>
+      <c r="H38" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="12" t="n">
         <v>80</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11" t="n">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="E39" s="11" t="n">
+      <c r="E39" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="10" t="s">
+      <c r="G39" s="13"/>
+      <c r="H39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="15" t="n">
+      <c r="B40" s="16" t="n">
         <v>60</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="n">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="15" t="n">
+      <c r="E40" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="15" t="n">
+      <c r="B41" s="16" t="n">
         <v>63</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15" t="n">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="E41" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="15" t="n">
+      <c r="B42" s="16" t="n">
         <v>63</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15" t="n">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="E42" s="15" t="n">
+      <c r="E42" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="15" t="s">
+      <c r="G42" s="18"/>
+      <c r="H42" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J42" s="16" t="s">
+      <c r="J42" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="15" t="n">
+      <c r="B43" s="16" t="n">
         <v>64</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="n">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="15" t="n">
+      <c r="E43" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="15" t="s">
+      <c r="G43" s="18"/>
+      <c r="H43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="15" t="n">
+      <c r="B44" s="16" t="n">
         <v>65</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="n">
+      <c r="C44" s="16"/>
+      <c r="D44" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="15" t="n">
+      <c r="E44" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="15" t="s">
+      <c r="G44" s="18"/>
+      <c r="H44" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="15" t="n">
+      <c r="B45" s="16" t="n">
         <v>66</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="n">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="E45" s="15" t="n">
+      <c r="E45" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="15" t="s">
+      <c r="G45" s="18"/>
+      <c r="H45" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="J45" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="15" t="n">
+      <c r="B46" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15" t="n">
+      <c r="C46" s="16"/>
+      <c r="D46" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="E46" s="15" t="n">
+      <c r="E46" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="15" t="s">
+      <c r="G46" s="18"/>
+      <c r="H46" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J46" s="16" t="s">
+      <c r="J46" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="15" t="n">
+      <c r="B47" s="16" t="n">
         <v>67</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15" t="n">
+      <c r="C47" s="16"/>
+      <c r="D47" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="E47" s="15" t="n">
+      <c r="E47" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="15" t="s">
+      <c r="G47" s="18"/>
+      <c r="H47" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="I47" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="J47" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="15" t="n">
+      <c r="B48" s="16" t="n">
         <v>68</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15" t="n">
+      <c r="C48" s="16"/>
+      <c r="D48" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="E48" s="15" t="n">
+      <c r="E48" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="15" t="s">
+      <c r="G48" s="18"/>
+      <c r="H48" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="J48" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="15" t="n">
+      <c r="B49" s="16" t="n">
         <v>68</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15" t="n">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="E49" s="15" t="n">
+      <c r="E49" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="15" t="s">
+      <c r="G49" s="18"/>
+      <c r="H49" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="16" t="s">
+      <c r="J49" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="15" t="n">
+      <c r="B50" s="16" t="n">
         <v>69</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15" t="n">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="E50" s="15" t="n">
+      <c r="E50" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="15" t="s">
+      <c r="G50" s="18"/>
+      <c r="H50" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="16" t="s">
+      <c r="J50" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="15" t="n">
+      <c r="B51" s="16" t="n">
         <v>71</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15" t="n">
+      <c r="C51" s="16"/>
+      <c r="D51" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="E51" s="15" t="n">
+      <c r="E51" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="15" t="s">
+      <c r="G51" s="18"/>
+      <c r="H51" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="16" t="s">
+      <c r="J51" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="15" t="n">
+      <c r="B52" s="16" t="n">
         <v>71</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15" t="n">
+      <c r="C52" s="16"/>
+      <c r="D52" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="E52" s="15" t="n">
+      <c r="E52" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="15" t="s">
+      <c r="G52" s="18"/>
+      <c r="H52" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="16" t="s">
+      <c r="J52" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="15" t="n">
+      <c r="B53" s="16" t="n">
         <v>72</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15" t="n">
+      <c r="C53" s="16"/>
+      <c r="D53" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="E53" s="15" t="n">
+      <c r="E53" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="15" t="s">
+      <c r="G53" s="18"/>
+      <c r="H53" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="16" t="s">
+      <c r="J53" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="15" t="n">
+      <c r="B54" s="16" t="n">
         <v>72</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15" t="n">
+      <c r="C54" s="16"/>
+      <c r="D54" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="E54" s="15" t="n">
+      <c r="E54" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="15" t="s">
+      <c r="G54" s="18"/>
+      <c r="H54" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J54" s="16" t="s">
+      <c r="J54" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="15" t="n">
+      <c r="B55" s="16" t="n">
         <v>72</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15" t="n">
+      <c r="C55" s="16"/>
+      <c r="D55" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="E55" s="15" t="n">
+      <c r="E55" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="15" t="s">
+      <c r="G55" s="18"/>
+      <c r="H55" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="15" t="n">
+      <c r="B56" s="16" t="n">
         <v>75</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15" t="n">
+      <c r="C56" s="16"/>
+      <c r="D56" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="E56" s="15" t="n">
+      <c r="E56" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="15" t="s">
+      <c r="G56" s="18"/>
+      <c r="H56" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J56" s="16" t="s">
+      <c r="J56" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="15" t="n">
+      <c r="B57" s="16" t="n">
         <v>76</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15" t="n">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="E57" s="15" t="n">
+      <c r="E57" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="15" t="s">
+      <c r="G57" s="18"/>
+      <c r="H57" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J57" s="16" t="s">
+      <c r="J57" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="15" t="n">
+      <c r="B58" s="16" t="n">
         <v>86</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15" t="n">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="E58" s="15" t="n">
+      <c r="E58" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G58" s="17"/>
-      <c r="H58" s="15" t="s">
+      <c r="G58" s="18"/>
+      <c r="H58" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J58" s="16" t="s">
+      <c r="J58" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="15" t="n">
+      <c r="B59" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15" t="n">
+      <c r="C59" s="16"/>
+      <c r="D59" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="E59" s="15" t="n">
+      <c r="E59" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="15" t="s">
+      <c r="G59" s="18"/>
+      <c r="H59" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J59" s="16" t="s">
+      <c r="J59" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="18" t="n">
+      <c r="B60" s="21" t="n">
         <v>38</v>
       </c>
-      <c r="C60" s="18" t="n">
+      <c r="C60" s="21" t="n">
         <v>19</v>
       </c>
-      <c r="D60" s="18" t="n">
+      <c r="D60" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="18" t="n">
+      <c r="E60" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H60" s="18" t="s">
+      <c r="H60" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="18" t="s">
+      <c r="I60" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J60" s="18" t="s">
+      <c r="J60" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="18" t="n">
+      <c r="B61" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="C61" s="18" t="n">
+      <c r="C61" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="D61" s="18" t="n">
+      <c r="D61" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="E61" s="18" t="n">
+      <c r="E61" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="H61" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="18" t="s">
+      <c r="I61" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J61" s="18" t="s">
+      <c r="J61" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="18" t="n">
+      <c r="B62" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="C62" s="18" t="n">
+      <c r="C62" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="D62" s="18" t="n">
+      <c r="D62" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="E62" s="18" t="n">
+      <c r="E62" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="18" t="s">
+      <c r="G62" s="23"/>
+      <c r="H62" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I62" s="18" t="s">
+      <c r="I62" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J62" s="18" t="s">
+      <c r="J62" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="18" t="n">
+      <c r="B63" s="21" t="n">
         <v>42</v>
       </c>
-      <c r="C63" s="18" t="n">
+      <c r="C63" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="D63" s="18" t="n">
+      <c r="D63" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="E63" s="18" t="n">
+      <c r="E63" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="18" t="s">
+      <c r="G63" s="23"/>
+      <c r="H63" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I63" s="18" t="s">
+      <c r="I63" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J63" s="18" t="s">
+      <c r="J63" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20" t="s">
+    <row r="64" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="20" t="n">
+      <c r="B64" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="C64" s="20" t="n">
+      <c r="C64" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="D64" s="20" t="n">
+      <c r="D64" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="E64" s="20" t="n">
+      <c r="E64" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="F64" s="20" t="s">
+      <c r="F64" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="18" t="s">
+      <c r="G64" s="26"/>
+      <c r="H64" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="20" t="s">
+      <c r="I64" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J64" s="20" t="s">
+      <c r="J64" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="18" t="n">
+      <c r="B65" s="21" t="n">
         <v>38</v>
       </c>
-      <c r="C65" s="18" t="n">
+      <c r="C65" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="D65" s="18" t="n">
+      <c r="D65" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="E65" s="18" t="n">
+      <c r="E65" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="18" t="s">
+      <c r="G65" s="23"/>
+      <c r="H65" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I65" s="18" t="s">
+      <c r="I65" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J65" s="18" t="s">
+      <c r="J65" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="18" t="n">
+      <c r="B66" s="21" t="n">
         <v>42</v>
       </c>
-      <c r="C66" s="18" t="n">
+      <c r="C66" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="D66" s="18" t="n">
+      <c r="D66" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="E66" s="18" t="n">
+      <c r="E66" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="18" t="s">
+      <c r="G66" s="23"/>
+      <c r="H66" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I66" s="18" t="s">
+      <c r="I66" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="J66" s="18" t="s">
+      <c r="J66" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" s="22" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20" t="s">
+    <row r="67" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="20" t="n">
+      <c r="B67" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="C67" s="20" t="n">
+      <c r="C67" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="D67" s="20" t="n">
+      <c r="D67" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="E67" s="20" t="n">
+      <c r="E67" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="21"/>
-      <c r="H67" s="18" t="s">
+      <c r="G67" s="26"/>
+      <c r="H67" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I67" s="20" t="s">
+      <c r="I67" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J67" s="20" t="s">
+      <c r="J67" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="23" t="n">
+      <c r="B68" s="28" t="n">
         <v>62</v>
       </c>
-      <c r="C68" s="23" t="n">
+      <c r="C68" s="28" t="n">
         <v>38</v>
       </c>
-      <c r="D68" s="23" t="n">
+      <c r="D68" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="E68" s="23" t="n">
+      <c r="E68" s="28" t="n">
         <v>13</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G68" s="24" t="s">
+      <c r="G68" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="H68" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I68" s="23" t="s">
+      <c r="I68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J68" s="23" t="s">
+      <c r="J68" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="23" t="n">
+      <c r="B69" s="28" t="n">
         <v>63</v>
       </c>
-      <c r="C69" s="23" t="n">
+      <c r="C69" s="28" t="n">
         <v>37</v>
       </c>
-      <c r="D69" s="23" t="n">
+      <c r="D69" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="E69" s="23" t="n">
+      <c r="E69" s="28" t="n">
         <v>12</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G69" s="24" t="s">
+      <c r="G69" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H69" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I69" s="23" t="s">
+      <c r="I69" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J69" s="23" t="s">
+      <c r="J69" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="23" t="n">
+      <c r="B70" s="28" t="n">
         <v>64</v>
       </c>
-      <c r="C70" s="23" t="n">
+      <c r="C70" s="28" t="n">
         <v>35</v>
       </c>
-      <c r="D70" s="23" t="n">
+      <c r="D70" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="E70" s="23" t="n">
+      <c r="E70" s="28" t="n">
         <v>11</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G70" s="24"/>
-      <c r="H70" s="23" t="s">
+      <c r="G70" s="30"/>
+      <c r="H70" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I70" s="23" t="s">
+      <c r="I70" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J70" s="23" t="s">
+      <c r="J70" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="23" t="n">
+      <c r="B71" s="28" t="n">
         <v>66</v>
       </c>
-      <c r="C71" s="23" t="n">
+      <c r="C71" s="28" t="n">
         <v>34</v>
       </c>
-      <c r="D71" s="23" t="n">
+      <c r="D71" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="E71" s="23" t="n">
+      <c r="E71" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="24"/>
-      <c r="H71" s="23" t="s">
+      <c r="G71" s="30"/>
+      <c r="H71" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I71" s="23" t="s">
+      <c r="I71" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J71" s="23" t="s">
+      <c r="J71" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="23" t="n">
+      <c r="B72" s="28" t="n">
         <v>66</v>
       </c>
-      <c r="C72" s="23" t="n">
+      <c r="C72" s="28" t="n">
         <v>33</v>
       </c>
-      <c r="D72" s="23" t="n">
+      <c r="D72" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="E72" s="23" t="n">
+      <c r="E72" s="28" t="n">
         <v>9</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="G72" s="24"/>
-      <c r="H72" s="23" t="s">
+      <c r="G72" s="30"/>
+      <c r="H72" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I72" s="23" t="s">
+      <c r="I72" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J72" s="23" t="s">
+      <c r="J72" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="23" t="n">
+      <c r="B73" s="28" t="n">
         <v>68</v>
       </c>
-      <c r="C73" s="23" t="n">
+      <c r="C73" s="28" t="n">
         <v>32</v>
       </c>
-      <c r="D73" s="23" t="n">
+      <c r="D73" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="E73" s="23" t="n">
+      <c r="E73" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="24"/>
-      <c r="H73" s="23" t="s">
+      <c r="G73" s="30"/>
+      <c r="H73" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I73" s="23" t="s">
+      <c r="I73" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J73" s="23" t="s">
+      <c r="J73" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="23" t="n">
+      <c r="B74" s="28" t="n">
         <v>69</v>
       </c>
-      <c r="C74" s="23" t="n">
+      <c r="C74" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="D74" s="23" t="n">
+      <c r="D74" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="E74" s="23" t="n">
+      <c r="E74" s="28" t="n">
         <v>7</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="23" t="s">
+      <c r="G74" s="30"/>
+      <c r="H74" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I74" s="23" t="s">
+      <c r="I74" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J74" s="23" t="s">
+      <c r="J74" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="23" t="n">
+      <c r="B75" s="28" t="n">
         <v>69</v>
       </c>
-      <c r="C75" s="23" t="n">
+      <c r="C75" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="D75" s="23" t="n">
+      <c r="D75" s="28" t="n">
         <v>8</v>
       </c>
-      <c r="E75" s="23" t="n">
+      <c r="E75" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="23" t="s">
+      <c r="G75" s="30"/>
+      <c r="H75" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I75" s="23" t="s">
+      <c r="I75" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J75" s="23" t="s">
+      <c r="J75" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B76" s="23" t="n">
+      <c r="B76" s="28" t="n">
         <v>70</v>
       </c>
-      <c r="C76" s="23" t="n">
+      <c r="C76" s="28" t="n">
         <v>29</v>
       </c>
-      <c r="D76" s="23" t="n">
+      <c r="D76" s="28" t="n">
         <v>9</v>
       </c>
-      <c r="E76" s="23" t="n">
+      <c r="E76" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="F76" s="23" t="s">
+      <c r="F76" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G76" s="24"/>
-      <c r="H76" s="23" t="s">
+      <c r="G76" s="30"/>
+      <c r="H76" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I76" s="23" t="s">
+      <c r="I76" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J76" s="23" t="s">
+      <c r="J76" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="23" t="n">
+      <c r="B77" s="28" t="n">
         <v>72</v>
       </c>
-      <c r="C77" s="23" t="n">
+      <c r="C77" s="28" t="n">
         <v>28</v>
       </c>
-      <c r="D77" s="23" t="n">
+      <c r="D77" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="E77" s="23" t="n">
+      <c r="E77" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="F77" s="23" t="s">
+      <c r="F77" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G77" s="24"/>
-      <c r="H77" s="23" t="s">
+      <c r="G77" s="30"/>
+      <c r="H77" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I77" s="23" t="s">
+      <c r="I77" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J77" s="23" t="s">
+      <c r="J77" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="23" t="n">
+      <c r="B78" s="28" t="n">
         <v>73</v>
       </c>
-      <c r="C78" s="23" t="n">
+      <c r="C78" s="28" t="n">
         <v>26</v>
       </c>
-      <c r="D78" s="23" t="n">
+      <c r="D78" s="28" t="n">
         <v>11</v>
       </c>
-      <c r="E78" s="23" t="n">
+      <c r="E78" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="F78" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="23" t="s">
+      <c r="G78" s="30"/>
+      <c r="H78" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I78" s="23" t="s">
+      <c r="I78" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J78" s="23" t="s">
+      <c r="J78" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B79" s="23" t="n">
+      <c r="B79" s="28" t="n">
         <v>74</v>
       </c>
-      <c r="C79" s="23" t="n">
+      <c r="C79" s="28" t="n">
         <v>25</v>
       </c>
-      <c r="D79" s="23" t="n">
+      <c r="D79" s="28" t="n">
         <v>12</v>
       </c>
-      <c r="E79" s="23" t="n">
+      <c r="E79" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F79" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G79" s="24"/>
-      <c r="H79" s="23" t="s">
+      <c r="G79" s="30"/>
+      <c r="H79" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I79" s="23" t="s">
+      <c r="I79" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J79" s="23" t="s">
+      <c r="J79" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="23" t="n">
+      <c r="B80" s="28" t="n">
         <v>81</v>
       </c>
-      <c r="C80" s="23" t="n">
+      <c r="C80" s="28" t="n">
         <v>16</v>
       </c>
-      <c r="D80" s="23" t="n">
+      <c r="D80" s="28" t="n">
         <v>13</v>
       </c>
-      <c r="E80" s="23" t="n">
+      <c r="E80" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="F80" s="23" t="s">
+      <c r="F80" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G80" s="24"/>
-      <c r="H80" s="23" t="s">
+      <c r="G80" s="30"/>
+      <c r="H80" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I80" s="23" t="s">
+      <c r="I80" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J80" s="23" t="s">
+      <c r="J80" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-    </row>
+      <c r="A81" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="31" t="n">
+        <v>28</v>
+      </c>
+      <c r="C81" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="D81" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J81" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="31" t="n">
+        <v>31</v>
+      </c>
+      <c r="C82" s="31" t="n">
+        <v>18</v>
+      </c>
+      <c r="D82" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" s="31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="31" t="n">
+        <v>33</v>
+      </c>
+      <c r="C83" s="31" t="n">
+        <v>17</v>
+      </c>
+      <c r="D83" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E83" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F83" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="33"/>
+      <c r="H83" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I83" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J83" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="31" t="n">
+        <v>32</v>
+      </c>
+      <c r="C84" s="31" t="n">
+        <v>17</v>
+      </c>
+      <c r="D84" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E84" s="31" t="n">
+        <v>6</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="33"/>
+      <c r="H84" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I84" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J84" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="31" t="n">
+        <v>33</v>
+      </c>
+      <c r="C85" s="31" t="n">
+        <v>17</v>
+      </c>
+      <c r="D85" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="33"/>
+      <c r="H85" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I85" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J85" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="31" t="n">
+        <v>33</v>
+      </c>
+      <c r="C86" s="31" t="n">
+        <v>16</v>
+      </c>
+      <c r="D86" s="31" t="n">
+        <v>6</v>
+      </c>
+      <c r="E86" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F86" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="33"/>
+      <c r="H86" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I86" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J86" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="31" t="n">
+        <v>34</v>
+      </c>
+      <c r="C87" s="31" t="n">
+        <v>16</v>
+      </c>
+      <c r="D87" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="E87" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="33"/>
+      <c r="H87" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I87" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J87" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="31" t="n">
+        <v>35</v>
+      </c>
+      <c r="C88" s="31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D88" s="31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E88" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G88" s="33"/>
+      <c r="H88" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I88" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J88" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="31" t="n">
+        <v>39</v>
+      </c>
+      <c r="C89" s="31" t="n">
+        <v>11</v>
+      </c>
+      <c r="D89" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E89" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="33"/>
+      <c r="H89" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I89" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J89" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="34"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="34"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="34"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="34"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="34"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="34"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="34"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
@@ -3213,8 +3873,8 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="I89 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3225,90 +3885,90 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3319,4 +3979,468 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="1" sqref="I89 E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="38"/>
+      <c r="H18" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="38"/>
+      <c r="H19" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/leaguedata.xlsx
+++ b/data/leaguedata.xlsx
@@ -10,7 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Settings" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="95">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -276,6 +275,69 @@
     <t xml:space="preserve">8.64</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Monthly Medal </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3 May 2025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Monthly Medal – N/R</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Key</t>
   </si>
   <si>
@@ -285,10 +347,16 @@
     <t xml:space="preserve">League Champions Pot</t>
   </si>
   <si>
-    <t xml:space="preserve">57.80</t>
+    <t xml:space="preserve">66.80</t>
   </si>
   <si>
     <t xml:space="preserve">Next Competition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros Roll Up Week 4 | 08 May 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Competition</t>
   </si>
   <si>
     <r>
@@ -320,50 +388,15 @@
       <t xml:space="preserve"> Monthly Medal | 03/05/2025</t>
     </r>
   </si>
-  <si>
-    <t xml:space="preserve">Last Competition</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">nd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Monthly Medal</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3 May 2025</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -461,8 +494,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB66C"/>
-        <bgColor rgb="FFFF99CC"/>
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFFFA6"/>
       </patternFill>
     </fill>
   </fills>
@@ -507,7 +540,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -524,6 +557,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -532,7 +569,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,6 +581,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,7 +593,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -560,6 +601,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -568,7 +613,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -648,20 +693,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -714,7 +763,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -913,10 +962,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I89" activeCellId="0" sqref="I89"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G64" activeCellId="0" sqref="G:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -935,7 +984,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="12" style="1" width="10.16"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -954,7 +1003,7 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -968,2893 +1017,3130 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="11" t="n">
         <v>24.48</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="n">
+      <c r="K2" s="8" t="n">
         <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="11" t="n">
         <v>16.32</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="K3" s="8" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="8" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="8" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>67</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="7" t="n">
+      <c r="K6" s="8" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="8" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <v>71</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="8" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="8" t="n">
         <v>71</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="8" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="7" t="n">
+      <c r="K10" s="8" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="K11" s="8" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="8" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="K13" s="8" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="7" t="n">
+      <c r="K14" s="8" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="8" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="8" t="n">
         <v>77</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="7" t="n">
+      <c r="K16" s="8" t="n">
         <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="11"/>
+      <c r="H17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="7" t="n">
+      <c r="K17" s="8" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="8" t="n">
         <v>91</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="7" t="n">
+      <c r="K18" s="8" t="n">
         <v>91</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="12" t="n">
+      <c r="B19" s="14" t="n">
         <v>59</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12" t="n">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="13" t="n">
+      <c r="G19" s="16" t="n">
         <v>30.24</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="12" t="n">
+      <c r="B20" s="14" t="n">
         <v>61</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12" t="n">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="13" t="n">
+      <c r="G20" s="16" t="n">
         <v>20.16</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="12" t="n">
+      <c r="B21" s="14" t="n">
         <v>63</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="n">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="12" t="n">
+      <c r="B22" s="14" t="n">
         <v>63</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="n">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="11" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="14" t="n">
         <v>64</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12" t="n">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="11" t="s">
+      <c r="G23" s="16"/>
+      <c r="H23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="12" t="n">
+      <c r="B24" s="14" t="n">
         <v>64</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="n">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="11" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="12" t="n">
+      <c r="B25" s="14" t="n">
         <v>65</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12" t="n">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="11" t="s">
+      <c r="G25" s="16"/>
+      <c r="H25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="12" t="n">
+      <c r="B26" s="14" t="n">
         <v>65</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="n">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="11" t="s">
+      <c r="G26" s="16"/>
+      <c r="H26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="12" t="n">
+      <c r="B27" s="14" t="n">
         <v>66</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12" t="n">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="E27" s="12" t="n">
+      <c r="E27" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="11" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="12" t="n">
+      <c r="B28" s="14" t="n">
         <v>68</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="n">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="11" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="12" t="n">
+      <c r="B29" s="14" t="n">
         <v>69</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="n">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="11" t="s">
+      <c r="G29" s="16"/>
+      <c r="H29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="12" t="n">
+      <c r="B30" s="14" t="n">
         <v>70</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="n">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="11" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="12" t="n">
+      <c r="B31" s="14" t="n">
         <v>70</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12" t="n">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="E31" s="12" t="n">
+      <c r="E31" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="11" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="12" t="n">
+      <c r="B32" s="14" t="n">
         <v>71</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="n">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="11" t="s">
+      <c r="G32" s="16"/>
+      <c r="H32" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="12" t="n">
+      <c r="B33" s="14" t="n">
         <v>72</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12" t="n">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="E33" s="12" t="n">
+      <c r="E33" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="11" t="s">
+      <c r="G33" s="16"/>
+      <c r="H33" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="12" t="n">
+      <c r="B34" s="14" t="n">
         <v>72</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12" t="n">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="E34" s="12" t="n">
+      <c r="E34" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="11" t="s">
+      <c r="G34" s="16"/>
+      <c r="H34" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="12" t="n">
+      <c r="B35" s="14" t="n">
         <v>73</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="n">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="E35" s="12" t="n">
+      <c r="E35" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="11" t="s">
+      <c r="G35" s="16"/>
+      <c r="H35" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="12" t="n">
+      <c r="B36" s="14" t="n">
         <v>76</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12" t="n">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="E36" s="12" t="n">
+      <c r="E36" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="11" t="s">
+      <c r="G36" s="16"/>
+      <c r="H36" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="12" t="n">
+      <c r="B37" s="14" t="n">
         <v>77</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12" t="n">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="E37" s="12" t="n">
+      <c r="E37" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="11" t="s">
+      <c r="G37" s="16"/>
+      <c r="H37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="12" t="n">
+      <c r="B38" s="14" t="n">
         <v>77</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12" t="n">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="E38" s="12" t="n">
+      <c r="E38" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="11" t="s">
+      <c r="G38" s="16"/>
+      <c r="H38" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="12" t="n">
+      <c r="B39" s="14" t="n">
         <v>80</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12" t="n">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="E39" s="12" t="n">
+      <c r="E39" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="11" t="s">
+      <c r="G39" s="16"/>
+      <c r="H39" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="16" t="n">
+      <c r="B40" s="19" t="n">
         <v>60</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16" t="n">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="16" t="n">
+      <c r="E40" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I40" s="17" t="s">
+      <c r="I40" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="16" t="n">
+      <c r="B41" s="19" t="n">
         <v>63</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16" t="n">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="E41" s="16" t="n">
+      <c r="E41" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="16" t="n">
+      <c r="B42" s="19" t="n">
         <v>63</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16" t="n">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="E42" s="16" t="n">
+      <c r="E42" s="19" t="n">
         <v>18</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="16" t="s">
+      <c r="G42" s="21"/>
+      <c r="H42" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="16" t="n">
+      <c r="B43" s="19" t="n">
         <v>64</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16" t="n">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="E43" s="16" t="n">
+      <c r="E43" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="16" t="s">
+      <c r="G43" s="21"/>
+      <c r="H43" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="16" t="n">
+      <c r="B44" s="19" t="n">
         <v>65</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16" t="n">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="E44" s="16" t="n">
+      <c r="E44" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="16" t="s">
+      <c r="G44" s="21"/>
+      <c r="H44" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="J44" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="16" t="n">
+      <c r="B45" s="19" t="n">
         <v>66</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16" t="n">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="E45" s="16" t="n">
+      <c r="E45" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="16" t="s">
+      <c r="G45" s="21"/>
+      <c r="H45" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I45" s="20" t="s">
+      <c r="I45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="16" t="n">
+      <c r="B46" s="19" t="n">
         <v>67</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16" t="n">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="E46" s="16" t="n">
+      <c r="E46" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="16" t="s">
+      <c r="G46" s="21"/>
+      <c r="H46" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="16" t="n">
+      <c r="B47" s="19" t="n">
         <v>67</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16" t="n">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="E47" s="16" t="n">
+      <c r="E47" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="16" t="s">
+      <c r="G47" s="21"/>
+      <c r="H47" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="16" t="n">
+      <c r="B48" s="19" t="n">
         <v>68</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16" t="n">
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="E48" s="16" t="n">
+      <c r="E48" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="16" t="s">
+      <c r="G48" s="21"/>
+      <c r="H48" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J48" s="19" t="s">
+      <c r="J48" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="16" t="n">
+      <c r="B49" s="19" t="n">
         <v>68</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16" t="n">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="n">
+      <c r="E49" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="16" t="s">
+      <c r="G49" s="21"/>
+      <c r="H49" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="19" t="s">
+      <c r="J49" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="16" t="n">
+      <c r="B50" s="19" t="n">
         <v>69</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16" t="n">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="E50" s="16" t="n">
+      <c r="E50" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="16" t="s">
+      <c r="G50" s="21"/>
+      <c r="H50" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="19" t="s">
+      <c r="J50" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="16" t="n">
+      <c r="B51" s="19" t="n">
         <v>71</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16" t="n">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="E51" s="16" t="n">
+      <c r="E51" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="16" t="s">
+      <c r="G51" s="21"/>
+      <c r="H51" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="I51" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="19" t="s">
+      <c r="J51" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="16" t="n">
+      <c r="B52" s="19" t="n">
         <v>71</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16" t="n">
+      <c r="C52" s="19"/>
+      <c r="D52" s="19" t="n">
         <v>13</v>
       </c>
-      <c r="E52" s="16" t="n">
+      <c r="E52" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="16" t="s">
+      <c r="G52" s="21"/>
+      <c r="H52" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I52" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="19" t="s">
+      <c r="J52" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="16" t="n">
+      <c r="B53" s="19" t="n">
         <v>72</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16" t="n">
+      <c r="C53" s="19"/>
+      <c r="D53" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="E53" s="16" t="n">
+      <c r="E53" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="16" t="s">
+      <c r="G53" s="21"/>
+      <c r="H53" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I53" s="20" t="s">
+      <c r="I53" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="19" t="s">
+      <c r="J53" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="16" t="n">
+      <c r="B54" s="19" t="n">
         <v>72</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16" t="n">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="E54" s="16" t="n">
+      <c r="E54" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="16" t="s">
+      <c r="G54" s="21"/>
+      <c r="H54" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I54" s="20" t="s">
+      <c r="I54" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J54" s="19" t="s">
+      <c r="J54" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="16" t="n">
+      <c r="B55" s="19" t="n">
         <v>72</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16" t="n">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="E55" s="16" t="n">
+      <c r="E55" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="16" t="s">
+      <c r="G55" s="21"/>
+      <c r="H55" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I55" s="20" t="s">
+      <c r="I55" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J55" s="19" t="s">
+      <c r="J55" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="16" t="n">
+      <c r="B56" s="19" t="n">
         <v>75</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16" t="n">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="E56" s="16" t="n">
+      <c r="E56" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="16" t="s">
+      <c r="G56" s="21"/>
+      <c r="H56" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J56" s="19" t="s">
+      <c r="J56" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="16" t="n">
+      <c r="B57" s="19" t="n">
         <v>76</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16" t="n">
+      <c r="C57" s="19"/>
+      <c r="D57" s="19" t="n">
         <v>18</v>
       </c>
-      <c r="E57" s="16" t="n">
+      <c r="E57" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="16" t="s">
+      <c r="G57" s="21"/>
+      <c r="H57" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="I57" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J57" s="19" t="s">
+      <c r="J57" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="16" t="n">
+      <c r="B58" s="19" t="n">
         <v>86</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16" t="n">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="E58" s="16" t="n">
+      <c r="E58" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F58" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="16" t="s">
+      <c r="G58" s="21"/>
+      <c r="H58" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I58" s="20" t="s">
+      <c r="I58" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J58" s="19" t="s">
+      <c r="J58" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="16" t="n">
+      <c r="B59" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16" t="n">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="E59" s="16" t="n">
+      <c r="E59" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="16" t="s">
+      <c r="G59" s="21"/>
+      <c r="H59" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I59" s="20" t="s">
+      <c r="I59" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J59" s="19" t="s">
+      <c r="J59" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="21" t="n">
+      <c r="B60" s="24" t="n">
         <v>38</v>
       </c>
-      <c r="C60" s="21" t="n">
+      <c r="C60" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="D60" s="21" t="n">
+      <c r="D60" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="E60" s="21" t="n">
+      <c r="E60" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H60" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="I60" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J60" s="21" t="s">
+      <c r="J60" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="21" t="n">
+      <c r="B61" s="24" t="n">
         <v>39</v>
       </c>
-      <c r="C61" s="21" t="n">
+      <c r="C61" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="D61" s="21" t="n">
+      <c r="D61" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="E61" s="21" t="n">
+      <c r="E61" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="22" t="s">
+      <c r="I61" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J61" s="21" t="s">
+      <c r="J61" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="21" t="n">
+      <c r="B62" s="24" t="n">
         <v>39</v>
       </c>
-      <c r="C62" s="21" t="n">
+      <c r="C62" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="D62" s="21" t="n">
+      <c r="D62" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="E62" s="21" t="n">
+      <c r="E62" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G62" s="23"/>
-      <c r="H62" s="21" t="s">
+      <c r="G62" s="26"/>
+      <c r="H62" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I62" s="22" t="s">
+      <c r="I62" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J62" s="21" t="s">
+      <c r="J62" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="21" t="n">
+      <c r="B63" s="24" t="n">
         <v>42</v>
       </c>
-      <c r="C63" s="21" t="n">
+      <c r="C63" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="D63" s="21" t="n">
+      <c r="D63" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="E63" s="21" t="n">
+      <c r="E63" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G63" s="23"/>
-      <c r="H63" s="21" t="s">
+      <c r="G63" s="26"/>
+      <c r="H63" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I63" s="22" t="s">
+      <c r="I63" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J63" s="21" t="s">
+      <c r="J63" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24" t="s">
+    <row r="64" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="24" t="n">
+      <c r="B64" s="27" t="n">
         <v>40</v>
       </c>
-      <c r="C64" s="24" t="n">
+      <c r="C64" s="27" t="n">
         <v>17</v>
       </c>
-      <c r="D64" s="24" t="n">
+      <c r="D64" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="E64" s="24" t="n">
+      <c r="E64" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="F64" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="24" t="s">
+      <c r="G64" s="29"/>
+      <c r="H64" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I64" s="25" t="s">
+      <c r="I64" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J64" s="24" t="s">
+      <c r="J64" s="27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="21" t="n">
+      <c r="B65" s="24" t="n">
         <v>38</v>
       </c>
-      <c r="C65" s="21" t="n">
+      <c r="C65" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="D65" s="21" t="n">
+      <c r="D65" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="E65" s="21" t="n">
+      <c r="E65" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="21" t="s">
+      <c r="G65" s="26"/>
+      <c r="H65" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I65" s="22" t="s">
+      <c r="I65" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J65" s="21" t="s">
+      <c r="J65" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="21" t="n">
+      <c r="B66" s="24" t="n">
         <v>42</v>
       </c>
-      <c r="C66" s="21" t="n">
+      <c r="C66" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="D66" s="21" t="n">
+      <c r="D66" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="E66" s="21" t="n">
+      <c r="E66" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="F66" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="21" t="s">
+      <c r="G66" s="26"/>
+      <c r="H66" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I66" s="22" t="s">
+      <c r="I66" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J66" s="21" t="s">
+      <c r="J66" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24" t="s">
+    <row r="67" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="24" t="n">
+      <c r="B67" s="27" t="n">
         <v>40</v>
       </c>
-      <c r="C67" s="24" t="n">
+      <c r="C67" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="D67" s="24" t="n">
+      <c r="D67" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="E67" s="24" t="n">
+      <c r="E67" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="26"/>
-      <c r="H67" s="24" t="s">
+      <c r="G67" s="29"/>
+      <c r="H67" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I67" s="25" t="s">
+      <c r="I67" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="J67" s="27" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B68" s="28" t="n">
+      <c r="B68" s="31" t="n">
         <v>62</v>
       </c>
-      <c r="C68" s="28" t="n">
+      <c r="C68" s="31" t="n">
         <v>38</v>
       </c>
-      <c r="D68" s="28" t="n">
+      <c r="D68" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E68" s="28" t="n">
+      <c r="E68" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="F68" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G68" s="30" t="s">
+      <c r="G68" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="28" t="s">
+      <c r="H68" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I68" s="29" t="s">
+      <c r="I68" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J68" s="28" t="s">
+      <c r="J68" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="28" t="n">
+      <c r="B69" s="31" t="n">
         <v>63</v>
       </c>
-      <c r="C69" s="28" t="n">
+      <c r="C69" s="31" t="n">
         <v>37</v>
       </c>
-      <c r="D69" s="28" t="n">
+      <c r="D69" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="E69" s="28" t="n">
+      <c r="E69" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F69" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G69" s="30" t="s">
+      <c r="G69" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="H69" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I69" s="29" t="s">
+      <c r="I69" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J69" s="28" t="s">
+      <c r="J69" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="28" t="n">
+      <c r="B70" s="31" t="n">
         <v>64</v>
       </c>
-      <c r="C70" s="28" t="n">
+      <c r="C70" s="31" t="n">
         <v>35</v>
       </c>
-      <c r="D70" s="28" t="n">
+      <c r="D70" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="E70" s="28" t="n">
+      <c r="E70" s="31" t="n">
         <v>11</v>
       </c>
-      <c r="F70" s="29" t="s">
+      <c r="F70" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G70" s="30"/>
-      <c r="H70" s="28" t="s">
+      <c r="G70" s="33"/>
+      <c r="H70" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I70" s="29" t="s">
+      <c r="I70" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J70" s="28" t="s">
+      <c r="J70" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="28" t="n">
+      <c r="B71" s="31" t="n">
         <v>66</v>
       </c>
-      <c r="C71" s="28" t="n">
+      <c r="C71" s="31" t="n">
         <v>34</v>
       </c>
-      <c r="D71" s="28" t="n">
+      <c r="D71" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="E71" s="28" t="n">
+      <c r="E71" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="F71" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="30"/>
-      <c r="H71" s="28" t="s">
+      <c r="G71" s="33"/>
+      <c r="H71" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I71" s="29" t="s">
+      <c r="I71" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J71" s="28" t="s">
+      <c r="J71" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="28" t="n">
+      <c r="B72" s="31" t="n">
         <v>66</v>
       </c>
-      <c r="C72" s="28" t="n">
+      <c r="C72" s="31" t="n">
         <v>33</v>
       </c>
-      <c r="D72" s="28" t="n">
+      <c r="D72" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E72" s="28" t="n">
+      <c r="E72" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F72" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G72" s="30"/>
-      <c r="H72" s="28" t="s">
+      <c r="G72" s="33"/>
+      <c r="H72" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I72" s="29" t="s">
+      <c r="I72" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J72" s="28" t="s">
+      <c r="J72" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="28" t="n">
+      <c r="B73" s="31" t="n">
         <v>68</v>
       </c>
-      <c r="C73" s="28" t="n">
+      <c r="C73" s="31" t="n">
         <v>32</v>
       </c>
-      <c r="D73" s="28" t="n">
+      <c r="D73" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E73" s="28" t="n">
+      <c r="E73" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="F73" s="29" t="s">
+      <c r="F73" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="30"/>
-      <c r="H73" s="28" t="s">
+      <c r="G73" s="33"/>
+      <c r="H73" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I73" s="29" t="s">
+      <c r="I73" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J73" s="28" t="s">
+      <c r="J73" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="28" t="n">
+      <c r="B74" s="31" t="n">
         <v>69</v>
       </c>
-      <c r="C74" s="28" t="n">
+      <c r="C74" s="31" t="n">
         <v>30</v>
       </c>
-      <c r="D74" s="28" t="n">
+      <c r="D74" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E74" s="28" t="n">
+      <c r="E74" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="F74" s="29" t="s">
+      <c r="F74" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G74" s="30"/>
-      <c r="H74" s="28" t="s">
+      <c r="G74" s="33"/>
+      <c r="H74" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I74" s="29" t="s">
+      <c r="I74" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J74" s="28" t="s">
+      <c r="J74" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="28" t="n">
+      <c r="B75" s="31" t="n">
         <v>69</v>
       </c>
-      <c r="C75" s="28" t="n">
+      <c r="C75" s="31" t="n">
         <v>30</v>
       </c>
-      <c r="D75" s="28" t="n">
+      <c r="D75" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="E75" s="28" t="n">
+      <c r="E75" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="F75" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="28" t="s">
+      <c r="G75" s="33"/>
+      <c r="H75" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I75" s="29" t="s">
+      <c r="I75" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J75" s="28" t="s">
+      <c r="J75" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B76" s="28" t="n">
+      <c r="B76" s="31" t="n">
         <v>70</v>
       </c>
-      <c r="C76" s="28" t="n">
+      <c r="C76" s="31" t="n">
         <v>29</v>
       </c>
-      <c r="D76" s="28" t="n">
+      <c r="D76" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="E76" s="28" t="n">
+      <c r="E76" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="F76" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="G76" s="30"/>
-      <c r="H76" s="28" t="s">
+      <c r="G76" s="33"/>
+      <c r="H76" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I76" s="29" t="s">
+      <c r="I76" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J76" s="28" t="s">
+      <c r="J76" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="28" t="n">
+      <c r="B77" s="31" t="n">
         <v>72</v>
       </c>
-      <c r="C77" s="28" t="n">
+      <c r="C77" s="31" t="n">
         <v>28</v>
       </c>
-      <c r="D77" s="28" t="n">
+      <c r="D77" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="E77" s="28" t="n">
+      <c r="E77" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="F77" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G77" s="30"/>
-      <c r="H77" s="28" t="s">
+      <c r="G77" s="33"/>
+      <c r="H77" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I77" s="29" t="s">
+      <c r="I77" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J77" s="28" t="s">
+      <c r="J77" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="28" t="n">
+      <c r="B78" s="31" t="n">
         <v>73</v>
       </c>
-      <c r="C78" s="28" t="n">
+      <c r="C78" s="31" t="n">
         <v>26</v>
       </c>
-      <c r="D78" s="28" t="n">
+      <c r="D78" s="31" t="n">
         <v>11</v>
       </c>
-      <c r="E78" s="28" t="n">
+      <c r="E78" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="28" t="s">
+      <c r="G78" s="33"/>
+      <c r="H78" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I78" s="29" t="s">
+      <c r="I78" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J78" s="28" t="s">
+      <c r="J78" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B79" s="28" t="n">
+      <c r="B79" s="31" t="n">
         <v>74</v>
       </c>
-      <c r="C79" s="28" t="n">
+      <c r="C79" s="31" t="n">
         <v>25</v>
       </c>
-      <c r="D79" s="28" t="n">
+      <c r="D79" s="31" t="n">
         <v>12</v>
       </c>
-      <c r="E79" s="28" t="n">
+      <c r="E79" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="F79" s="29" t="s">
+      <c r="F79" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="28" t="s">
+      <c r="G79" s="33"/>
+      <c r="H79" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I79" s="29" t="s">
+      <c r="I79" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J79" s="28" t="s">
+      <c r="J79" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="28" t="n">
+      <c r="B80" s="31" t="n">
         <v>81</v>
       </c>
-      <c r="C80" s="28" t="n">
+      <c r="C80" s="31" t="n">
         <v>16</v>
       </c>
-      <c r="D80" s="28" t="n">
+      <c r="D80" s="31" t="n">
         <v>13</v>
       </c>
-      <c r="E80" s="28" t="n">
+      <c r="E80" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="F80" s="29" t="s">
+      <c r="F80" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="28" t="s">
+      <c r="G80" s="33"/>
+      <c r="H80" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I80" s="29" t="s">
+      <c r="I80" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="J80" s="28" t="s">
+      <c r="J80" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="31" t="n">
+      <c r="B81" s="34" t="n">
         <v>28</v>
       </c>
-      <c r="C81" s="31" t="n">
+      <c r="C81" s="34" t="n">
         <v>22</v>
       </c>
-      <c r="D81" s="31" t="n">
+      <c r="D81" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="E81" s="31" t="n">
+      <c r="E81" s="34" t="n">
         <v>9</v>
       </c>
-      <c r="F81" s="32" t="s">
+      <c r="F81" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="H81" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I81" s="32" t="s">
+      <c r="I81" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J81" s="31" t="s">
+      <c r="J81" s="34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="31" t="s">
+    <row r="82" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="31" t="n">
+      <c r="B82" s="34" t="n">
         <v>31</v>
       </c>
-      <c r="C82" s="31" t="n">
+      <c r="C82" s="34" t="n">
         <v>18</v>
       </c>
-      <c r="D82" s="31" t="n">
+      <c r="D82" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="E82" s="31" t="n">
+      <c r="E82" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="F82" s="32" t="s">
+      <c r="F82" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G82" s="33" t="s">
+      <c r="G82" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="H82" s="31" t="s">
+      <c r="H82" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I82" s="32" t="s">
+      <c r="I82" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J82" s="31" t="s">
+      <c r="J82" s="34" t="s">
         <v>61</v>
       </c>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="31" t="s">
+    <row r="83" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="31" t="n">
+      <c r="B83" s="34" t="n">
         <v>33</v>
       </c>
-      <c r="C83" s="31" t="n">
+      <c r="C83" s="34" t="n">
         <v>17</v>
       </c>
-      <c r="D83" s="31" t="n">
+      <c r="D83" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="E83" s="31" t="n">
+      <c r="E83" s="34" t="n">
         <v>7</v>
       </c>
-      <c r="F83" s="32" t="s">
+      <c r="F83" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="31" t="s">
+      <c r="G83" s="36"/>
+      <c r="H83" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I83" s="32" t="s">
+      <c r="I83" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J83" s="31" t="s">
+      <c r="J83" s="34" t="s">
         <v>61</v>
       </c>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="31" t="s">
+    <row r="84" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="31" t="n">
+      <c r="B84" s="34" t="n">
         <v>32</v>
       </c>
-      <c r="C84" s="31" t="n">
+      <c r="C84" s="34" t="n">
         <v>17</v>
       </c>
-      <c r="D84" s="31" t="n">
+      <c r="D84" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="E84" s="31" t="n">
+      <c r="E84" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="F84" s="32" t="s">
+      <c r="F84" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G84" s="33"/>
-      <c r="H84" s="31" t="s">
+      <c r="G84" s="36"/>
+      <c r="H84" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I84" s="32" t="s">
+      <c r="I84" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J84" s="31" t="s">
+      <c r="J84" s="34" t="s">
         <v>61</v>
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="31" t="s">
+    <row r="85" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="31" t="n">
+      <c r="B85" s="34" t="n">
         <v>33</v>
       </c>
-      <c r="C85" s="31" t="n">
+      <c r="C85" s="34" t="n">
         <v>17</v>
       </c>
-      <c r="D85" s="31" t="n">
+      <c r="D85" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="E85" s="31" t="n">
+      <c r="E85" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="F85" s="32" t="s">
+      <c r="F85" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G85" s="33"/>
-      <c r="H85" s="31" t="s">
+      <c r="G85" s="36"/>
+      <c r="H85" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I85" s="32" t="s">
+      <c r="I85" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J85" s="31" t="s">
+      <c r="J85" s="34" t="s">
         <v>61</v>
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="31" t="s">
+    <row r="86" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="31" t="n">
+      <c r="B86" s="34" t="n">
         <v>33</v>
       </c>
-      <c r="C86" s="31" t="n">
+      <c r="C86" s="34" t="n">
         <v>16</v>
       </c>
-      <c r="D86" s="31" t="n">
+      <c r="D86" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="E86" s="31" t="n">
+      <c r="E86" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="F86" s="32" t="s">
+      <c r="F86" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G86" s="33"/>
-      <c r="H86" s="31" t="s">
+      <c r="G86" s="36"/>
+      <c r="H86" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I86" s="32" t="s">
+      <c r="I86" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J86" s="31" t="s">
+      <c r="J86" s="34" t="s">
         <v>61</v>
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="31" t="s">
+    <row r="87" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="31" t="n">
+      <c r="B87" s="34" t="n">
         <v>34</v>
       </c>
-      <c r="C87" s="31" t="n">
+      <c r="C87" s="34" t="n">
         <v>16</v>
       </c>
-      <c r="D87" s="31" t="n">
+      <c r="D87" s="34" t="n">
         <v>7</v>
       </c>
-      <c r="E87" s="31" t="n">
+      <c r="E87" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="F87" s="32" t="s">
+      <c r="F87" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G87" s="33"/>
-      <c r="H87" s="31" t="s">
+      <c r="G87" s="36"/>
+      <c r="H87" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I87" s="32" t="s">
+      <c r="I87" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J87" s="31" t="s">
+      <c r="J87" s="34" t="s">
         <v>61</v>
       </c>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="31" t="s">
+    <row r="88" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B88" s="31" t="n">
+      <c r="B88" s="34" t="n">
         <v>35</v>
       </c>
-      <c r="C88" s="31" t="n">
+      <c r="C88" s="34" t="n">
         <v>15</v>
       </c>
-      <c r="D88" s="31" t="n">
+      <c r="D88" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="E88" s="31" t="n">
+      <c r="E88" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="F88" s="32" t="s">
+      <c r="F88" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G88" s="33"/>
-      <c r="H88" s="31" t="s">
+      <c r="G88" s="36"/>
+      <c r="H88" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I88" s="32" t="s">
+      <c r="I88" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J88" s="31" t="s">
+      <c r="J88" s="34" t="s">
         <v>61</v>
       </c>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="31" t="s">
+    <row r="89" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="31" t="n">
+      <c r="B89" s="34" t="n">
         <v>39</v>
       </c>
-      <c r="C89" s="31" t="n">
+      <c r="C89" s="34" t="n">
         <v>11</v>
       </c>
-      <c r="D89" s="31" t="n">
+      <c r="D89" s="34" t="n">
         <v>9</v>
       </c>
-      <c r="E89" s="31" t="n">
+      <c r="E89" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="F89" s="32" t="s">
+      <c r="F89" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="G89" s="33"/>
-      <c r="H89" s="31" t="s">
+      <c r="G89" s="36"/>
+      <c r="H89" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I89" s="32" t="s">
+      <c r="I89" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="J89" s="31" t="s">
+      <c r="J89" s="34" t="s">
         <v>61</v>
       </c>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="34"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="34"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="34"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="34"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="34"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="34"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="34"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="34"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="34"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="34"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="34"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="34"/>
-      <c r="J102" s="34"/>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="34"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="34"/>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="34"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-      <c r="G104" s="34"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="34"/>
-      <c r="J104" s="34"/>
+    <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="38" t="n">
+        <v>64</v>
+      </c>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="38" t="n">
+        <v>15</v>
+      </c>
+      <c r="F90" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G90" s="40" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J90" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="38" t="n">
+        <v>64</v>
+      </c>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" s="38" t="n">
+        <v>14</v>
+      </c>
+      <c r="F91" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G91" s="40" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H91" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J91" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="38" t="n">
+        <v>65</v>
+      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="F92" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G92" s="40"/>
+      <c r="H92" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J92" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="38" t="n">
+        <v>66</v>
+      </c>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="F93" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G93" s="40"/>
+      <c r="H93" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I93" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J93" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="38" t="n">
+        <v>67</v>
+      </c>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" s="38" t="n">
+        <v>11</v>
+      </c>
+      <c r="F94" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G94" s="40"/>
+      <c r="H94" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I94" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J94" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" s="38" t="n">
+        <v>68</v>
+      </c>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E95" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F95" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G95" s="40"/>
+      <c r="H95" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I95" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J95" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="38" t="n">
+        <v>69</v>
+      </c>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="E96" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F96" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G96" s="40"/>
+      <c r="H96" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I96" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J96" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="38" t="n">
+        <v>71</v>
+      </c>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" s="38" t="n">
+        <v>8</v>
+      </c>
+      <c r="F97" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G97" s="40"/>
+      <c r="H97" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I97" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J97" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="38" t="n">
+        <v>72</v>
+      </c>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E98" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F98" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G98" s="40"/>
+      <c r="H98" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I98" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J98" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="38" t="n">
+        <v>72</v>
+      </c>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E99" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="F99" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G99" s="40"/>
+      <c r="H99" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I99" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J99" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="38" t="n">
+        <v>73</v>
+      </c>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38" t="n">
+        <v>11</v>
+      </c>
+      <c r="E100" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F100" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G100" s="40"/>
+      <c r="H100" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I100" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J100" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" s="38" t="n">
+        <v>73</v>
+      </c>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38" t="n">
+        <v>12</v>
+      </c>
+      <c r="E101" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="F101" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G101" s="40"/>
+      <c r="H101" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I101" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J101" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="38" t="n">
+        <v>73</v>
+      </c>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38" t="n">
+        <v>13</v>
+      </c>
+      <c r="E102" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G102" s="40"/>
+      <c r="H102" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I102" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J102" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="38" t="n">
+        <v>77</v>
+      </c>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38" t="n">
+        <v>14</v>
+      </c>
+      <c r="E103" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G103" s="40"/>
+      <c r="H103" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I103" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J103" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38" t="n">
+        <v>15</v>
+      </c>
+      <c r="E104" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G104" s="40"/>
+      <c r="H104" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I104" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J104" s="38" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="34"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="34"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="34"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="34"/>
-      <c r="B108" s="34"/>
-      <c r="C108" s="34"/>
-      <c r="D108" s="34"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="34"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="34"/>
-      <c r="J108" s="34"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="34"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="34"/>
-      <c r="J109" s="34"/>
-    </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
@@ -3874,7 +4160,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="I89 B3"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="G:G B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3885,90 +4171,90 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3979,468 +4265,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="1" sqref="I89 E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36" t="n">
-        <v>9</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36" t="n">
-        <v>11</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36" t="n">
-        <v>12</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36" t="n">
-        <v>13</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36" t="n">
-        <v>14</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36" t="n">
-        <v>15</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36" t="n">
-        <v>16</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36" t="n">
-        <v>17</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36" t="n">
-        <v>18</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36" t="n">
-        <v>19</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36" t="n">
-        <v>20</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>